--- a/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01731664676937328</v>
+        <v>0.01731664676951894</v>
       </c>
       <c r="D2">
-        <v>0.006422029014001573</v>
+        <v>0.006422029013997133</v>
       </c>
       <c r="E2">
-        <v>0.0500887404311392</v>
+        <v>0.05008874043112499</v>
       </c>
       <c r="F2">
-        <v>1.115557152457171</v>
+        <v>1.115557152457185</v>
       </c>
       <c r="G2">
         <v>0.8451782953623876</v>
@@ -433,16 +433,16 @@
         <v>0.8658707702783133</v>
       </c>
       <c r="I2">
-        <v>0.03447862123543821</v>
+        <v>0.03447862123543644</v>
       </c>
       <c r="J2">
-        <v>8.204198124520587</v>
+        <v>8.204198124520502</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.79691861196028</v>
+        <v>4.796918611960223</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01499255000312871</v>
+        <v>0.01499255000318556</v>
       </c>
       <c r="D3">
-        <v>0.004277351975279231</v>
+        <v>0.004277351975346733</v>
       </c>
       <c r="E3">
-        <v>0.04529239967018128</v>
+        <v>0.04529239967018484</v>
       </c>
       <c r="F3">
         <v>0.9489452854415248</v>
       </c>
       <c r="G3">
-        <v>0.7152624628000765</v>
+        <v>0.7152624628000694</v>
       </c>
       <c r="H3">
         <v>0.7342123913557614</v>
       </c>
       <c r="I3">
-        <v>0.03076697838302422</v>
+        <v>0.03076697838300468</v>
       </c>
       <c r="J3">
-        <v>7.084926422074858</v>
+        <v>7.084926422074915</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>4.139146502328273</v>
+        <v>4.139146502328288</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01365932020713956</v>
+        <v>0.01365932020713601</v>
       </c>
       <c r="D4">
-        <v>0.003183366497977236</v>
+        <v>0.003183366498201501</v>
       </c>
       <c r="E4">
-        <v>0.04252557139434288</v>
+        <v>0.04252557139431801</v>
       </c>
       <c r="F4">
-        <v>0.8566479643169771</v>
+        <v>0.8566479643169913</v>
       </c>
       <c r="G4">
-        <v>0.6437506587885835</v>
+        <v>0.6437506587886048</v>
       </c>
       <c r="H4">
         <v>0.6608985688570996</v>
       </c>
       <c r="I4">
-        <v>0.02875285595715305</v>
+        <v>0.02875285595717614</v>
       </c>
       <c r="J4">
-        <v>6.407444661225554</v>
+        <v>6.407444661225526</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01313583670495788</v>
+        <v>0.01313583670496854</v>
       </c>
       <c r="D5">
-        <v>0.002784717311634211</v>
+        <v>0.002784717311716367</v>
       </c>
       <c r="E5">
-        <v>0.04143772497181786</v>
+        <v>0.04143772497182496</v>
       </c>
       <c r="F5">
-        <v>0.821214479386029</v>
+        <v>0.8212144793859721</v>
       </c>
       <c r="G5">
         <v>0.6164053889042975</v>
       </c>
       <c r="H5">
-        <v>0.632658503703027</v>
+        <v>0.6326585037030341</v>
       </c>
       <c r="I5">
-        <v>0.0279902691958771</v>
+        <v>0.02799026919587888</v>
       </c>
       <c r="J5">
-        <v>6.133318518923431</v>
+        <v>6.133318518923403</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.580943880598014</v>
+        <v>3.580943880597999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,13 +567,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01305001020538654</v>
+        <v>0.01305001020527286</v>
       </c>
       <c r="D6">
-        <v>0.002721134857762486</v>
+        <v>0.00272113485794323</v>
       </c>
       <c r="E6">
-        <v>0.04125934725266234</v>
+        <v>0.04125934725263747</v>
       </c>
       <c r="F6">
         <v>0.8154533337333589</v>
@@ -582,10 +582,10 @@
         <v>0.6119657387081574</v>
       </c>
       <c r="H6">
-        <v>0.6280612113994835</v>
+        <v>0.6280612113994763</v>
       </c>
       <c r="I6">
-        <v>0.0278669326520653</v>
+        <v>0.02786693265206708</v>
       </c>
       <c r="J6">
         <v>6.08790467871259</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.554329369622906</v>
+        <v>3.554329369622891</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01365218464651008</v>
+        <v>0.01365218464639995</v>
       </c>
       <c r="D7">
-        <v>0.003177810028921702</v>
+        <v>0.003177810029046046</v>
       </c>
       <c r="E7">
-        <v>0.04251074601875615</v>
+        <v>0.04251074601877392</v>
       </c>
       <c r="F7">
-        <v>0.856161688555801</v>
+        <v>0.8561616885557868</v>
       </c>
       <c r="G7">
         <v>0.643374940436658</v>
       </c>
       <c r="H7">
-        <v>0.6605114038248843</v>
+        <v>0.6605114038248772</v>
       </c>
       <c r="I7">
-        <v>0.02874234612097659</v>
+        <v>0.02874234612099791</v>
       </c>
       <c r="J7">
-        <v>6.403740404628479</v>
+        <v>6.403740404628451</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3.739470359115842</v>
+        <v>3.739470359115799</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01649338253992028</v>
+        <v>0.0164933825398208</v>
       </c>
       <c r="D8">
-        <v>0.005630511619859835</v>
+        <v>0.005630511619874046</v>
       </c>
       <c r="E8">
-        <v>0.04839466058289688</v>
+        <v>0.04839466058290043</v>
       </c>
       <c r="F8">
-        <v>1.055815525266539</v>
+        <v>1.055815525266524</v>
       </c>
       <c r="G8">
-        <v>0.7984886038960113</v>
+        <v>0.7984886038960042</v>
       </c>
       <c r="H8">
-        <v>0.8187475179914614</v>
+        <v>0.8187475179914543</v>
       </c>
       <c r="I8">
-        <v>0.03313842172421211</v>
+        <v>0.03313842172420145</v>
       </c>
       <c r="J8">
         <v>7.815925301304276</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.568593369858775</v>
+        <v>4.568593369858732</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -684,25 +684,25 @@
         <v>0.02301567729957554</v>
       </c>
       <c r="D9">
-        <v>0.0126944959471702</v>
+        <v>0.01269449594702099</v>
       </c>
       <c r="E9">
-        <v>0.06162383531761861</v>
+        <v>0.06162383531757953</v>
       </c>
       <c r="F9">
-        <v>1.544818234794207</v>
+        <v>1.544818234794178</v>
       </c>
       <c r="G9">
-        <v>1.183245022073606</v>
+        <v>1.183245022073578</v>
       </c>
       <c r="H9">
-        <v>1.202536806091118</v>
+        <v>1.202536806091103</v>
       </c>
       <c r="I9">
-        <v>0.04431664961938431</v>
+        <v>0.0443166496194074</v>
       </c>
       <c r="J9">
-        <v>10.68950139684361</v>
+        <v>10.68950139684353</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02875188272974327</v>
+        <v>0.02875188272980012</v>
       </c>
       <c r="D10">
-        <v>0.02011551717541238</v>
+        <v>0.02011551717552429</v>
       </c>
       <c r="E10">
-        <v>0.07285197270128663</v>
+        <v>0.07285197270129018</v>
       </c>
       <c r="F10">
-        <v>1.994786260034275</v>
+        <v>1.994786260034289</v>
       </c>
       <c r="G10">
-        <v>1.541085523104258</v>
+        <v>1.541085523104272</v>
       </c>
       <c r="H10">
-        <v>1.553106817813557</v>
+        <v>1.553106817813571</v>
       </c>
       <c r="I10">
-        <v>0.05488109717437872</v>
+        <v>0.0548810971743805</v>
       </c>
       <c r="J10">
-        <v>12.91036386988745</v>
+        <v>12.91036386988736</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.576171415860671</v>
+        <v>7.576171415860699</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03167852878011956</v>
+        <v>0.03167852878002009</v>
       </c>
       <c r="D11">
-        <v>0.02423990912998075</v>
+        <v>0.02423990912980489</v>
       </c>
       <c r="E11">
-        <v>0.07842938405405775</v>
+        <v>0.07842938405407196</v>
       </c>
       <c r="F11">
-        <v>2.228558607666457</v>
+        <v>2.228558607666443</v>
       </c>
       <c r="G11">
-        <v>1.728016604793837</v>
+        <v>1.728016604793808</v>
       </c>
       <c r="H11">
-        <v>1.734624270915702</v>
+        <v>1.734624270915688</v>
       </c>
       <c r="I11">
-        <v>0.06043658503760341</v>
+        <v>0.06043658503761407</v>
       </c>
       <c r="J11">
-        <v>13.95806331151462</v>
+        <v>13.95806331151468</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.197821771173835</v>
+        <v>8.197821771173807</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03284510673081087</v>
+        <v>0.03284510673091745</v>
       </c>
       <c r="D12">
-        <v>0.02593943027428036</v>
+        <v>0.02593943027434964</v>
       </c>
       <c r="E12">
-        <v>0.0806245425613703</v>
+        <v>0.08062454256135254</v>
       </c>
       <c r="F12">
-        <v>2.322309509340315</v>
+        <v>2.322309509340343</v>
       </c>
       <c r="G12">
-        <v>1.803148390450033</v>
+        <v>1.803148390450048</v>
       </c>
       <c r="H12">
-        <v>1.807326096584774</v>
+        <v>1.807326096584816</v>
       </c>
       <c r="I12">
-        <v>0.06267475880994766</v>
+        <v>0.06267475880994411</v>
       </c>
       <c r="J12">
-        <v>14.36166130061275</v>
+        <v>14.3616613006127</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.437583842003704</v>
+        <v>8.437583842003789</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03259102773902356</v>
+        <v>0.0325910277389454</v>
       </c>
       <c r="D13">
-        <v>0.02556671014752254</v>
+        <v>0.02556671014752698</v>
       </c>
       <c r="E13">
-        <v>0.08014778807459422</v>
+        <v>0.08014778807460488</v>
       </c>
       <c r="F13">
-        <v>2.301866419358149</v>
+        <v>2.30186641935812</v>
       </c>
       <c r="G13">
         <v>1.786757694016487</v>
       </c>
       <c r="H13">
-        <v>1.791477096676545</v>
+        <v>1.791477096676516</v>
       </c>
       <c r="I13">
-        <v>0.06218624712252385</v>
+        <v>0.06218624712252563</v>
       </c>
       <c r="J13">
         <v>14.27440672524057</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03177324928637404</v>
+        <v>0.0317732492861964</v>
       </c>
       <c r="D14">
-        <v>0.02437676664427357</v>
+        <v>0.02437676664446631</v>
       </c>
       <c r="E14">
-        <v>0.07860821187563616</v>
+        <v>0.07860821187561484</v>
       </c>
       <c r="F14">
-        <v>2.236159810934566</v>
+        <v>2.236159810934538</v>
       </c>
       <c r="G14">
-        <v>1.734104814320204</v>
+        <v>1.73410481432019</v>
       </c>
       <c r="H14">
-        <v>1.740520699734688</v>
+        <v>1.740520699734645</v>
       </c>
       <c r="I14">
-        <v>0.06061784854741958</v>
+        <v>0.0606178485474036</v>
       </c>
       <c r="J14">
-        <v>13.99112034719639</v>
+        <v>13.99112034719647</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0312803696882753</v>
+        <v>0.03128036968828241</v>
       </c>
       <c r="D15">
-        <v>0.02366686412924679</v>
+        <v>0.02366686412913044</v>
       </c>
       <c r="E15">
-        <v>0.07767653049639023</v>
+        <v>0.07767653049637246</v>
       </c>
       <c r="F15">
         <v>2.196629027560192</v>
       </c>
       <c r="G15">
-        <v>1.702449162298436</v>
+        <v>1.70244916229845</v>
       </c>
       <c r="H15">
-        <v>1.709852059675157</v>
+        <v>1.709852059675143</v>
       </c>
       <c r="I15">
-        <v>0.05967557759544562</v>
+        <v>0.05967557759544384</v>
       </c>
       <c r="J15">
-        <v>13.81854235894377</v>
+        <v>13.8185423589438</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.114975160191619</v>
+        <v>8.114975160191648</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02856801092730166</v>
+        <v>0.02856801092712402</v>
       </c>
       <c r="D16">
-        <v>0.01986342404102359</v>
+        <v>0.01986342404102182</v>
       </c>
       <c r="E16">
-        <v>0.07249817215364374</v>
+        <v>0.07249817215365795</v>
       </c>
       <c r="F16">
         <v>1.980177070336666</v>
@@ -962,13 +962,13 @@
         <v>1.529424541799074</v>
       </c>
       <c r="H16">
-        <v>1.541751126300511</v>
+        <v>1.541751126300525</v>
       </c>
       <c r="I16">
-        <v>0.054535239983867</v>
+        <v>0.05453523998385457</v>
       </c>
       <c r="J16">
-        <v>12.84276533480687</v>
+        <v>12.8427653348069</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02699331431114871</v>
+        <v>0.0269933143111416</v>
       </c>
       <c r="D17">
-        <v>0.01774075412206155</v>
+        <v>0.01774075412194964</v>
       </c>
       <c r="E17">
         <v>0.06945164243283841</v>
@@ -997,16 +997,16 @@
         <v>1.855500949261298</v>
       </c>
       <c r="G17">
-        <v>1.43001710003621</v>
+        <v>1.430017100036224</v>
       </c>
       <c r="H17">
         <v>1.444776144902647</v>
       </c>
       <c r="I17">
-        <v>0.05159069906429536</v>
+        <v>0.05159069906431668</v>
       </c>
       <c r="J17">
-        <v>12.2546840233633</v>
+        <v>12.25468402336327</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02611651717484875</v>
+        <v>0.02611651717473507</v>
       </c>
       <c r="D18">
-        <v>0.01658809806020134</v>
+        <v>0.01658809806019956</v>
       </c>
       <c r="E18">
-        <v>0.06774244297614374</v>
+        <v>0.06774244297614729</v>
       </c>
       <c r="F18">
-        <v>1.78645172827872</v>
+        <v>1.786451728278735</v>
       </c>
       <c r="G18">
-        <v>1.375049998784931</v>
+        <v>1.375049998784945</v>
       </c>
       <c r="H18">
-        <v>1.391015516089908</v>
+        <v>1.391015516089936</v>
       </c>
       <c r="I18">
-        <v>0.04996570350883545</v>
+        <v>0.04996570350884255</v>
       </c>
       <c r="J18">
-        <v>11.91985085955986</v>
+        <v>11.91985085955977</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.98943521316815</v>
+        <v>6.989435213168093</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02582428399968961</v>
+        <v>0.02582428399969672</v>
       </c>
       <c r="D19">
-        <v>0.01620876398308368</v>
+        <v>0.01620876398308901</v>
       </c>
       <c r="E19">
-        <v>0.06717072257047718</v>
+        <v>0.06717072257045942</v>
       </c>
       <c r="F19">
-        <v>1.763502311459192</v>
+        <v>1.763502311459206</v>
       </c>
       <c r="G19">
         <v>1.356795518344143</v>
@@ -1079,7 +1079,7 @@
         <v>1.373138467965276</v>
       </c>
       <c r="I19">
-        <v>0.04942659091217472</v>
+        <v>0.04942659091216761</v>
       </c>
       <c r="J19">
         <v>11.80702938026062</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.922664960189195</v>
+        <v>6.922664960189223</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02715786851906898</v>
+        <v>0.02715786851906188</v>
       </c>
       <c r="D20">
-        <v>0.01795946096639334</v>
+        <v>0.01795946096649548</v>
       </c>
       <c r="E20">
-        <v>0.06977139093202211</v>
+        <v>0.0697713909320079</v>
       </c>
       <c r="F20">
-        <v>1.868490795942421</v>
+        <v>1.868490795942463</v>
       </c>
       <c r="G20">
-        <v>1.440364917426464</v>
+        <v>1.440364917426479</v>
       </c>
       <c r="H20">
-        <v>1.45488545046139</v>
+        <v>1.454885450461418</v>
       </c>
       <c r="I20">
-        <v>0.05189687663099463</v>
+        <v>0.0518968766309893</v>
       </c>
       <c r="J20">
-        <v>12.31692320937367</v>
+        <v>12.31692320937364</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.224529249970146</v>
+        <v>7.224529249970175</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03201174851189847</v>
+        <v>0.03201174851199795</v>
       </c>
       <c r="D21">
-        <v>0.02472226166128877</v>
+        <v>0.02472226166128433</v>
       </c>
       <c r="E21">
-        <v>0.07905802303869791</v>
+        <v>0.07905802303871212</v>
       </c>
       <c r="F21">
-        <v>2.255307855902004</v>
+        <v>2.255307855902018</v>
       </c>
       <c r="G21">
         <v>1.74944418090179</v>
       </c>
       <c r="H21">
-        <v>1.7553728020264</v>
+        <v>1.755372802026415</v>
       </c>
       <c r="I21">
-        <v>0.06107462879511516</v>
+        <v>0.06107462879512227</v>
       </c>
       <c r="J21">
-        <v>14.07412870169225</v>
+        <v>14.07412870169213</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.266755255499419</v>
+        <v>8.266755255499447</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03553276683975781</v>
+        <v>0.03553276683986439</v>
       </c>
       <c r="D22">
-        <v>0.0299656982107912</v>
+        <v>0.02996569821088002</v>
       </c>
       <c r="E22">
-        <v>0.08562220936232734</v>
+        <v>0.08562220936231668</v>
       </c>
       <c r="F22">
-        <v>2.539288705029961</v>
+        <v>2.539288705029989</v>
       </c>
       <c r="G22">
-        <v>1.977365634821311</v>
+        <v>1.977365634821339</v>
       </c>
       <c r="H22">
-        <v>1.975411272275394</v>
+        <v>1.975411272275409</v>
       </c>
       <c r="I22">
         <v>0.06787445309479168</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.973925656925701</v>
+        <v>8.973925656925672</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03361640946799582</v>
+        <v>0.03361640946798161</v>
       </c>
       <c r="D23">
-        <v>0.02707944250210037</v>
+        <v>0.02707944250212524</v>
       </c>
       <c r="E23">
-        <v>0.08206724375208907</v>
+        <v>0.08206724375207841</v>
       </c>
       <c r="F23">
-        <v>2.384445958617704</v>
+        <v>2.384445958617732</v>
       </c>
       <c r="G23">
-        <v>1.852993131633596</v>
+        <v>1.852993131633639</v>
       </c>
       <c r="H23">
-        <v>1.855485117722495</v>
+        <v>1.855485117722537</v>
       </c>
       <c r="I23">
-        <v>0.06416110217765336</v>
+        <v>0.06416110217764626</v>
       </c>
       <c r="J23">
-        <v>14.62437721247113</v>
+        <v>14.62437721247125</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.593740151714997</v>
+        <v>8.593740151715082</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02708338564546153</v>
+        <v>0.02708338564563206</v>
       </c>
       <c r="D24">
-        <v>0.0178603748931776</v>
+        <v>0.01786037489317316</v>
       </c>
       <c r="E24">
-        <v>0.06962670202873156</v>
+        <v>0.06962670202873511</v>
       </c>
       <c r="F24">
-        <v>1.862609973211093</v>
+        <v>1.862609973211121</v>
       </c>
       <c r="G24">
-        <v>1.435679930418999</v>
+        <v>1.435679930419028</v>
       </c>
       <c r="H24">
-        <v>1.450308887121807</v>
+        <v>1.450308887121835</v>
       </c>
       <c r="I24">
-        <v>0.05175824429333709</v>
+        <v>0.05175824429333531</v>
       </c>
       <c r="J24">
-        <v>12.28877481731959</v>
+        <v>12.28877481731953</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.20785845199299</v>
+        <v>7.207858451993047</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0211166612574516</v>
+        <v>0.02111666125756528</v>
       </c>
       <c r="D25">
-        <v>0.01046518387104012</v>
+        <v>0.01046518387093265</v>
       </c>
       <c r="E25">
-        <v>0.05782040318508308</v>
+        <v>0.05782040318508663</v>
       </c>
       <c r="F25">
-        <v>1.399250975407412</v>
+        <v>1.399250975407426</v>
       </c>
       <c r="G25">
-        <v>1.068166207246605</v>
+        <v>1.06816620724662</v>
       </c>
       <c r="H25">
-        <v>1.088680702306448</v>
+        <v>1.088680702306434</v>
       </c>
       <c r="I25">
-        <v>0.04094698501676497</v>
+        <v>0.04094698501676142</v>
       </c>
       <c r="J25">
-        <v>9.896740546103956</v>
+        <v>9.896740546104013</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.793979312458532</v>
+        <v>5.793979312458504</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01731664676951894</v>
+        <v>0.01731664676937328</v>
       </c>
       <c r="D2">
-        <v>0.006422029013997133</v>
+        <v>0.006422029014001573</v>
       </c>
       <c r="E2">
-        <v>0.05008874043112499</v>
+        <v>0.0500887404311392</v>
       </c>
       <c r="F2">
-        <v>1.115557152457185</v>
+        <v>1.115557152457171</v>
       </c>
       <c r="G2">
         <v>0.8451782953623876</v>
@@ -433,16 +433,16 @@
         <v>0.8658707702783133</v>
       </c>
       <c r="I2">
-        <v>0.03447862123543644</v>
+        <v>0.03447862123543821</v>
       </c>
       <c r="J2">
-        <v>8.204198124520502</v>
+        <v>8.204198124520587</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.796918611960223</v>
+        <v>4.79691861196028</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01499255000318556</v>
+        <v>0.01499255000312871</v>
       </c>
       <c r="D3">
-        <v>0.004277351975346733</v>
+        <v>0.004277351975279231</v>
       </c>
       <c r="E3">
-        <v>0.04529239967018484</v>
+        <v>0.04529239967018128</v>
       </c>
       <c r="F3">
         <v>0.9489452854415248</v>
       </c>
       <c r="G3">
-        <v>0.7152624628000694</v>
+        <v>0.7152624628000765</v>
       </c>
       <c r="H3">
         <v>0.7342123913557614</v>
       </c>
       <c r="I3">
-        <v>0.03076697838300468</v>
+        <v>0.03076697838302422</v>
       </c>
       <c r="J3">
-        <v>7.084926422074915</v>
+        <v>7.084926422074858</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>4.139146502328288</v>
+        <v>4.139146502328273</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01365932020713601</v>
+        <v>0.01365932020713956</v>
       </c>
       <c r="D4">
-        <v>0.003183366498201501</v>
+        <v>0.003183366497977236</v>
       </c>
       <c r="E4">
-        <v>0.04252557139431801</v>
+        <v>0.04252557139434288</v>
       </c>
       <c r="F4">
-        <v>0.8566479643169913</v>
+        <v>0.8566479643169771</v>
       </c>
       <c r="G4">
-        <v>0.6437506587886048</v>
+        <v>0.6437506587885835</v>
       </c>
       <c r="H4">
         <v>0.6608985688570996</v>
       </c>
       <c r="I4">
-        <v>0.02875285595717614</v>
+        <v>0.02875285595715305</v>
       </c>
       <c r="J4">
-        <v>6.407444661225526</v>
+        <v>6.407444661225554</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01313583670496854</v>
+        <v>0.01313583670495788</v>
       </c>
       <c r="D5">
-        <v>0.002784717311716367</v>
+        <v>0.002784717311634211</v>
       </c>
       <c r="E5">
-        <v>0.04143772497182496</v>
+        <v>0.04143772497181786</v>
       </c>
       <c r="F5">
-        <v>0.8212144793859721</v>
+        <v>0.821214479386029</v>
       </c>
       <c r="G5">
         <v>0.6164053889042975</v>
       </c>
       <c r="H5">
-        <v>0.6326585037030341</v>
+        <v>0.632658503703027</v>
       </c>
       <c r="I5">
-        <v>0.02799026919587888</v>
+        <v>0.0279902691958771</v>
       </c>
       <c r="J5">
-        <v>6.133318518923403</v>
+        <v>6.133318518923431</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.580943880597999</v>
+        <v>3.580943880598014</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,13 +567,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01305001020527286</v>
+        <v>0.01305001020538654</v>
       </c>
       <c r="D6">
-        <v>0.00272113485794323</v>
+        <v>0.002721134857762486</v>
       </c>
       <c r="E6">
-        <v>0.04125934725263747</v>
+        <v>0.04125934725266234</v>
       </c>
       <c r="F6">
         <v>0.8154533337333589</v>
@@ -582,10 +582,10 @@
         <v>0.6119657387081574</v>
       </c>
       <c r="H6">
-        <v>0.6280612113994763</v>
+        <v>0.6280612113994835</v>
       </c>
       <c r="I6">
-        <v>0.02786693265206708</v>
+        <v>0.0278669326520653</v>
       </c>
       <c r="J6">
         <v>6.08790467871259</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.554329369622891</v>
+        <v>3.554329369622906</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01365218464639995</v>
+        <v>0.01365218464651008</v>
       </c>
       <c r="D7">
-        <v>0.003177810029046046</v>
+        <v>0.003177810028921702</v>
       </c>
       <c r="E7">
-        <v>0.04251074601877392</v>
+        <v>0.04251074601875615</v>
       </c>
       <c r="F7">
-        <v>0.8561616885557868</v>
+        <v>0.856161688555801</v>
       </c>
       <c r="G7">
         <v>0.643374940436658</v>
       </c>
       <c r="H7">
-        <v>0.6605114038248772</v>
+        <v>0.6605114038248843</v>
       </c>
       <c r="I7">
-        <v>0.02874234612099791</v>
+        <v>0.02874234612097659</v>
       </c>
       <c r="J7">
-        <v>6.403740404628451</v>
+        <v>6.403740404628479</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3.739470359115799</v>
+        <v>3.739470359115842</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0164933825398208</v>
+        <v>0.01649338253992028</v>
       </c>
       <c r="D8">
-        <v>0.005630511619874046</v>
+        <v>0.005630511619859835</v>
       </c>
       <c r="E8">
-        <v>0.04839466058290043</v>
+        <v>0.04839466058289688</v>
       </c>
       <c r="F8">
-        <v>1.055815525266524</v>
+        <v>1.055815525266539</v>
       </c>
       <c r="G8">
-        <v>0.7984886038960042</v>
+        <v>0.7984886038960113</v>
       </c>
       <c r="H8">
-        <v>0.8187475179914543</v>
+        <v>0.8187475179914614</v>
       </c>
       <c r="I8">
-        <v>0.03313842172420145</v>
+        <v>0.03313842172421211</v>
       </c>
       <c r="J8">
         <v>7.815925301304276</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.568593369858732</v>
+        <v>4.568593369858775</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -684,25 +684,25 @@
         <v>0.02301567729957554</v>
       </c>
       <c r="D9">
-        <v>0.01269449594702099</v>
+        <v>0.0126944959471702</v>
       </c>
       <c r="E9">
-        <v>0.06162383531757953</v>
+        <v>0.06162383531761861</v>
       </c>
       <c r="F9">
-        <v>1.544818234794178</v>
+        <v>1.544818234794207</v>
       </c>
       <c r="G9">
-        <v>1.183245022073578</v>
+        <v>1.183245022073606</v>
       </c>
       <c r="H9">
-        <v>1.202536806091103</v>
+        <v>1.202536806091118</v>
       </c>
       <c r="I9">
-        <v>0.0443166496194074</v>
+        <v>0.04431664961938431</v>
       </c>
       <c r="J9">
-        <v>10.68950139684353</v>
+        <v>10.68950139684361</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02875188272980012</v>
+        <v>0.02875188272974327</v>
       </c>
       <c r="D10">
-        <v>0.02011551717552429</v>
+        <v>0.02011551717541238</v>
       </c>
       <c r="E10">
-        <v>0.07285197270129018</v>
+        <v>0.07285197270128663</v>
       </c>
       <c r="F10">
-        <v>1.994786260034289</v>
+        <v>1.994786260034275</v>
       </c>
       <c r="G10">
-        <v>1.541085523104272</v>
+        <v>1.541085523104258</v>
       </c>
       <c r="H10">
-        <v>1.553106817813571</v>
+        <v>1.553106817813557</v>
       </c>
       <c r="I10">
-        <v>0.0548810971743805</v>
+        <v>0.05488109717437872</v>
       </c>
       <c r="J10">
-        <v>12.91036386988736</v>
+        <v>12.91036386988745</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.576171415860699</v>
+        <v>7.576171415860671</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03167852878002009</v>
+        <v>0.03167852878011956</v>
       </c>
       <c r="D11">
-        <v>0.02423990912980489</v>
+        <v>0.02423990912998075</v>
       </c>
       <c r="E11">
-        <v>0.07842938405407196</v>
+        <v>0.07842938405405775</v>
       </c>
       <c r="F11">
-        <v>2.228558607666443</v>
+        <v>2.228558607666457</v>
       </c>
       <c r="G11">
-        <v>1.728016604793808</v>
+        <v>1.728016604793837</v>
       </c>
       <c r="H11">
-        <v>1.734624270915688</v>
+        <v>1.734624270915702</v>
       </c>
       <c r="I11">
-        <v>0.06043658503761407</v>
+        <v>0.06043658503760341</v>
       </c>
       <c r="J11">
-        <v>13.95806331151468</v>
+        <v>13.95806331151462</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.197821771173807</v>
+        <v>8.197821771173835</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03284510673091745</v>
+        <v>0.03284510673081087</v>
       </c>
       <c r="D12">
-        <v>0.02593943027434964</v>
+        <v>0.02593943027428036</v>
       </c>
       <c r="E12">
-        <v>0.08062454256135254</v>
+        <v>0.0806245425613703</v>
       </c>
       <c r="F12">
-        <v>2.322309509340343</v>
+        <v>2.322309509340315</v>
       </c>
       <c r="G12">
-        <v>1.803148390450048</v>
+        <v>1.803148390450033</v>
       </c>
       <c r="H12">
-        <v>1.807326096584816</v>
+        <v>1.807326096584774</v>
       </c>
       <c r="I12">
-        <v>0.06267475880994411</v>
+        <v>0.06267475880994766</v>
       </c>
       <c r="J12">
-        <v>14.3616613006127</v>
+        <v>14.36166130061275</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.437583842003789</v>
+        <v>8.437583842003704</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0325910277389454</v>
+        <v>0.03259102773902356</v>
       </c>
       <c r="D13">
-        <v>0.02556671014752698</v>
+        <v>0.02556671014752254</v>
       </c>
       <c r="E13">
-        <v>0.08014778807460488</v>
+        <v>0.08014778807459422</v>
       </c>
       <c r="F13">
-        <v>2.30186641935812</v>
+        <v>2.301866419358149</v>
       </c>
       <c r="G13">
         <v>1.786757694016487</v>
       </c>
       <c r="H13">
-        <v>1.791477096676516</v>
+        <v>1.791477096676545</v>
       </c>
       <c r="I13">
-        <v>0.06218624712252563</v>
+        <v>0.06218624712252385</v>
       </c>
       <c r="J13">
         <v>14.27440672524057</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0317732492861964</v>
+        <v>0.03177324928637404</v>
       </c>
       <c r="D14">
-        <v>0.02437676664446631</v>
+        <v>0.02437676664427357</v>
       </c>
       <c r="E14">
-        <v>0.07860821187561484</v>
+        <v>0.07860821187563616</v>
       </c>
       <c r="F14">
-        <v>2.236159810934538</v>
+        <v>2.236159810934566</v>
       </c>
       <c r="G14">
-        <v>1.73410481432019</v>
+        <v>1.734104814320204</v>
       </c>
       <c r="H14">
-        <v>1.740520699734645</v>
+        <v>1.740520699734688</v>
       </c>
       <c r="I14">
-        <v>0.0606178485474036</v>
+        <v>0.06061784854741958</v>
       </c>
       <c r="J14">
-        <v>13.99112034719647</v>
+        <v>13.99112034719639</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03128036968828241</v>
+        <v>0.0312803696882753</v>
       </c>
       <c r="D15">
-        <v>0.02366686412913044</v>
+        <v>0.02366686412924679</v>
       </c>
       <c r="E15">
-        <v>0.07767653049637246</v>
+        <v>0.07767653049639023</v>
       </c>
       <c r="F15">
         <v>2.196629027560192</v>
       </c>
       <c r="G15">
-        <v>1.70244916229845</v>
+        <v>1.702449162298436</v>
       </c>
       <c r="H15">
-        <v>1.709852059675143</v>
+        <v>1.709852059675157</v>
       </c>
       <c r="I15">
-        <v>0.05967557759544384</v>
+        <v>0.05967557759544562</v>
       </c>
       <c r="J15">
-        <v>13.8185423589438</v>
+        <v>13.81854235894377</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.114975160191648</v>
+        <v>8.114975160191619</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02856801092712402</v>
+        <v>0.02856801092730166</v>
       </c>
       <c r="D16">
-        <v>0.01986342404102182</v>
+        <v>0.01986342404102359</v>
       </c>
       <c r="E16">
-        <v>0.07249817215365795</v>
+        <v>0.07249817215364374</v>
       </c>
       <c r="F16">
         <v>1.980177070336666</v>
@@ -962,13 +962,13 @@
         <v>1.529424541799074</v>
       </c>
       <c r="H16">
-        <v>1.541751126300525</v>
+        <v>1.541751126300511</v>
       </c>
       <c r="I16">
-        <v>0.05453523998385457</v>
+        <v>0.054535239983867</v>
       </c>
       <c r="J16">
-        <v>12.8427653348069</v>
+        <v>12.84276533480687</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0269933143111416</v>
+        <v>0.02699331431114871</v>
       </c>
       <c r="D17">
-        <v>0.01774075412194964</v>
+        <v>0.01774075412206155</v>
       </c>
       <c r="E17">
         <v>0.06945164243283841</v>
@@ -997,16 +997,16 @@
         <v>1.855500949261298</v>
       </c>
       <c r="G17">
-        <v>1.430017100036224</v>
+        <v>1.43001710003621</v>
       </c>
       <c r="H17">
         <v>1.444776144902647</v>
       </c>
       <c r="I17">
-        <v>0.05159069906431668</v>
+        <v>0.05159069906429536</v>
       </c>
       <c r="J17">
-        <v>12.25468402336327</v>
+        <v>12.2546840233633</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02611651717473507</v>
+        <v>0.02611651717484875</v>
       </c>
       <c r="D18">
-        <v>0.01658809806019956</v>
+        <v>0.01658809806020134</v>
       </c>
       <c r="E18">
-        <v>0.06774244297614729</v>
+        <v>0.06774244297614374</v>
       </c>
       <c r="F18">
-        <v>1.786451728278735</v>
+        <v>1.78645172827872</v>
       </c>
       <c r="G18">
-        <v>1.375049998784945</v>
+        <v>1.375049998784931</v>
       </c>
       <c r="H18">
-        <v>1.391015516089936</v>
+        <v>1.391015516089908</v>
       </c>
       <c r="I18">
-        <v>0.04996570350884255</v>
+        <v>0.04996570350883545</v>
       </c>
       <c r="J18">
-        <v>11.91985085955977</v>
+        <v>11.91985085955986</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.989435213168093</v>
+        <v>6.98943521316815</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02582428399969672</v>
+        <v>0.02582428399968961</v>
       </c>
       <c r="D19">
-        <v>0.01620876398308901</v>
+        <v>0.01620876398308368</v>
       </c>
       <c r="E19">
-        <v>0.06717072257045942</v>
+        <v>0.06717072257047718</v>
       </c>
       <c r="F19">
-        <v>1.763502311459206</v>
+        <v>1.763502311459192</v>
       </c>
       <c r="G19">
         <v>1.356795518344143</v>
@@ -1079,7 +1079,7 @@
         <v>1.373138467965276</v>
       </c>
       <c r="I19">
-        <v>0.04942659091216761</v>
+        <v>0.04942659091217472</v>
       </c>
       <c r="J19">
         <v>11.80702938026062</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.922664960189223</v>
+        <v>6.922664960189195</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02715786851906188</v>
+        <v>0.02715786851906898</v>
       </c>
       <c r="D20">
-        <v>0.01795946096649548</v>
+        <v>0.01795946096639334</v>
       </c>
       <c r="E20">
-        <v>0.0697713909320079</v>
+        <v>0.06977139093202211</v>
       </c>
       <c r="F20">
-        <v>1.868490795942463</v>
+        <v>1.868490795942421</v>
       </c>
       <c r="G20">
-        <v>1.440364917426479</v>
+        <v>1.440364917426464</v>
       </c>
       <c r="H20">
-        <v>1.454885450461418</v>
+        <v>1.45488545046139</v>
       </c>
       <c r="I20">
-        <v>0.0518968766309893</v>
+        <v>0.05189687663099463</v>
       </c>
       <c r="J20">
-        <v>12.31692320937364</v>
+        <v>12.31692320937367</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.224529249970175</v>
+        <v>7.224529249970146</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03201174851199795</v>
+        <v>0.03201174851189847</v>
       </c>
       <c r="D21">
-        <v>0.02472226166128433</v>
+        <v>0.02472226166128877</v>
       </c>
       <c r="E21">
-        <v>0.07905802303871212</v>
+        <v>0.07905802303869791</v>
       </c>
       <c r="F21">
-        <v>2.255307855902018</v>
+        <v>2.255307855902004</v>
       </c>
       <c r="G21">
         <v>1.74944418090179</v>
       </c>
       <c r="H21">
-        <v>1.755372802026415</v>
+        <v>1.7553728020264</v>
       </c>
       <c r="I21">
-        <v>0.06107462879512227</v>
+        <v>0.06107462879511516</v>
       </c>
       <c r="J21">
-        <v>14.07412870169213</v>
+        <v>14.07412870169225</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.266755255499447</v>
+        <v>8.266755255499419</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03553276683986439</v>
+        <v>0.03553276683975781</v>
       </c>
       <c r="D22">
-        <v>0.02996569821088002</v>
+        <v>0.0299656982107912</v>
       </c>
       <c r="E22">
-        <v>0.08562220936231668</v>
+        <v>0.08562220936232734</v>
       </c>
       <c r="F22">
-        <v>2.539288705029989</v>
+        <v>2.539288705029961</v>
       </c>
       <c r="G22">
-        <v>1.977365634821339</v>
+        <v>1.977365634821311</v>
       </c>
       <c r="H22">
-        <v>1.975411272275409</v>
+        <v>1.975411272275394</v>
       </c>
       <c r="I22">
         <v>0.06787445309479168</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.973925656925672</v>
+        <v>8.973925656925701</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03361640946798161</v>
+        <v>0.03361640946799582</v>
       </c>
       <c r="D23">
-        <v>0.02707944250212524</v>
+        <v>0.02707944250210037</v>
       </c>
       <c r="E23">
-        <v>0.08206724375207841</v>
+        <v>0.08206724375208907</v>
       </c>
       <c r="F23">
-        <v>2.384445958617732</v>
+        <v>2.384445958617704</v>
       </c>
       <c r="G23">
-        <v>1.852993131633639</v>
+        <v>1.852993131633596</v>
       </c>
       <c r="H23">
-        <v>1.855485117722537</v>
+        <v>1.855485117722495</v>
       </c>
       <c r="I23">
-        <v>0.06416110217764626</v>
+        <v>0.06416110217765336</v>
       </c>
       <c r="J23">
-        <v>14.62437721247125</v>
+        <v>14.62437721247113</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.593740151715082</v>
+        <v>8.593740151714997</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02708338564563206</v>
+        <v>0.02708338564546153</v>
       </c>
       <c r="D24">
-        <v>0.01786037489317316</v>
+        <v>0.0178603748931776</v>
       </c>
       <c r="E24">
-        <v>0.06962670202873511</v>
+        <v>0.06962670202873156</v>
       </c>
       <c r="F24">
-        <v>1.862609973211121</v>
+        <v>1.862609973211093</v>
       </c>
       <c r="G24">
-        <v>1.435679930419028</v>
+        <v>1.435679930418999</v>
       </c>
       <c r="H24">
-        <v>1.450308887121835</v>
+        <v>1.450308887121807</v>
       </c>
       <c r="I24">
-        <v>0.05175824429333531</v>
+        <v>0.05175824429333709</v>
       </c>
       <c r="J24">
-        <v>12.28877481731953</v>
+        <v>12.28877481731959</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.207858451993047</v>
+        <v>7.20785845199299</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02111666125756528</v>
+        <v>0.0211166612574516</v>
       </c>
       <c r="D25">
-        <v>0.01046518387093265</v>
+        <v>0.01046518387104012</v>
       </c>
       <c r="E25">
-        <v>0.05782040318508663</v>
+        <v>0.05782040318508308</v>
       </c>
       <c r="F25">
-        <v>1.399250975407426</v>
+        <v>1.399250975407412</v>
       </c>
       <c r="G25">
-        <v>1.06816620724662</v>
+        <v>1.068166207246605</v>
       </c>
       <c r="H25">
-        <v>1.088680702306434</v>
+        <v>1.088680702306448</v>
       </c>
       <c r="I25">
-        <v>0.04094698501676142</v>
+        <v>0.04094698501676497</v>
       </c>
       <c r="J25">
-        <v>9.896740546104013</v>
+        <v>9.896740546103956</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.793979312458504</v>
+        <v>5.793979312458532</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01731664676937328</v>
+        <v>0.01736178841796487</v>
       </c>
       <c r="D2">
-        <v>0.006422029014001573</v>
+        <v>0.006400683773692073</v>
       </c>
       <c r="E2">
-        <v>0.0500887404311392</v>
+        <v>0.05006516001967398</v>
       </c>
       <c r="F2">
-        <v>1.115557152457171</v>
+        <v>1.113957690334743</v>
       </c>
       <c r="G2">
-        <v>0.8451782953623876</v>
+        <v>0.2898376791221438</v>
       </c>
       <c r="H2">
-        <v>0.8658707702783133</v>
+        <v>0.5577235398298228</v>
       </c>
       <c r="I2">
-        <v>0.03447862123543821</v>
+        <v>0.8646082134088999</v>
       </c>
       <c r="J2">
-        <v>8.204198124520587</v>
+        <v>0.03449722846221626</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>8.203722714346469</v>
       </c>
       <c r="L2">
-        <v>4.79691861196028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>4.796759139906499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01499255000312871</v>
+        <v>0.01503302714768751</v>
       </c>
       <c r="D3">
-        <v>0.004277351975279231</v>
+        <v>0.004263004821861482</v>
       </c>
       <c r="E3">
-        <v>0.04529239967018128</v>
+        <v>0.04527106617586796</v>
       </c>
       <c r="F3">
-        <v>0.9489452854415248</v>
+        <v>0.9475999986206745</v>
       </c>
       <c r="G3">
-        <v>0.7152624628000765</v>
+        <v>0.2416690531721031</v>
       </c>
       <c r="H3">
-        <v>0.7342123913557614</v>
+        <v>0.4763569432004573</v>
       </c>
       <c r="I3">
-        <v>0.03076697838302422</v>
+        <v>0.7331516567118541</v>
       </c>
       <c r="J3">
-        <v>7.084926422074858</v>
+        <v>0.03078277979245492</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>7.084592869298348</v>
       </c>
       <c r="L3">
-        <v>4.139146502328273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>4.139057434703943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01365932020713956</v>
+        <v>0.01369664366600531</v>
       </c>
       <c r="D4">
-        <v>0.003183366497977236</v>
+        <v>0.003172526870910186</v>
       </c>
       <c r="E4">
-        <v>0.04252557139434288</v>
+        <v>0.04250598787626103</v>
       </c>
       <c r="F4">
-        <v>0.8566479643169771</v>
+        <v>0.855443279066435</v>
       </c>
       <c r="G4">
-        <v>0.6437506587885835</v>
+        <v>0.2148063579000237</v>
       </c>
       <c r="H4">
-        <v>0.6608985688570996</v>
+        <v>0.4319216898264955</v>
       </c>
       <c r="I4">
-        <v>0.02875285595715305</v>
+        <v>0.6599496500242026</v>
       </c>
       <c r="J4">
-        <v>6.407444661225554</v>
+        <v>0.02876704321228196</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>6.40718458908259</v>
       </c>
       <c r="L4">
-        <v>3.74164242397886</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3.741587830774719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01313583670495788</v>
+        <v>0.01317181184635174</v>
       </c>
       <c r="D5">
-        <v>0.002784717311634211</v>
+        <v>0.002775140257989861</v>
       </c>
       <c r="E5">
-        <v>0.04143772497181786</v>
+        <v>0.04141893929055129</v>
       </c>
       <c r="F5">
-        <v>0.821214479386029</v>
+        <v>0.8200638610405377</v>
       </c>
       <c r="G5">
-        <v>0.6164053889042975</v>
+        <v>0.2044466934088618</v>
       </c>
       <c r="H5">
-        <v>0.632658503703027</v>
+        <v>0.4150190674581893</v>
       </c>
       <c r="I5">
-        <v>0.0279902691958771</v>
+        <v>0.631752622683976</v>
       </c>
       <c r="J5">
-        <v>6.133318518923431</v>
+        <v>0.02800382465862583</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>6.133085613571211</v>
       </c>
       <c r="L5">
-        <v>3.580943880598014</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3.580901542306748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01305001020538654</v>
+        <v>0.01308575789652267</v>
       </c>
       <c r="D6">
-        <v>0.002721134857762486</v>
+        <v>0.002711758209487769</v>
       </c>
       <c r="E6">
-        <v>0.04125934725266234</v>
+        <v>0.04124069893690319</v>
       </c>
       <c r="F6">
-        <v>0.8154533337333589</v>
+        <v>0.8143115151854801</v>
       </c>
       <c r="G6">
-        <v>0.6119657387081574</v>
+        <v>0.2027593948659785</v>
       </c>
       <c r="H6">
-        <v>0.6280612113994835</v>
+        <v>0.4122802651160029</v>
       </c>
       <c r="I6">
-        <v>0.0278669326520653</v>
+        <v>0.6271623374590476</v>
       </c>
       <c r="J6">
-        <v>6.08790467871259</v>
+        <v>0.02788038472926324</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>6.087676133352915</v>
       </c>
       <c r="L6">
-        <v>3.554329369622906</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>3.554288968415591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01365218464651008</v>
+        <v>0.01368949016512744</v>
       </c>
       <c r="D7">
-        <v>0.003177810028921702</v>
+        <v>0.003166988066441334</v>
       </c>
       <c r="E7">
-        <v>0.04251074601875615</v>
+        <v>0.04249117292816607</v>
       </c>
       <c r="F7">
-        <v>0.856161688555801</v>
+        <v>0.8549577447600143</v>
       </c>
       <c r="G7">
-        <v>0.643374940436658</v>
+        <v>0.2146643832306978</v>
       </c>
       <c r="H7">
-        <v>0.6605114038248843</v>
+        <v>0.4316890811529319</v>
       </c>
       <c r="I7">
-        <v>0.02874234612097659</v>
+        <v>0.6595630750355497</v>
       </c>
       <c r="J7">
-        <v>6.403740404628479</v>
+        <v>0.02875652475236379</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6.403480709341665</v>
       </c>
       <c r="L7">
-        <v>3.739470359115842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>3.739415937964495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01649338253992028</v>
+        <v>0.01653698238024859</v>
       </c>
       <c r="D8">
-        <v>0.005630511619859835</v>
+        <v>0.005611764023018662</v>
       </c>
       <c r="E8">
-        <v>0.04839466058289688</v>
+        <v>0.04837177270441373</v>
       </c>
       <c r="F8">
-        <v>1.055815525266539</v>
+        <v>1.054307348726354</v>
       </c>
       <c r="G8">
-        <v>0.7984886038960113</v>
+        <v>0.2726045654253255</v>
       </c>
       <c r="H8">
-        <v>0.8187475179914614</v>
+        <v>0.5284028561283165</v>
       </c>
       <c r="I8">
-        <v>0.03313842172421211</v>
+        <v>0.817557402985571</v>
       </c>
       <c r="J8">
-        <v>7.815925301304276</v>
+        <v>0.03315603831840797</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>7.815502061296939</v>
       </c>
       <c r="L8">
-        <v>4.568593369858775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>4.568460261463784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02301567729957554</v>
+        <v>0.02306876904849275</v>
       </c>
       <c r="D9">
-        <v>0.0126944959471702</v>
+        <v>0.01265214955130833</v>
       </c>
       <c r="E9">
-        <v>0.06162383531761861</v>
+        <v>0.06159781342659798</v>
       </c>
       <c r="F9">
-        <v>1.544818234794207</v>
+        <v>1.54255286364122</v>
       </c>
       <c r="G9">
-        <v>1.183245022073606</v>
+        <v>0.4128685930028553</v>
       </c>
       <c r="H9">
-        <v>1.202536806091118</v>
+        <v>0.7717899216840465</v>
       </c>
       <c r="I9">
-        <v>0.04431664961938431</v>
+        <v>1.200746896356236</v>
       </c>
       <c r="J9">
-        <v>10.68950139684361</v>
+        <v>0.04434189062378557</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10.68861173849552</v>
       </c>
       <c r="L9">
-        <v>6.261950508906523</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>6.261569908909109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02875188272974327</v>
+        <v>0.02880917359796342</v>
       </c>
       <c r="D10">
-        <v>0.02011551717541238</v>
+        <v>0.02004760903721703</v>
       </c>
       <c r="E10">
-        <v>0.07285197270128663</v>
+        <v>0.07282637831312755</v>
       </c>
       <c r="F10">
-        <v>1.994786260034275</v>
+        <v>1.991795296208736</v>
       </c>
       <c r="G10">
-        <v>1.541085523104258</v>
+        <v>0.5410042977340765</v>
       </c>
       <c r="H10">
-        <v>1.553106817813557</v>
+        <v>1.000473200374614</v>
       </c>
       <c r="I10">
-        <v>0.05488109717437872</v>
+        <v>1.550743962189998</v>
       </c>
       <c r="J10">
-        <v>12.91036386988745</v>
+        <v>0.05491238847243096</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.90897096656911</v>
       </c>
       <c r="L10">
-        <v>7.576171415860671</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>7.575506845998035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03167852878011956</v>
+        <v>0.03173677918983486</v>
       </c>
       <c r="D11">
-        <v>0.02423990912998075</v>
+        <v>0.02415749668165734</v>
       </c>
       <c r="E11">
-        <v>0.07842938405405775</v>
+        <v>0.07840475337818376</v>
       </c>
       <c r="F11">
-        <v>2.228558607666457</v>
+        <v>2.225176744063546</v>
       </c>
       <c r="G11">
-        <v>1.728016604793837</v>
+        <v>0.6073969864664264</v>
       </c>
       <c r="H11">
-        <v>1.734624270915702</v>
+        <v>1.120473621399952</v>
       </c>
       <c r="I11">
-        <v>0.06043658503760341</v>
+        <v>1.731953323767016</v>
       </c>
       <c r="J11">
-        <v>13.95806331151462</v>
+        <v>0.06047064252791401</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.95638207396263</v>
       </c>
       <c r="L11">
-        <v>8.197821771173835</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>8.196990293312467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03284510673081087</v>
+        <v>0.03290354081911318</v>
       </c>
       <c r="D12">
-        <v>0.02593943027428036</v>
+        <v>0.02585097974694328</v>
       </c>
       <c r="E12">
-        <v>0.0806245425613703</v>
+        <v>0.08060040419543668</v>
       </c>
       <c r="F12">
-        <v>2.322309509340315</v>
+        <v>2.318767906438268</v>
       </c>
       <c r="G12">
-        <v>1.803148390450033</v>
+        <v>0.6339996268137043</v>
       </c>
       <c r="H12">
-        <v>1.807326096584774</v>
+        <v>1.16878517199342</v>
       </c>
       <c r="I12">
-        <v>0.06267475880994766</v>
+        <v>1.80452935161901</v>
       </c>
       <c r="J12">
-        <v>14.36166130061275</v>
+        <v>0.06270985019523856</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.35985927376731</v>
       </c>
       <c r="L12">
-        <v>8.437583842003704</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>8.4366817898607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03259102773902356</v>
+        <v>0.03264943111765461</v>
       </c>
       <c r="D13">
-        <v>0.02556671014752254</v>
+        <v>0.02547958690504171</v>
       </c>
       <c r="E13">
-        <v>0.08014778807459422</v>
+        <v>0.08012353773378322</v>
       </c>
       <c r="F13">
-        <v>2.301866419358149</v>
+        <v>2.29835979941177</v>
       </c>
       <c r="G13">
-        <v>1.786757694016487</v>
+        <v>0.6281997004576709</v>
       </c>
       <c r="H13">
-        <v>1.791477096676545</v>
+        <v>1.158241947753368</v>
       </c>
       <c r="I13">
-        <v>0.06218624712252385</v>
+        <v>1.788707896600826</v>
       </c>
       <c r="J13">
-        <v>14.27440672524057</v>
+        <v>0.06222111681115727</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.27263129003785</v>
       </c>
       <c r="L13">
-        <v>8.385735579003352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>8.384849093153207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03177324928637404</v>
+        <v>0.03183151871115086</v>
       </c>
       <c r="D14">
-        <v>0.02437676664427357</v>
+        <v>0.02429386929740573</v>
       </c>
       <c r="E14">
-        <v>0.07860821187563616</v>
+        <v>0.07858361904844813</v>
       </c>
       <c r="F14">
-        <v>2.236159810934566</v>
+        <v>2.232765061177986</v>
       </c>
       <c r="G14">
-        <v>1.734104814320204</v>
+        <v>0.6095543353667949</v>
       </c>
       <c r="H14">
-        <v>1.740520699734688</v>
+        <v>1.12438688173556</v>
       </c>
       <c r="I14">
-        <v>0.06061784854741958</v>
+        <v>1.737839602358505</v>
       </c>
       <c r="J14">
-        <v>13.99112034719639</v>
+        <v>0.06065199149721323</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.98942942647724</v>
       </c>
       <c r="L14">
-        <v>8.217453630711361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>8.21661650816003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0312803696882753</v>
+        <v>0.03133853212151649</v>
       </c>
       <c r="D15">
-        <v>0.02366686412924679</v>
+        <v>0.02358647950871617</v>
       </c>
       <c r="E15">
-        <v>0.07767653049639023</v>
+        <v>0.0776517449969063</v>
       </c>
       <c r="F15">
-        <v>2.196629027560192</v>
+        <v>2.193301169454543</v>
       </c>
       <c r="G15">
-        <v>1.702449162298436</v>
+        <v>0.598333937788766</v>
       </c>
       <c r="H15">
-        <v>1.709852059675157</v>
+        <v>1.104043080805312</v>
       </c>
       <c r="I15">
-        <v>0.05967557759544562</v>
+        <v>1.707223655969727</v>
       </c>
       <c r="J15">
-        <v>13.81854235894377</v>
+        <v>0.05970927298289475</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.81690158428293</v>
       </c>
       <c r="L15">
-        <v>8.114975160191619</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>8.114167244106596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02856801092730166</v>
+        <v>0.02862521661914741</v>
       </c>
       <c r="D16">
-        <v>0.01986342404102359</v>
+        <v>0.01979639562042124</v>
       </c>
       <c r="E16">
-        <v>0.07249817215364374</v>
+        <v>0.0724725316608783</v>
       </c>
       <c r="F16">
-        <v>1.980177070336666</v>
+        <v>1.977210198397103</v>
       </c>
       <c r="G16">
-        <v>1.529424541799074</v>
+        <v>0.5368520057977975</v>
       </c>
       <c r="H16">
-        <v>1.541751126300511</v>
+        <v>0.9929979332835046</v>
       </c>
       <c r="I16">
-        <v>0.054535239983867</v>
+        <v>1.539407271137264</v>
       </c>
       <c r="J16">
-        <v>12.84276533480687</v>
+        <v>0.0545663496733777</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.84138984237842</v>
       </c>
       <c r="L16">
-        <v>7.536098774941649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>7.535444203218788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02699331431114871</v>
+        <v>0.02704966344946058</v>
       </c>
       <c r="D17">
-        <v>0.01774075412206155</v>
+        <v>0.01768110179629989</v>
       </c>
       <c r="E17">
-        <v>0.06945164243283841</v>
+        <v>0.06942568587152209</v>
       </c>
       <c r="F17">
-        <v>1.855500949261298</v>
+        <v>1.852738148556327</v>
       </c>
       <c r="G17">
-        <v>1.43001710003621</v>
+        <v>0.5013977424591758</v>
       </c>
       <c r="H17">
-        <v>1.444776144902647</v>
+        <v>0.9293291609894538</v>
       </c>
       <c r="I17">
-        <v>0.05159069906429536</v>
+        <v>1.442593294027631</v>
       </c>
       <c r="J17">
-        <v>12.2546840233633</v>
+        <v>0.05162021787660009</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.25345420531582</v>
       </c>
       <c r="L17">
-        <v>7.187669311526122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>7.18709797270688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02611651717484875</v>
+        <v>0.0261722874370065</v>
       </c>
       <c r="D18">
-        <v>0.01658809806020134</v>
+        <v>0.01653242752892936</v>
       </c>
       <c r="E18">
-        <v>0.06774244297614374</v>
+        <v>0.06771637591492308</v>
       </c>
       <c r="F18">
-        <v>1.78645172827872</v>
+        <v>1.783800805007587</v>
       </c>
       <c r="G18">
-        <v>1.375049998784931</v>
+        <v>0.4817465746459533</v>
       </c>
       <c r="H18">
-        <v>1.391015516089908</v>
+        <v>0.894170164626189</v>
       </c>
       <c r="I18">
-        <v>0.04996570350883545</v>
+        <v>1.388920979466249</v>
       </c>
       <c r="J18">
-        <v>11.91985085955986</v>
+        <v>0.04999430995871279</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.91869947232794</v>
       </c>
       <c r="L18">
-        <v>6.98943521316815</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>6.988908345502296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02582428399968961</v>
+        <v>0.02587984453555947</v>
       </c>
       <c r="D19">
-        <v>0.01620876398308368</v>
+        <v>0.01615440017637848</v>
       </c>
       <c r="E19">
-        <v>0.06717072257047718</v>
+        <v>0.06714462985614134</v>
       </c>
       <c r="F19">
-        <v>1.763502311459192</v>
+        <v>1.760888397864562</v>
       </c>
       <c r="G19">
-        <v>1.356795518344143</v>
+        <v>0.4752125117165491</v>
       </c>
       <c r="H19">
-        <v>1.373138467965276</v>
+        <v>0.8825018266646083</v>
       </c>
       <c r="I19">
-        <v>0.04942659091217472</v>
+        <v>1.371073153844662</v>
       </c>
       <c r="J19">
-        <v>11.80702938026062</v>
+        <v>0.04945488923332952</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.80590370452163</v>
       </c>
       <c r="L19">
-        <v>6.922664960189195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>6.922152613754605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02715786851906898</v>
+        <v>0.02721431802565633</v>
       </c>
       <c r="D20">
-        <v>0.01795946096639334</v>
+        <v>0.01789905124651003</v>
       </c>
       <c r="E20">
-        <v>0.06977139093202211</v>
+        <v>0.06974546052162012</v>
       </c>
       <c r="F20">
-        <v>1.868490795942421</v>
+        <v>1.865706858867014</v>
       </c>
       <c r="G20">
-        <v>1.440364917426464</v>
+        <v>0.5050932973300206</v>
       </c>
       <c r="H20">
-        <v>1.45488545046139</v>
+        <v>0.9359518565635057</v>
       </c>
       <c r="I20">
-        <v>0.05189687663099463</v>
+        <v>1.452685918708895</v>
       </c>
       <c r="J20">
-        <v>12.31692320937367</v>
+        <v>0.0519265646006275</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.31567845722341</v>
       </c>
       <c r="L20">
-        <v>7.224529249970146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>7.223949414868457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03201174851189847</v>
+        <v>0.03207006258020328</v>
       </c>
       <c r="D21">
-        <v>0.02472226166128877</v>
+        <v>0.02463813915823643</v>
       </c>
       <c r="E21">
-        <v>0.07905802303869791</v>
+        <v>0.07903352721036683</v>
       </c>
       <c r="F21">
-        <v>2.255307855902004</v>
+        <v>2.251880594204138</v>
       </c>
       <c r="G21">
-        <v>1.74944418090179</v>
+        <v>0.6149885163357993</v>
       </c>
       <c r="H21">
-        <v>1.7553728020264</v>
+        <v>1.134247698470929</v>
       </c>
       <c r="I21">
-        <v>0.06107462879511516</v>
+        <v>1.752666097163669</v>
       </c>
       <c r="J21">
-        <v>14.07412870169225</v>
+        <v>0.06110898575269985</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.07241330212705</v>
       </c>
       <c r="L21">
-        <v>8.266755255499419</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>8.265903852969814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03553276683975781</v>
+        <v>0.03559121927510489</v>
       </c>
       <c r="D22">
-        <v>0.0299656982107912</v>
+        <v>0.0298627985199369</v>
       </c>
       <c r="E22">
-        <v>0.08562220936232734</v>
+        <v>0.08559940222066587</v>
       </c>
       <c r="F22">
-        <v>2.539288705029961</v>
+        <v>2.53537043737326</v>
       </c>
       <c r="G22">
-        <v>1.977365634821311</v>
+        <v>0.6955295549502551</v>
       </c>
       <c r="H22">
-        <v>1.975411272275394</v>
+        <v>1.280964249115911</v>
       </c>
       <c r="I22">
-        <v>0.06787445309479168</v>
+        <v>1.97231811540945</v>
       </c>
       <c r="J22">
-        <v>15.2635124620885</v>
+        <v>0.06791176587517178</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.26141945876321</v>
       </c>
       <c r="L22">
-        <v>8.973925656925701</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>8.972852299451063</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03361640946799582</v>
+        <v>0.03367490562366271</v>
       </c>
       <c r="D23">
-        <v>0.02707944250210037</v>
+        <v>0.02698692151879989</v>
       </c>
       <c r="E23">
-        <v>0.08206724375208907</v>
+        <v>0.08204346071988411</v>
       </c>
       <c r="F23">
-        <v>2.384445958617704</v>
+        <v>2.380797500661245</v>
       </c>
       <c r="G23">
-        <v>1.852993131633596</v>
+        <v>0.651625281474594</v>
       </c>
       <c r="H23">
-        <v>1.855485117722495</v>
+        <v>1.200859397117512</v>
       </c>
       <c r="I23">
-        <v>0.06416110217765336</v>
+        <v>1.852604253776562</v>
       </c>
       <c r="J23">
-        <v>14.62437721247113</v>
+        <v>0.06419685442976153</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.62249349338049</v>
       </c>
       <c r="L23">
-        <v>8.593740151714997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>8.592790180077372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02708338564546153</v>
+        <v>0.02713979004228406</v>
       </c>
       <c r="D24">
-        <v>0.0178603748931776</v>
+        <v>0.01780030838780799</v>
       </c>
       <c r="E24">
-        <v>0.06962670202873156</v>
+        <v>0.0696007595749677</v>
       </c>
       <c r="F24">
-        <v>1.862609973211093</v>
+        <v>1.859835608643479</v>
       </c>
       <c r="G24">
-        <v>1.435679930418999</v>
+        <v>0.5034202782922392</v>
       </c>
       <c r="H24">
-        <v>1.450308887121807</v>
+        <v>0.9329532760443158</v>
       </c>
       <c r="I24">
-        <v>0.05175824429333709</v>
+        <v>1.44811690986792</v>
       </c>
       <c r="J24">
-        <v>12.28877481731959</v>
+        <v>0.05178785577887801</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.2875368332318</v>
       </c>
       <c r="L24">
-        <v>7.20785845199299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>7.207282468454537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0211166612574516</v>
+        <v>0.02116758022878429</v>
       </c>
       <c r="D25">
-        <v>0.01046518387104012</v>
+        <v>0.01043037375419242</v>
       </c>
       <c r="E25">
-        <v>0.05782040318508308</v>
+        <v>0.05779480397141512</v>
       </c>
       <c r="F25">
-        <v>1.399250975407412</v>
+        <v>1.397213813815597</v>
       </c>
       <c r="G25">
-        <v>1.068166207246605</v>
+        <v>0.3712676619635857</v>
       </c>
       <c r="H25">
-        <v>1.088680702306448</v>
+        <v>0.698640357580544</v>
       </c>
       <c r="I25">
-        <v>0.04094698501676497</v>
+        <v>1.087071326439727</v>
       </c>
       <c r="J25">
-        <v>9.896740546103956</v>
+        <v>0.04097007039414713</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>9.895998829047386</v>
       </c>
       <c r="L25">
-        <v>5.793979312458532</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>5.793679531056682</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01736178841796487</v>
+        <v>0.1017538288361237</v>
       </c>
       <c r="D2">
-        <v>0.006400683773692073</v>
+        <v>0.01949453537415025</v>
       </c>
       <c r="E2">
-        <v>0.05006516001967398</v>
+        <v>0.02058979013129836</v>
       </c>
       <c r="F2">
-        <v>1.113957690334743</v>
+        <v>2.507286427989797</v>
       </c>
       <c r="G2">
-        <v>0.2898376791221438</v>
+        <v>0.0008058449870069159</v>
       </c>
       <c r="H2">
-        <v>0.5577235398298228</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8646082134088999</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03449722846221626</v>
+        <v>0.03684313880872447</v>
       </c>
       <c r="K2">
-        <v>8.203722714346469</v>
+        <v>7.319612615567451</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.06497496138348424</v>
       </c>
       <c r="M2">
-        <v>4.796759139906499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.875229119574811</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.928533088278243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01503302714768751</v>
+        <v>0.09782061332633418</v>
       </c>
       <c r="D3">
-        <v>0.004263004821861482</v>
+        <v>0.01502785381962823</v>
       </c>
       <c r="E3">
-        <v>0.04527106617586796</v>
+        <v>0.02121427231247619</v>
       </c>
       <c r="F3">
-        <v>0.9475999986206745</v>
+        <v>2.370111568798379</v>
       </c>
       <c r="G3">
-        <v>0.2416690531721031</v>
+        <v>0.0008225724752901868</v>
       </c>
       <c r="H3">
-        <v>0.4763569432004573</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7331516567118541</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03078277979245492</v>
+        <v>0.04345288899503075</v>
       </c>
       <c r="K3">
-        <v>7.084592869298348</v>
+        <v>6.341090779592662</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0580123259059846</v>
       </c>
       <c r="M3">
-        <v>4.139057434703943</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.23959935478311</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.814519214829488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01369664366600531</v>
+        <v>0.09571014134051126</v>
       </c>
       <c r="D4">
-        <v>0.003172526870910186</v>
+        <v>0.01262515125379693</v>
       </c>
       <c r="E4">
-        <v>0.04250598787626103</v>
+        <v>0.0216133677122885</v>
       </c>
       <c r="F4">
-        <v>0.855443279066435</v>
+        <v>2.303142976199268</v>
       </c>
       <c r="G4">
-        <v>0.2148063579000237</v>
+        <v>0.0008329527128451869</v>
       </c>
       <c r="H4">
-        <v>0.4319216898264955</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6599496500242026</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02876704321228196</v>
+        <v>0.04778179683210326</v>
       </c>
       <c r="K4">
-        <v>6.40718458908259</v>
+        <v>5.752904244105935</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05382647629366843</v>
       </c>
       <c r="M4">
-        <v>3.741587830774719</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>3.857795015831144</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.758717501838859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01317181184635174</v>
+        <v>0.09491890909210099</v>
       </c>
       <c r="D5">
-        <v>0.002775140257989861</v>
+        <v>0.01171738411750312</v>
       </c>
       <c r="E5">
-        <v>0.04141893929055129</v>
+        <v>0.02177999511203765</v>
       </c>
       <c r="F5">
-        <v>0.8200638610405377</v>
+        <v>2.279674660764911</v>
       </c>
       <c r="G5">
-        <v>0.2044466934088618</v>
+        <v>0.0008372187862904142</v>
       </c>
       <c r="H5">
-        <v>0.4150190674581893</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.631752622683976</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02800382465862583</v>
+        <v>0.04960923804281703</v>
       </c>
       <c r="K5">
-        <v>6.133085613571211</v>
+        <v>5.515802741420941</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.05213845799833194</v>
       </c>
       <c r="M5">
-        <v>3.580901542306748</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3.703952546390155</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.739115918721595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01308575789652267</v>
+        <v>0.09479147509810559</v>
       </c>
       <c r="D6">
-        <v>0.002711758209487769</v>
+        <v>0.01157058973460678</v>
       </c>
       <c r="E6">
-        <v>0.04124069893690319</v>
+        <v>0.02180790609765682</v>
       </c>
       <c r="F6">
-        <v>0.8143115151854801</v>
+        <v>2.27599493614261</v>
       </c>
       <c r="G6">
-        <v>0.2027593948659785</v>
+        <v>0.0008379295669912468</v>
       </c>
       <c r="H6">
-        <v>0.4122802651160029</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6271623374590476</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02788038472926324</v>
+        <v>0.04991638903066176</v>
       </c>
       <c r="K6">
-        <v>6.087676133352915</v>
+        <v>5.476573079189933</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.0518591120109555</v>
       </c>
       <c r="M6">
-        <v>3.554288968415591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3.678502374732616</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.73603918312584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01368949016512744</v>
+        <v>0.09569920137766275</v>
       </c>
       <c r="D7">
-        <v>0.003166988066441334</v>
+        <v>0.01261263687858261</v>
       </c>
       <c r="E7">
-        <v>0.04249117292816607</v>
+        <v>0.02161559867324447</v>
       </c>
       <c r="F7">
-        <v>0.8549577447600143</v>
+        <v>2.302811626617626</v>
       </c>
       <c r="G7">
-        <v>0.2146643832306978</v>
+        <v>0.0008330100903710153</v>
       </c>
       <c r="H7">
-        <v>0.4316890811529319</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6595630750355497</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02875652475236379</v>
+        <v>0.04780619133791086</v>
       </c>
       <c r="K7">
-        <v>6.403480709341665</v>
+        <v>5.74969683891419</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.05380364490802592</v>
       </c>
       <c r="M7">
-        <v>3.739415937964495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3.855713641295196</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.758440967210731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01653698238024859</v>
+        <v>0.1003293827640661</v>
       </c>
       <c r="D8">
-        <v>0.005611764023018662</v>
+        <v>0.01787462530334238</v>
       </c>
       <c r="E8">
-        <v>0.04837177270441373</v>
+        <v>0.0208018963911325</v>
       </c>
       <c r="F8">
-        <v>1.054307348726354</v>
+        <v>2.456068731561643</v>
       </c>
       <c r="G8">
-        <v>0.2726045654253255</v>
+        <v>0.0008115954413391382</v>
       </c>
       <c r="H8">
-        <v>0.5284028561283165</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.817557402985571</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03315603831840797</v>
+        <v>0.03906299875685493</v>
       </c>
       <c r="K8">
-        <v>7.815502061296939</v>
+        <v>6.979214579670099</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.06255266086750311</v>
       </c>
       <c r="M8">
-        <v>4.568460261463784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4.654053919701852</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.885990023672449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02306876904849275</v>
+        <v>0.1122534159762836</v>
       </c>
       <c r="D9">
-        <v>0.01265214955130833</v>
+        <v>0.03168188449953036</v>
       </c>
       <c r="E9">
-        <v>0.06159781342659798</v>
+        <v>0.0193275704779845</v>
       </c>
       <c r="F9">
-        <v>1.54255286364122</v>
+        <v>2.922204544281243</v>
       </c>
       <c r="G9">
-        <v>0.4128685930028553</v>
+        <v>0.0007700023004250324</v>
       </c>
       <c r="H9">
-        <v>0.7717899216840465</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.200746896356236</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04434189062378557</v>
+        <v>0.02432266918863202</v>
       </c>
       <c r="K9">
-        <v>10.68861173849552</v>
+        <v>9.52281497942019</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.0806771667368551</v>
       </c>
       <c r="M9">
-        <v>6.261569908909109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6.30805533348817</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.272838704106647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02880917359796342</v>
+        <v>0.1235113936875223</v>
       </c>
       <c r="D10">
-        <v>0.02004760903721703</v>
+        <v>0.04540276545374056</v>
       </c>
       <c r="E10">
-        <v>0.07282637831312755</v>
+        <v>0.0183133856620401</v>
       </c>
       <c r="F10">
-        <v>1.991795296208736</v>
+        <v>3.41728264316896</v>
       </c>
       <c r="G10">
-        <v>0.5410042977340765</v>
+        <v>0.0007388542432376422</v>
       </c>
       <c r="H10">
-        <v>1.000473200374614</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.550743962189998</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05491238847243096</v>
+        <v>0.01542941964880606</v>
       </c>
       <c r="K10">
-        <v>12.90897096656911</v>
+        <v>11.52986346280494</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09504908749953245</v>
       </c>
       <c r="M10">
-        <v>7.575506845998035</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>7.614916978267786</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.683741220966041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03173677918983486</v>
+        <v>0.1294158558348073</v>
       </c>
       <c r="D11">
-        <v>0.02415749668165734</v>
+        <v>0.05289459444191635</v>
       </c>
       <c r="E11">
-        <v>0.07840475337818376</v>
+        <v>0.01786554158912868</v>
       </c>
       <c r="F11">
-        <v>2.225176744063546</v>
+        <v>3.692158764133694</v>
       </c>
       <c r="G11">
-        <v>0.6073969864664264</v>
+        <v>0.0007242936302293604</v>
       </c>
       <c r="H11">
-        <v>1.120473621399952</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1.731953323767016</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06047064252791401</v>
+        <v>0.01195634098427956</v>
       </c>
       <c r="K11">
-        <v>13.95638207396263</v>
+        <v>12.49091352490333</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1019641349518139</v>
       </c>
       <c r="M11">
-        <v>8.196990293312467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8.241145250277725</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.912051535287091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03290354081911318</v>
+        <v>0.131792565032697</v>
       </c>
       <c r="D12">
-        <v>0.02585097974694328</v>
+        <v>0.05596849234154178</v>
       </c>
       <c r="E12">
-        <v>0.08060040419543668</v>
+        <v>0.01769774135666236</v>
       </c>
       <c r="F12">
-        <v>2.318767906438268</v>
+        <v>3.805350866259204</v>
       </c>
       <c r="G12">
-        <v>0.6339996268137043</v>
+        <v>0.0007186928754976635</v>
       </c>
       <c r="H12">
-        <v>1.16878517199342</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1.80452935161901</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06270985019523856</v>
+        <v>0.01074176327711829</v>
       </c>
       <c r="K12">
-        <v>14.35985927376731</v>
+        <v>12.86383345553153</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1046543016262476</v>
       </c>
       <c r="M12">
-        <v>8.4366817898607</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>8.484215495564058</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>3.006108270652291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03264943111765461</v>
+        <v>0.1312738858698594</v>
       </c>
       <c r="D13">
-        <v>0.02547958690504171</v>
+        <v>0.05529480651022567</v>
       </c>
       <c r="E13">
-        <v>0.08012353773378322</v>
+        <v>0.01773380348600284</v>
       </c>
       <c r="F13">
-        <v>2.29835979941177</v>
+        <v>3.780529624349896</v>
       </c>
       <c r="G13">
-        <v>0.6281997004576709</v>
+        <v>0.00071990356497079</v>
       </c>
       <c r="H13">
-        <v>1.158241947753368</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1.788707896600826</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06222111681115727</v>
+        <v>0.01099851050514733</v>
       </c>
       <c r="K13">
-        <v>14.27263129003785</v>
+        <v>12.78307816878231</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1040714032080317</v>
       </c>
       <c r="M13">
-        <v>8.384849093153207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8.431575633728698</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.985481073987799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03183151871115086</v>
+        <v>0.1296083725177937</v>
       </c>
       <c r="D14">
-        <v>0.02429386929740573</v>
+        <v>0.05314233841378524</v>
       </c>
       <c r="E14">
-        <v>0.07858361904844813</v>
+        <v>0.01785170174496198</v>
       </c>
       <c r="F14">
-        <v>2.232765061177986</v>
+        <v>3.701275116421982</v>
       </c>
       <c r="G14">
-        <v>0.6095543353667949</v>
+        <v>0.0007238348074412852</v>
       </c>
       <c r="H14">
-        <v>1.12438688173556</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1.737839602358505</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06065199149721323</v>
+        <v>0.01185427361166802</v>
       </c>
       <c r="K14">
-        <v>13.98942942647724</v>
+        <v>12.52139936633668</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1021839019236026</v>
       </c>
       <c r="M14">
-        <v>8.21661650816003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>8.261014519238557</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.919625869169977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03133853212151649</v>
+        <v>0.1286075278563175</v>
       </c>
       <c r="D15">
-        <v>0.02358647950871617</v>
+        <v>0.05185677708558956</v>
       </c>
       <c r="E15">
-        <v>0.0776517449969063</v>
+        <v>0.01792414549890431</v>
       </c>
       <c r="F15">
-        <v>2.193301169454543</v>
+        <v>3.653984205449802</v>
       </c>
       <c r="G15">
-        <v>0.598333937788766</v>
+        <v>0.0007262304006609767</v>
       </c>
       <c r="H15">
-        <v>1.104043080805312</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1.707223655969727</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05970927298289475</v>
+        <v>0.01239220253397022</v>
       </c>
       <c r="K15">
-        <v>13.81690158428293</v>
+        <v>12.36235747730035</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1010376873886898</v>
       </c>
       <c r="M15">
-        <v>8.114167244106596</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>8.157361277290221</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.88033581429589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02862521661914741</v>
+        <v>0.1231434975282468</v>
       </c>
       <c r="D16">
-        <v>0.01979639562042124</v>
+        <v>0.04494276907518469</v>
       </c>
       <c r="E16">
-        <v>0.0724725316608783</v>
+        <v>0.01834291289268375</v>
       </c>
       <c r="F16">
-        <v>1.977210198397103</v>
+        <v>3.400471757140338</v>
       </c>
       <c r="G16">
-        <v>0.5368520057977975</v>
+        <v>0.0007397955299977518</v>
       </c>
       <c r="H16">
-        <v>0.9929979332835046</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.539407271137264</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0545663496733777</v>
+        <v>0.01566934295166256</v>
       </c>
       <c r="K16">
-        <v>12.84138984237842</v>
+        <v>11.46818716422234</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09460612392956591</v>
       </c>
       <c r="M16">
-        <v>7.535444203218788</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>7.574737688065113</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.669782551196391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02704966344946058</v>
+        <v>0.1200095519319717</v>
       </c>
       <c r="D17">
-        <v>0.01768110179629989</v>
+        <v>0.04105643408090742</v>
       </c>
       <c r="E17">
-        <v>0.06942568587152209</v>
+        <v>0.01860317572231285</v>
       </c>
       <c r="F17">
-        <v>1.852738148556327</v>
+        <v>3.25887904256075</v>
       </c>
       <c r="G17">
-        <v>0.5013977424591758</v>
+        <v>0.0007479980793303402</v>
       </c>
       <c r="H17">
-        <v>0.9293291609894538</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.442593294027631</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05162021787660009</v>
+        <v>0.01783763604267352</v>
       </c>
       <c r="K17">
-        <v>12.25345420531582</v>
+        <v>10.93324074531577</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09076790338359331</v>
       </c>
       <c r="M17">
-        <v>7.18709797270688</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7.226294593446681</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.552231879316494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0261722874370065</v>
+        <v>0.1182786033773908</v>
       </c>
       <c r="D18">
-        <v>0.01653242752892936</v>
+        <v>0.03893447478912293</v>
       </c>
       <c r="E18">
-        <v>0.06771637591492308</v>
+        <v>0.01875415514210532</v>
       </c>
       <c r="F18">
-        <v>1.783800805007587</v>
+        <v>3.181966293752879</v>
       </c>
       <c r="G18">
-        <v>0.4817465746459533</v>
+        <v>0.0007526814344216346</v>
       </c>
       <c r="H18">
-        <v>0.894170164626189</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.388920979466249</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04999430995871279</v>
+        <v>0.01913729482368587</v>
       </c>
       <c r="K18">
-        <v>11.91869947232794</v>
+        <v>10.62992024752245</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08859446845616503</v>
       </c>
       <c r="M18">
-        <v>6.988908345502296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>7.028764422840283</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.488392012238052</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02587984453555947</v>
+        <v>0.1177041095547651</v>
       </c>
       <c r="D19">
-        <v>0.01615440017637848</v>
+        <v>0.03823403946746495</v>
       </c>
       <c r="E19">
-        <v>0.06714462985614134</v>
+        <v>0.01880549867208936</v>
       </c>
       <c r="F19">
-        <v>1.760888397864562</v>
+        <v>3.156652545373277</v>
       </c>
       <c r="G19">
-        <v>0.4752125117165491</v>
+        <v>0.0007542619947913544</v>
       </c>
       <c r="H19">
-        <v>0.8825018266646083</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.371073153844662</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04945488923332952</v>
+        <v>0.01958589138315192</v>
       </c>
       <c r="K19">
-        <v>11.80590370452163</v>
+        <v>10.52791736567437</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08786401168751468</v>
       </c>
       <c r="M19">
-        <v>6.922152613754605</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6.962344335803806</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.467382751558432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02721431802565633</v>
+        <v>0.1203355770446706</v>
       </c>
       <c r="D20">
-        <v>0.01789905124651003</v>
+        <v>0.04145805488849419</v>
       </c>
       <c r="E20">
-        <v>0.06974546052162012</v>
+        <v>0.0185753385015941</v>
       </c>
       <c r="F20">
-        <v>1.865706858867014</v>
+        <v>3.273470995894655</v>
       </c>
       <c r="G20">
-        <v>0.5050932973300206</v>
+        <v>0.0007471286708007692</v>
       </c>
       <c r="H20">
-        <v>0.9359518565635057</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.452685918708895</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0519265646006275</v>
+        <v>0.01760126877198331</v>
       </c>
       <c r="K20">
-        <v>12.31567845722341</v>
+        <v>10.98972166350799</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09117283949632338</v>
       </c>
       <c r="M20">
-        <v>7.223949414868457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>7.263079744523424</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.564344656643797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03207006258020328</v>
+        <v>0.1300934818094532</v>
       </c>
       <c r="D21">
-        <v>0.02463813915823643</v>
+        <v>0.05376758483529898</v>
       </c>
       <c r="E21">
-        <v>0.07903352721036683</v>
+        <v>0.01781702505741301</v>
       </c>
       <c r="F21">
-        <v>2.251880594204138</v>
+        <v>3.724288114464343</v>
       </c>
       <c r="G21">
-        <v>0.6149885163357993</v>
+        <v>0.0007226827615062022</v>
       </c>
       <c r="H21">
-        <v>1.134247698470929</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1.752666097163669</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06110898575269985</v>
+        <v>0.01160000799871952</v>
       </c>
       <c r="K21">
-        <v>14.07241330212705</v>
+        <v>12.59799683962959</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1027361970009508</v>
       </c>
       <c r="M21">
-        <v>8.265903852969814</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>8.310938403659208</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.938746933841998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03559121927510489</v>
+        <v>0.1373122190577902</v>
       </c>
       <c r="D22">
-        <v>0.0298627985199369</v>
+        <v>0.06323653833404563</v>
       </c>
       <c r="E22">
-        <v>0.08559940222066587</v>
+        <v>0.01733174528209336</v>
       </c>
       <c r="F22">
-        <v>2.53537043737326</v>
+        <v>4.073431686127321</v>
       </c>
       <c r="G22">
-        <v>0.6955295549502551</v>
+        <v>0.0007061765680601127</v>
       </c>
       <c r="H22">
-        <v>1.280964249115911</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1.97231811540945</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06791176587517178</v>
+        <v>0.00827783552379513</v>
       </c>
       <c r="K22">
-        <v>15.26141945876321</v>
+        <v>13.70301239377784</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1107235386187142</v>
       </c>
       <c r="M22">
-        <v>8.972852299451063</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>9.031336046581998</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>3.228964995295811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03367490562366271</v>
+        <v>0.1333705173431809</v>
       </c>
       <c r="D23">
-        <v>0.02698692151879989</v>
+        <v>0.05802782367690895</v>
       </c>
       <c r="E23">
-        <v>0.08204346071988411</v>
+        <v>0.01758986601468404</v>
       </c>
       <c r="F23">
-        <v>2.380797500661245</v>
+        <v>3.8812624159861</v>
       </c>
       <c r="G23">
-        <v>0.651625281474594</v>
+        <v>0.0007150476904667427</v>
       </c>
       <c r="H23">
-        <v>1.200859397117512</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1.852604253776562</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06419685442976153</v>
+        <v>0.009988211145469439</v>
       </c>
       <c r="K23">
-        <v>14.62249349338049</v>
+        <v>13.10743410063625</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1064138249237629</v>
       </c>
       <c r="M23">
-        <v>8.592790180077372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>8.643016199998385</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>3.069200187569507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02713979004228406</v>
+        <v>0.1201879625645574</v>
       </c>
       <c r="D24">
-        <v>0.01780030838780799</v>
+        <v>0.04127613620342174</v>
       </c>
       <c r="E24">
-        <v>0.0696007595749677</v>
+        <v>0.01858791949034266</v>
       </c>
       <c r="F24">
-        <v>1.859835608643479</v>
+        <v>3.266860124342543</v>
       </c>
       <c r="G24">
-        <v>0.5034202782922392</v>
+        <v>0.0007475218292366487</v>
       </c>
       <c r="H24">
-        <v>0.9329532760443158</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.44811690986792</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05178785577887801</v>
+        <v>0.01770796637629846</v>
       </c>
       <c r="K24">
-        <v>12.2875368332318</v>
+        <v>10.96417362091961</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09098966566644151</v>
       </c>
       <c r="M24">
-        <v>7.207282468454537</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7.246440570755027</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.558856932135029</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02116758022878429</v>
+        <v>0.1086550543399909</v>
       </c>
       <c r="D25">
-        <v>0.01043037375419242</v>
+        <v>0.02744580287131626</v>
       </c>
       <c r="E25">
-        <v>0.05779480397141512</v>
+        <v>0.01971388231843685</v>
       </c>
       <c r="F25">
-        <v>1.397213813815597</v>
+        <v>2.773794435106709</v>
       </c>
       <c r="G25">
-        <v>0.3712676619635857</v>
+        <v>0.0007812858821731883</v>
       </c>
       <c r="H25">
-        <v>0.698640357580544</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.087071326439727</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04097007039414713</v>
+        <v>0.02801140147844383</v>
       </c>
       <c r="K25">
-        <v>9.895998829047386</v>
+        <v>8.815373472008048</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.07562894313851132</v>
       </c>
       <c r="M25">
-        <v>5.793679531056682</v>
+        <v>5.847757091310228</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.149708809573454</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1017538288361237</v>
+        <v>0.06652020798772895</v>
       </c>
       <c r="D2">
-        <v>0.01949453537415025</v>
+        <v>0.01396014673405332</v>
       </c>
       <c r="E2">
-        <v>0.02058979013129836</v>
+        <v>0.02433486950636787</v>
       </c>
       <c r="F2">
-        <v>2.507286427989797</v>
+        <v>0.8009164015253845</v>
       </c>
       <c r="G2">
-        <v>0.0008058449870069159</v>
+        <v>0.732304482066624</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.4177278707799985</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.6068511949906821</v>
       </c>
       <c r="J2">
-        <v>0.03684313880872447</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>7.319612615567451</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.06497496138348424</v>
+        <v>0.02482095686757724</v>
       </c>
       <c r="M2">
-        <v>4.875229119574811</v>
+        <v>2.469309246622359</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>4.189394743796328</v>
       </c>
       <c r="O2">
-        <v>1.928533088278243</v>
+        <v>2.379375410491662</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.09782061332633418</v>
+        <v>0.06634624053054239</v>
       </c>
       <c r="D3">
-        <v>0.01502785381962823</v>
+        <v>0.01252661794563537</v>
       </c>
       <c r="E3">
-        <v>0.02121427231247619</v>
+        <v>0.02664708819296591</v>
       </c>
       <c r="F3">
-        <v>2.370111568798379</v>
+        <v>0.7081350638880082</v>
       </c>
       <c r="G3">
-        <v>0.0008225724752901868</v>
+        <v>0.6430305785116985</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.3812923649091431</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.543244441161157</v>
       </c>
       <c r="J3">
-        <v>0.04345288899503075</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6.341090779592662</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0580123259059846</v>
+        <v>0.02835717150164418</v>
       </c>
       <c r="M3">
-        <v>4.23959935478311</v>
+        <v>2.154015084576955</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>3.729236544669902</v>
       </c>
       <c r="O3">
-        <v>1.814519214829488</v>
+        <v>2.11343147071986</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.09571014134051126</v>
+        <v>0.06641912827817009</v>
       </c>
       <c r="D4">
-        <v>0.01262515125379693</v>
+        <v>0.01164237811097024</v>
       </c>
       <c r="E4">
-        <v>0.0216133677122885</v>
+        <v>0.02819921409584536</v>
       </c>
       <c r="F4">
-        <v>2.303142976199268</v>
+        <v>0.6523621999255766</v>
       </c>
       <c r="G4">
-        <v>0.0008329527128451869</v>
+        <v>0.5893601641541011</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3596140563820427</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.5052653288778259</v>
       </c>
       <c r="J4">
-        <v>0.04778179683210326</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>5.752904244105935</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.05382647629366843</v>
+        <v>0.03070133006142362</v>
       </c>
       <c r="M4">
-        <v>3.857795015831144</v>
+        <v>1.959930932293375</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>3.447103456722118</v>
       </c>
       <c r="O4">
-        <v>1.758717501838859</v>
+        <v>1.954004360697269</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.09491890909210099</v>
+        <v>0.06649191586903669</v>
       </c>
       <c r="D5">
-        <v>0.01171738411750312</v>
+        <v>0.01128099528315829</v>
       </c>
       <c r="E5">
-        <v>0.02177999511203765</v>
+        <v>0.02886349302391444</v>
       </c>
       <c r="F5">
-        <v>2.279674660764911</v>
+        <v>0.6299081870027834</v>
       </c>
       <c r="G5">
-        <v>0.0008372187862904142</v>
+        <v>0.56774955473837</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.3509417804595643</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4900370653119452</v>
       </c>
       <c r="J5">
-        <v>0.04960923804281703</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>5.515802741420941</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05213845799833194</v>
+        <v>0.0316980762639596</v>
       </c>
       <c r="M5">
-        <v>3.703952546390155</v>
+        <v>1.880711069920309</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>3.332219804846204</v>
       </c>
       <c r="O5">
-        <v>1.739115918721595</v>
+        <v>1.889924214461331</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.09479147509810559</v>
+        <v>0.0665065446981643</v>
       </c>
       <c r="D6">
-        <v>0.01157058973460678</v>
+        <v>0.01122092384167317</v>
       </c>
       <c r="E6">
-        <v>0.02180790609765682</v>
+        <v>0.02897567190913941</v>
       </c>
       <c r="F6">
-        <v>2.27599493614261</v>
+        <v>0.6261955045888143</v>
       </c>
       <c r="G6">
-        <v>0.0008379295669912468</v>
+        <v>0.5641760977558334</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3495111758799681</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4875228148323032</v>
       </c>
       <c r="J6">
-        <v>0.04991638903066176</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>5.476573079189933</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0518591120109555</v>
+        <v>0.03186603396015109</v>
       </c>
       <c r="M6">
-        <v>3.678502374732616</v>
+        <v>1.867548747845447</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>3.313148387939464</v>
       </c>
       <c r="O6">
-        <v>1.73603918312584</v>
+        <v>1.87933500566308</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.09569920137766275</v>
+        <v>0.066419938177809</v>
       </c>
       <c r="D7">
-        <v>0.01261263687858261</v>
+        <v>0.01163750865591595</v>
       </c>
       <c r="E7">
-        <v>0.02161559867324447</v>
+        <v>0.02820804610086647</v>
       </c>
       <c r="F7">
-        <v>2.302811626617626</v>
+        <v>0.6520583025220645</v>
       </c>
       <c r="G7">
-        <v>0.0008330100903710153</v>
+        <v>0.5890676959270706</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.3594964599045198</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.5050589770551497</v>
       </c>
       <c r="J7">
-        <v>0.04780619133791086</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>5.74969683891419</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.05380364490802592</v>
+        <v>0.03071460714130625</v>
       </c>
       <c r="M7">
-        <v>3.855713641295196</v>
+        <v>1.958863074005819</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>3.445553757334153</v>
       </c>
       <c r="O7">
-        <v>1.758440967210731</v>
+        <v>1.95313666665038</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1003293827640661</v>
+        <v>0.06642163149897584</v>
       </c>
       <c r="D8">
-        <v>0.01787462530334238</v>
+        <v>0.01346668623891389</v>
       </c>
       <c r="E8">
-        <v>0.0208018963911325</v>
+        <v>0.0251037042104536</v>
       </c>
       <c r="F8">
-        <v>2.456068731561643</v>
+        <v>0.7686607866156407</v>
       </c>
       <c r="G8">
-        <v>0.0008115954413391382</v>
+        <v>0.7012685276890664</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.4050132702981273</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.5846827220129924</v>
       </c>
       <c r="J8">
-        <v>0.03906299875685493</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>6.979214579670099</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.06255266086750311</v>
+        <v>0.02600312767522972</v>
       </c>
       <c r="M8">
-        <v>4.654053919701852</v>
+        <v>2.360694449776616</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>4.030638729108716</v>
       </c>
       <c r="O8">
-        <v>1.885990023672449</v>
+        <v>2.286824093195293</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1122534159762836</v>
+        <v>0.06795042235764726</v>
       </c>
       <c r="D9">
-        <v>0.03168188449953036</v>
+        <v>0.01702332882850044</v>
       </c>
       <c r="E9">
-        <v>0.0193275704779845</v>
+        <v>0.02013842351687778</v>
       </c>
       <c r="F9">
-        <v>2.922204544281243</v>
+        <v>1.00809054096905</v>
       </c>
       <c r="G9">
-        <v>0.0007700023004250324</v>
+        <v>0.9316852356139975</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.500376596187337</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.7504186476160015</v>
       </c>
       <c r="J9">
-        <v>0.02432266918863202</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>9.52281497942019</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.0806771667368551</v>
+        <v>0.01823008208477783</v>
       </c>
       <c r="M9">
-        <v>6.30805533348817</v>
+        <v>3.14510648235678</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.18199726221502</v>
       </c>
       <c r="O9">
-        <v>2.272838704106647</v>
+        <v>2.975889560955693</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1235113936875223</v>
+        <v>0.07014956640367842</v>
       </c>
       <c r="D10">
-        <v>0.04540276545374056</v>
+        <v>0.01962090621179158</v>
       </c>
       <c r="E10">
-        <v>0.0183133856620401</v>
+        <v>0.0172791362937339</v>
       </c>
       <c r="F10">
-        <v>3.41728264316896</v>
+        <v>1.192495973223018</v>
       </c>
       <c r="G10">
-        <v>0.0007388542432376422</v>
+        <v>1.10927277878983</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.5750667483063694</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.8796154910441629</v>
       </c>
       <c r="J10">
-        <v>0.01542941964880606</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>11.52986346280494</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.09504908749953245</v>
+        <v>0.0135506172967732</v>
       </c>
       <c r="M10">
-        <v>7.614916978267786</v>
+        <v>3.719831489375792</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.031655906552032</v>
       </c>
       <c r="O10">
-        <v>2.683741220966041</v>
+        <v>3.509366000082593</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1294158558348073</v>
+        <v>0.07141813893935733</v>
       </c>
       <c r="D11">
-        <v>0.05289459444191635</v>
+        <v>0.02080004401982194</v>
       </c>
       <c r="E11">
-        <v>0.01786554158912868</v>
+        <v>0.01617427849419784</v>
       </c>
       <c r="F11">
-        <v>3.692158764133694</v>
+        <v>1.278696835160531</v>
       </c>
       <c r="G11">
-        <v>0.0007242936302293604</v>
+        <v>1.192338703019118</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.6102683951688448</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.94038504170517</v>
       </c>
       <c r="J11">
-        <v>0.01195634098427956</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>12.49091352490333</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1019641349518139</v>
+        <v>0.0116783101422806</v>
       </c>
       <c r="M11">
-        <v>8.241145250277725</v>
+        <v>3.98110773537671</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.419335377178925</v>
       </c>
       <c r="O11">
-        <v>2.912051535287091</v>
+        <v>3.759432252550027</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.131792565032697</v>
+        <v>0.07194016062400976</v>
       </c>
       <c r="D12">
-        <v>0.05596849234154178</v>
+        <v>0.02124626176351541</v>
       </c>
       <c r="E12">
-        <v>0.01769774135666236</v>
+        <v>0.01578627214571515</v>
       </c>
       <c r="F12">
-        <v>3.805350866259204</v>
+        <v>1.31171351597753</v>
       </c>
       <c r="G12">
-        <v>0.0007186928754976635</v>
+        <v>1.224164360476891</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.6237941992515914</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.9637184661229838</v>
       </c>
       <c r="J12">
-        <v>0.01074176327711829</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>12.86383345553153</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1046543016262476</v>
+        <v>0.01100911738201571</v>
       </c>
       <c r="M12">
-        <v>8.484215495564058</v>
+        <v>4.080036423377564</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.566335818627351</v>
       </c>
       <c r="O12">
-        <v>3.006108270652291</v>
+        <v>3.855319953102651</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1312738858698594</v>
+        <v>0.07182583066999371</v>
       </c>
       <c r="D13">
-        <v>0.05529480651022567</v>
+        <v>0.02115017282497433</v>
       </c>
       <c r="E13">
-        <v>0.01773380348600284</v>
+        <v>0.01586844823515765</v>
       </c>
       <c r="F13">
-        <v>3.780529624349896</v>
+        <v>1.304585438637133</v>
       </c>
       <c r="G13">
-        <v>0.00071990356497079</v>
+        <v>1.217292948571867</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.6208721420331926</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.9586783323349124</v>
       </c>
       <c r="J13">
-        <v>0.01099851050514733</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>12.78307816878231</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1040714032080317</v>
+        <v>0.0111514205266201</v>
       </c>
       <c r="M13">
-        <v>8.431575633728698</v>
+        <v>4.058730613799526</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.534667528346802</v>
       </c>
       <c r="O13">
-        <v>2.985481073987799</v>
+        <v>3.834613557650187</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1296083725177937</v>
+        <v>0.07146023305656968</v>
       </c>
       <c r="D14">
-        <v>0.05314233841378524</v>
+        <v>0.02083676015175939</v>
       </c>
       <c r="E14">
-        <v>0.01785170174496198</v>
+        <v>0.01614173490439796</v>
       </c>
       <c r="F14">
-        <v>3.701275116421982</v>
+        <v>1.281405386065629</v>
       </c>
       <c r="G14">
-        <v>0.0007238348074412852</v>
+        <v>1.194949340040779</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.6113771310270124</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.942298051722176</v>
       </c>
       <c r="J14">
-        <v>0.01185427361166802</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>12.52139936633668</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1021839019236026</v>
+        <v>0.01162243986052003</v>
       </c>
       <c r="M14">
-        <v>8.261014519238557</v>
+        <v>3.989246794125904</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.431425126953684</v>
       </c>
       <c r="O14">
-        <v>2.919625869169977</v>
+        <v>3.767296291927437</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1286075278563175</v>
+        <v>0.07124181173904276</v>
       </c>
       <c r="D15">
-        <v>0.05185677708558956</v>
+        <v>0.02064474936064897</v>
       </c>
       <c r="E15">
-        <v>0.01792414549890431</v>
+        <v>0.01631315548508194</v>
       </c>
       <c r="F15">
-        <v>3.653984205449802</v>
+        <v>1.267256968276342</v>
       </c>
       <c r="G15">
-        <v>0.0007262304006609767</v>
+        <v>1.181312790814189</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.605587258043812</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.9323075608686509</v>
       </c>
       <c r="J15">
-        <v>0.01239220253397022</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>12.36235747730035</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1010376873886898</v>
+        <v>0.01191622780651347</v>
       </c>
       <c r="M15">
-        <v>8.157361277290221</v>
+        <v>3.946684951386473</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.368212369719004</v>
       </c>
       <c r="O15">
-        <v>2.88033581429589</v>
+        <v>3.726221965095078</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1231434975282468</v>
+        <v>0.0700723169334907</v>
       </c>
       <c r="D16">
-        <v>0.04494276907518469</v>
+        <v>0.01954380158818836</v>
       </c>
       <c r="E16">
-        <v>0.01834291289268375</v>
+        <v>0.01735546845828306</v>
       </c>
       <c r="F16">
-        <v>3.400471757140338</v>
+        <v>1.186912581807121</v>
       </c>
       <c r="G16">
-        <v>0.0007397955299977518</v>
+        <v>1.103893666084986</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.572792520994085</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.8756871021084436</v>
       </c>
       <c r="J16">
-        <v>0.01566934295166256</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>11.46818716422234</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.09460612392956591</v>
+        <v>0.01367838317208259</v>
       </c>
       <c r="M16">
-        <v>7.574737688065113</v>
+        <v>3.702754167770109</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.006345847195973</v>
       </c>
       <c r="O16">
-        <v>2.669782551196391</v>
+        <v>3.493183152757808</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1200095519319717</v>
+        <v>0.06942568069077026</v>
       </c>
       <c r="D17">
-        <v>0.04105643408090742</v>
+        <v>0.01886780579040703</v>
       </c>
       <c r="E17">
-        <v>0.01860317572231285</v>
+        <v>0.01804658642839385</v>
       </c>
       <c r="F17">
-        <v>3.25887904256075</v>
+        <v>1.138245075224802</v>
       </c>
       <c r="G17">
-        <v>0.0007479980793303402</v>
+        <v>1.057012767923567</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.5530011373888897</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.8414872556115682</v>
       </c>
       <c r="J17">
-        <v>0.01783763604267352</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>10.93324074531577</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.09076790338359331</v>
+        <v>0.01482710872486992</v>
       </c>
       <c r="M17">
-        <v>7.226294593446681</v>
+        <v>3.553076130353418</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.784669400109294</v>
       </c>
       <c r="O17">
-        <v>2.552231879316494</v>
+        <v>3.352202852773928</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1182786033773908</v>
+        <v>0.06907879805770989</v>
       </c>
       <c r="D18">
-        <v>0.03893447478912293</v>
+        <v>0.01847874992655818</v>
       </c>
       <c r="E18">
-        <v>0.01875415514210532</v>
+        <v>0.01846239210187939</v>
       </c>
       <c r="F18">
-        <v>3.181966293752879</v>
+        <v>1.110467930676819</v>
       </c>
       <c r="G18">
-        <v>0.0007526814344216346</v>
+        <v>1.030260024298855</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.5417316700283976</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.8220022025820484</v>
       </c>
       <c r="J18">
-        <v>0.01913729482368587</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>10.62992024752245</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.08859446845616503</v>
+        <v>0.01551177199694842</v>
       </c>
       <c r="M18">
-        <v>7.028764422840283</v>
+        <v>3.466968458497107</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.65727489934352</v>
       </c>
       <c r="O18">
-        <v>2.488392012238052</v>
+        <v>3.271801385273534</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1177041095547651</v>
+        <v>0.06896556067291471</v>
       </c>
       <c r="D19">
-        <v>0.03823403946746495</v>
+        <v>0.01834697906495464</v>
       </c>
       <c r="E19">
-        <v>0.01880549867208936</v>
+        <v>0.01860625339467337</v>
       </c>
       <c r="F19">
-        <v>3.156652545373277</v>
+        <v>1.101098801354951</v>
       </c>
       <c r="G19">
-        <v>0.0007542619947913544</v>
+        <v>1.02123716206826</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.5379350325871854</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.8154358132367108</v>
       </c>
       <c r="J19">
-        <v>0.01958589138315192</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>10.52791736567437</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.08786401168751468</v>
+        <v>0.01574761376311318</v>
       </c>
       <c r="M19">
-        <v>6.962344335803806</v>
+        <v>3.437810615524157</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.614159064981209</v>
       </c>
       <c r="O19">
-        <v>2.467382751558432</v>
+        <v>3.244692944346241</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1203355770446706</v>
+        <v>0.06949190247367198</v>
       </c>
       <c r="D20">
-        <v>0.04145805488849419</v>
+        <v>0.01893979119083511</v>
       </c>
       <c r="E20">
-        <v>0.0185753385015941</v>
+        <v>0.01797110690194792</v>
       </c>
       <c r="F20">
-        <v>3.273470995894655</v>
+        <v>1.143403260110233</v>
       </c>
       <c r="G20">
-        <v>0.0007471286708007692</v>
+        <v>1.061981091087134</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.5550960271866074</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.845108420213009</v>
       </c>
       <c r="J20">
-        <v>0.01760126877198331</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>10.98972166350799</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.09117283949632338</v>
+        <v>0.01470232588078924</v>
       </c>
       <c r="M20">
-        <v>7.263079744523424</v>
+        <v>3.569011263595044</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.808255878425427</v>
       </c>
       <c r="O20">
-        <v>2.564344656643797</v>
+        <v>3.36713846276507</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1300934818094532</v>
+        <v>0.07156646224741792</v>
       </c>
       <c r="D21">
-        <v>0.05376758483529898</v>
+        <v>0.02092882452432576</v>
       </c>
       <c r="E21">
-        <v>0.01781702505741301</v>
+        <v>0.0160606210938381</v>
       </c>
       <c r="F21">
-        <v>3.724288114464343</v>
+        <v>1.288203423440834</v>
       </c>
       <c r="G21">
-        <v>0.0007226827615062022</v>
+        <v>1.201501791255509</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.6141605703958533</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.9471003312380333</v>
       </c>
       <c r="J21">
-        <v>0.01160000799871952</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>12.59799683962959</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1027361970009508</v>
+        <v>0.01148298522710522</v>
       </c>
       <c r="M21">
-        <v>8.310938403659208</v>
+        <v>4.009656057379061</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.461744411993607</v>
       </c>
       <c r="O21">
-        <v>2.938746933841998</v>
+        <v>3.787035527781768</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1373122190577902</v>
+        <v>0.07316660375266082</v>
       </c>
       <c r="D22">
-        <v>0.06323653833404563</v>
+        <v>0.02222708348474711</v>
       </c>
       <c r="E22">
-        <v>0.01733174528209336</v>
+        <v>0.01499022004763439</v>
       </c>
       <c r="F22">
-        <v>4.073431686127321</v>
+        <v>1.38504210230397</v>
       </c>
       <c r="G22">
-        <v>0.0007061765680601127</v>
+        <v>1.294867865414716</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.653913663005369</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.015648675357554</v>
       </c>
       <c r="J22">
-        <v>0.00827783552379513</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>13.70301239377784</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1107235386187142</v>
+        <v>0.009612511543960256</v>
       </c>
       <c r="M22">
-        <v>9.031336046581998</v>
+        <v>4.29758669347369</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.889985880941481</v>
       </c>
       <c r="O22">
-        <v>3.228964995295811</v>
+        <v>4.06848525970571</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1333705173431809</v>
+        <v>0.07228915238830069</v>
       </c>
       <c r="D23">
-        <v>0.05802782367690895</v>
+        <v>0.02153430887439711</v>
       </c>
       <c r="E23">
-        <v>0.01758986601468404</v>
+        <v>0.01554443498081959</v>
       </c>
       <c r="F23">
-        <v>3.8812624159861</v>
+        <v>1.333141236811699</v>
       </c>
       <c r="G23">
-        <v>0.0007150476904667427</v>
+        <v>1.2448220906617</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.6325844700579637</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.9788781267319422</v>
       </c>
       <c r="J23">
-        <v>0.009988211145469439</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>13.10743410063625</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1064138249237629</v>
+        <v>0.01058842401336291</v>
       </c>
       <c r="M23">
-        <v>8.643016199998385</v>
+        <v>4.14391290116339</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.661310605286189</v>
       </c>
       <c r="O23">
-        <v>3.069200187569507</v>
+        <v>3.917581486131553</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1201879625645574</v>
+        <v>0.06946188634911721</v>
       </c>
       <c r="D24">
-        <v>0.04127613620342174</v>
+        <v>0.01890724789474163</v>
       </c>
       <c r="E24">
-        <v>0.01858791949034266</v>
+        <v>0.01800517382327183</v>
       </c>
       <c r="F24">
-        <v>3.266860124342543</v>
+        <v>1.141070617227271</v>
       </c>
       <c r="G24">
-        <v>0.0007475218292366487</v>
+        <v>1.05973429330389</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.5541485898876886</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.8434707432563044</v>
       </c>
       <c r="J24">
-        <v>0.01770796637629846</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>10.96417362091961</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.09098966566644151</v>
+        <v>0.01475866490462829</v>
       </c>
       <c r="M24">
-        <v>7.246440570755027</v>
+        <v>3.561807164564328</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.797592277099682</v>
       </c>
       <c r="O24">
-        <v>2.558856932135029</v>
+        <v>3.360384058709144</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1086550543399909</v>
+        <v>0.06735898946731567</v>
       </c>
       <c r="D25">
-        <v>0.02744580287131626</v>
+        <v>0.01606412339283381</v>
       </c>
       <c r="E25">
-        <v>0.01971388231843685</v>
+        <v>0.02135109595670226</v>
       </c>
       <c r="F25">
-        <v>2.773794435106709</v>
+        <v>0.941974352576807</v>
       </c>
       <c r="G25">
-        <v>0.0007812858821731883</v>
+        <v>0.8680446176703924</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.4738352547970948</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.704399075000282</v>
       </c>
       <c r="J25">
-        <v>0.02801140147844383</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>8.815373472008048</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.07562894313851132</v>
+        <v>0.02016224062698413</v>
       </c>
       <c r="M25">
-        <v>5.847757091310228</v>
+        <v>2.933228649393612</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>4.869967680144498</v>
       </c>
       <c r="O25">
-        <v>2.149708809573454</v>
+        <v>2.785164257791621</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06652020798772895</v>
+        <v>0.1986156168920132</v>
       </c>
       <c r="D2">
-        <v>0.01396014673405332</v>
+        <v>0.009773962508827339</v>
       </c>
       <c r="E2">
-        <v>0.02433486950636787</v>
+        <v>0.1088980828063866</v>
       </c>
       <c r="F2">
-        <v>0.8009164015253845</v>
+        <v>0.6704810424270136</v>
       </c>
       <c r="G2">
-        <v>0.732304482066624</v>
+        <v>0.5229827605088246</v>
       </c>
       <c r="H2">
-        <v>0.4177278707799985</v>
+        <v>0.603300824350768</v>
       </c>
       <c r="I2">
-        <v>0.6068511949906821</v>
+        <v>0.6564558713883173</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.02482095686757724</v>
+        <v>0.1219626595168339</v>
       </c>
       <c r="M2">
-        <v>2.469309246622359</v>
+        <v>0.9744115844606114</v>
       </c>
       <c r="N2">
-        <v>4.189394743796328</v>
+        <v>1.833614962414231</v>
       </c>
       <c r="O2">
-        <v>2.379375410491662</v>
+        <v>2.218712525494084</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06634624053054239</v>
+        <v>0.2005261834809531</v>
       </c>
       <c r="D3">
-        <v>0.01252661794563537</v>
+        <v>0.00927455425081547</v>
       </c>
       <c r="E3">
-        <v>0.02664708819296591</v>
+        <v>0.1109095939905602</v>
       </c>
       <c r="F3">
-        <v>0.7081350638880082</v>
+        <v>0.6518047603111938</v>
       </c>
       <c r="G3">
-        <v>0.6430305785116985</v>
+        <v>0.5042366804421761</v>
       </c>
       <c r="H3">
-        <v>0.3812923649091431</v>
+        <v>0.5987962019289483</v>
       </c>
       <c r="I3">
-        <v>0.543244441161157</v>
+        <v>0.6461936379585751</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.02835717150164418</v>
+        <v>0.1246203754443238</v>
       </c>
       <c r="M3">
-        <v>2.154015084576955</v>
+        <v>0.8722858148983335</v>
       </c>
       <c r="N3">
-        <v>3.729236544669902</v>
+        <v>1.681460195919669</v>
       </c>
       <c r="O3">
-        <v>2.11343147071986</v>
+        <v>2.16918886876698</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06641912827817009</v>
+        <v>0.2018060871376619</v>
       </c>
       <c r="D4">
-        <v>0.01164237811097024</v>
+        <v>0.008964929135597544</v>
       </c>
       <c r="E4">
-        <v>0.02819921409584536</v>
+        <v>0.1122182846828412</v>
       </c>
       <c r="F4">
-        <v>0.6523621999255766</v>
+        <v>0.6407929812252888</v>
       </c>
       <c r="G4">
-        <v>0.5893601641541011</v>
+        <v>0.4931116870684775</v>
       </c>
       <c r="H4">
-        <v>0.3596140563820427</v>
+        <v>0.5963692529084739</v>
       </c>
       <c r="I4">
-        <v>0.5052653288778259</v>
+        <v>0.6403401554757977</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.03070133006142362</v>
+        <v>0.1263448540712373</v>
       </c>
       <c r="M4">
-        <v>1.959930932293375</v>
+        <v>0.8093752377217953</v>
       </c>
       <c r="N4">
-        <v>3.447103456722118</v>
+        <v>1.588183730154157</v>
       </c>
       <c r="O4">
-        <v>1.954004360697269</v>
+        <v>2.140293841562737</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06649191586903669</v>
+        <v>0.2023544914193707</v>
       </c>
       <c r="D5">
-        <v>0.01128099528315829</v>
+        <v>0.008838011748757424</v>
       </c>
       <c r="E5">
-        <v>0.02886349302391444</v>
+        <v>0.1127700585966318</v>
       </c>
       <c r="F5">
-        <v>0.6299081870027834</v>
+        <v>0.6364199651992521</v>
       </c>
       <c r="G5">
-        <v>0.56774955473837</v>
+        <v>0.4886747388048889</v>
       </c>
       <c r="H5">
-        <v>0.3509417804595643</v>
+        <v>0.5954654495447045</v>
       </c>
       <c r="I5">
-        <v>0.4900370653119452</v>
+        <v>0.6380671691702418</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0316980762639596</v>
+        <v>0.1270708319890672</v>
       </c>
       <c r="M5">
-        <v>1.880711069920309</v>
+        <v>0.7836897749842819</v>
       </c>
       <c r="N5">
-        <v>3.332219804846204</v>
+        <v>1.550214425728313</v>
       </c>
       <c r="O5">
-        <v>1.889924214461331</v>
+        <v>2.128898615365614</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0665065446981643</v>
+        <v>0.2024471734692099</v>
       </c>
       <c r="D6">
-        <v>0.01122092384167317</v>
+        <v>0.008816892604706084</v>
       </c>
       <c r="E6">
-        <v>0.02897567190913941</v>
+        <v>0.1128627947389775</v>
       </c>
       <c r="F6">
-        <v>0.6261955045888143</v>
+        <v>0.635700732016673</v>
       </c>
       <c r="G6">
-        <v>0.5641760977558334</v>
+        <v>0.487943811793258</v>
       </c>
       <c r="H6">
-        <v>0.3495111758799681</v>
+        <v>0.5953205187908708</v>
       </c>
       <c r="I6">
-        <v>0.4875228148323032</v>
+        <v>0.6376965219742061</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.03186603396015109</v>
+        <v>0.1271927820663761</v>
       </c>
       <c r="M6">
-        <v>1.867548747845447</v>
+        <v>0.7794218484602169</v>
       </c>
       <c r="N6">
-        <v>3.313148387939464</v>
+        <v>1.543912301261429</v>
       </c>
       <c r="O6">
-        <v>1.87933500566308</v>
+        <v>2.127029362730951</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.066419938177809</v>
+        <v>0.20181337449484</v>
       </c>
       <c r="D7">
-        <v>0.01163750865591595</v>
+        <v>0.008963220479348166</v>
       </c>
       <c r="E7">
-        <v>0.02820804610086647</v>
+        <v>0.1122256513592328</v>
       </c>
       <c r="F7">
-        <v>0.6520583025220645</v>
+        <v>0.6407335423413798</v>
       </c>
       <c r="G7">
-        <v>0.5890676959270706</v>
+        <v>0.4930514581670025</v>
       </c>
       <c r="H7">
-        <v>0.3594964599045198</v>
+        <v>0.5963567189695169</v>
       </c>
       <c r="I7">
-        <v>0.5050589770551497</v>
+        <v>0.6403090465186239</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.03071460714130625</v>
+        <v>0.1263545508414041</v>
       </c>
       <c r="M7">
-        <v>1.958863074005819</v>
+        <v>0.8090290290405022</v>
       </c>
       <c r="N7">
-        <v>3.445553757334153</v>
+        <v>1.587671488210901</v>
       </c>
       <c r="O7">
-        <v>1.95313666665038</v>
+        <v>2.14013862490313</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06642163149897584</v>
+        <v>0.199252197510873</v>
       </c>
       <c r="D8">
-        <v>0.01346668623891389</v>
+        <v>0.009602391225293161</v>
       </c>
       <c r="E8">
-        <v>0.0251037042104536</v>
+        <v>0.1095763498428033</v>
       </c>
       <c r="F8">
-        <v>0.7686607866156407</v>
+        <v>0.6639468019719317</v>
       </c>
       <c r="G8">
-        <v>0.7012685276890664</v>
+        <v>0.5164389942983405</v>
       </c>
       <c r="H8">
-        <v>0.4050132702981273</v>
+        <v>0.6016772733190408</v>
       </c>
       <c r="I8">
-        <v>0.5846827220129924</v>
+        <v>0.6528244408247446</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.02600312767522972</v>
+        <v>0.1228597825555138</v>
       </c>
       <c r="M8">
-        <v>2.360694449776616</v>
+        <v>0.9392427051856913</v>
       </c>
       <c r="N8">
-        <v>4.030638729108716</v>
+        <v>1.781124150404196</v>
       </c>
       <c r="O8">
-        <v>2.286824093195293</v>
+        <v>2.201322396670832</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06795042235764726</v>
+        <v>0.1950783245289998</v>
       </c>
       <c r="D9">
-        <v>0.01702332882850044</v>
+        <v>0.01083179459005379</v>
       </c>
       <c r="E9">
-        <v>0.02013842351687778</v>
+        <v>0.1049668442733194</v>
       </c>
       <c r="F9">
-        <v>1.00809054096905</v>
+        <v>0.7130935386871045</v>
       </c>
       <c r="G9">
-        <v>0.9316852356139975</v>
+        <v>0.5653736785633896</v>
       </c>
       <c r="H9">
-        <v>0.500376596187337</v>
+        <v>0.6148023790852477</v>
       </c>
       <c r="I9">
-        <v>0.7504186476160015</v>
+        <v>0.6809291478748491</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.01823008208477783</v>
+        <v>0.1167438203586824</v>
       </c>
       <c r="M9">
-        <v>3.14510648235678</v>
+        <v>1.192861315690038</v>
       </c>
       <c r="N9">
-        <v>5.18199726221502</v>
+        <v>2.161470496490892</v>
       </c>
       <c r="O9">
-        <v>2.975889560955693</v>
+        <v>2.333344773332698</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07014956640367842</v>
+        <v>0.1925306485703331</v>
       </c>
       <c r="D10">
-        <v>0.01962090621179158</v>
+        <v>0.01172005900377471</v>
       </c>
       <c r="E10">
-        <v>0.0172791362937339</v>
+        <v>0.1019395022864904</v>
       </c>
       <c r="F10">
-        <v>1.192495973223018</v>
+        <v>0.7514320853191379</v>
       </c>
       <c r="G10">
-        <v>1.10927277878983</v>
+        <v>0.6032246018390879</v>
       </c>
       <c r="H10">
-        <v>0.5750667483063694</v>
+        <v>0.6260916109420975</v>
       </c>
       <c r="I10">
-        <v>0.8796154910441629</v>
+        <v>0.7037673354509479</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.0135506172967732</v>
+        <v>0.1127028494060531</v>
       </c>
       <c r="M10">
-        <v>3.719831489375792</v>
+        <v>1.378018550803233</v>
       </c>
       <c r="N10">
-        <v>6.031655906552032</v>
+        <v>2.441298695674277</v>
       </c>
       <c r="O10">
-        <v>3.509366000082593</v>
+        <v>2.437749169629228</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07141813893935733</v>
+        <v>0.191484647808899</v>
       </c>
       <c r="D11">
-        <v>0.02080004401982194</v>
+        <v>0.01212083321892976</v>
       </c>
       <c r="E11">
-        <v>0.01617427849419784</v>
+        <v>0.1006407548837007</v>
       </c>
       <c r="F11">
-        <v>1.278696835160531</v>
+        <v>0.7693622139460246</v>
       </c>
       <c r="G11">
-        <v>1.192338703019118</v>
+        <v>0.6208620600553729</v>
       </c>
       <c r="H11">
-        <v>0.6102683951688448</v>
+        <v>0.6315861304911436</v>
       </c>
       <c r="I11">
-        <v>0.94038504170517</v>
+        <v>0.7146365727812878</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.0116783101422806</v>
+        <v>0.1109633789319728</v>
       </c>
       <c r="M11">
-        <v>3.98110773537671</v>
+        <v>1.461971393641804</v>
       </c>
       <c r="N11">
-        <v>6.419335377178925</v>
+        <v>2.568641326600527</v>
       </c>
       <c r="O11">
-        <v>3.759432252550027</v>
+        <v>2.486869105245944</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07194016062400976</v>
+        <v>0.1911048252000853</v>
       </c>
       <c r="D12">
-        <v>0.02124626176351541</v>
+        <v>0.01227211368609815</v>
       </c>
       <c r="E12">
-        <v>0.01578627214571515</v>
+        <v>0.100160269166409</v>
       </c>
       <c r="F12">
-        <v>1.31171351597753</v>
+        <v>0.7762225780744529</v>
       </c>
       <c r="G12">
-        <v>1.224164360476891</v>
+        <v>0.627601514093783</v>
       </c>
       <c r="H12">
-        <v>0.6237941992515914</v>
+        <v>0.6337184496340171</v>
       </c>
       <c r="I12">
-        <v>0.9637184661229838</v>
+        <v>0.7188217604641238</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01100911738201571</v>
+        <v>0.1103189497271835</v>
       </c>
       <c r="M12">
-        <v>4.080036423377564</v>
+        <v>1.49372002156278</v>
       </c>
       <c r="N12">
-        <v>6.566335818627351</v>
+        <v>2.616865377633587</v>
       </c>
       <c r="O12">
-        <v>3.855319953102651</v>
+        <v>2.505704278029555</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07182583066999371</v>
+        <v>0.1911859024253388</v>
       </c>
       <c r="D13">
-        <v>0.02115017282497433</v>
+        <v>0.01223955440562463</v>
       </c>
       <c r="E13">
-        <v>0.01586844823515765</v>
+        <v>0.1002632460754231</v>
       </c>
       <c r="F13">
-        <v>1.304585438637133</v>
+        <v>0.7747419323290359</v>
       </c>
       <c r="G13">
-        <v>1.217292948571867</v>
+        <v>0.6261473552242478</v>
       </c>
       <c r="H13">
-        <v>0.6208721420331926</v>
+        <v>0.6332569181310532</v>
       </c>
       <c r="I13">
-        <v>0.9586783323349124</v>
+        <v>0.7179173223705106</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.0111514205266201</v>
+        <v>0.1104571033652508</v>
       </c>
       <c r="M13">
-        <v>4.058730613799526</v>
+        <v>1.486884320512971</v>
       </c>
       <c r="N13">
-        <v>6.534667528346802</v>
+        <v>2.606479442826696</v>
       </c>
       <c r="O13">
-        <v>3.834613557650187</v>
+        <v>2.501637344761377</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07146023305656968</v>
+        <v>0.1914530732060911</v>
       </c>
       <c r="D14">
-        <v>0.02083676015175939</v>
+        <v>0.01213328890761289</v>
       </c>
       <c r="E14">
-        <v>0.01614173490439796</v>
+        <v>0.1006009978603686</v>
       </c>
       <c r="F14">
-        <v>1.281405386065629</v>
+        <v>0.7699252039425346</v>
       </c>
       <c r="G14">
-        <v>1.194949340040779</v>
+        <v>0.6214153041620705</v>
       </c>
       <c r="H14">
-        <v>0.6113771310270124</v>
+        <v>0.6317605220129963</v>
       </c>
       <c r="I14">
-        <v>0.942298051722176</v>
+        <v>0.7149795017181617</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.01162243986052003</v>
+        <v>0.1109100749783813</v>
       </c>
       <c r="M14">
-        <v>3.989246794125904</v>
+        <v>1.464584239870462</v>
       </c>
       <c r="N14">
-        <v>6.431425126953684</v>
+        <v>2.572608731462992</v>
       </c>
       <c r="O14">
-        <v>3.767296291927437</v>
+        <v>2.488413981996473</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07124181173904276</v>
+        <v>0.1916188435137371</v>
       </c>
       <c r="D15">
-        <v>0.02064474936064897</v>
+        <v>0.0120681349126599</v>
       </c>
       <c r="E15">
-        <v>0.01631315548508194</v>
+        <v>0.1008093564030981</v>
       </c>
       <c r="F15">
-        <v>1.267256968276342</v>
+        <v>0.7669840203361389</v>
       </c>
       <c r="G15">
-        <v>1.181312790814189</v>
+        <v>0.6185246780029274</v>
       </c>
       <c r="H15">
-        <v>0.605587258043812</v>
+        <v>0.6308506655683175</v>
       </c>
       <c r="I15">
-        <v>0.9323075608686509</v>
+        <v>0.7131890256589628</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.01191622780651347</v>
+        <v>0.1111893935439294</v>
       </c>
       <c r="M15">
-        <v>3.946684951386473</v>
+        <v>1.450919180472368</v>
       </c>
       <c r="N15">
-        <v>6.368212369719004</v>
+        <v>2.551862086941469</v>
       </c>
       <c r="O15">
-        <v>3.726221965095078</v>
+        <v>2.480344853244333</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0700723169334907</v>
+        <v>0.1926012828528059</v>
       </c>
       <c r="D16">
-        <v>0.01954380158818836</v>
+        <v>0.01169380023691957</v>
       </c>
       <c r="E16">
-        <v>0.01735546845828306</v>
+        <v>0.1020259602322593</v>
       </c>
       <c r="F16">
-        <v>1.186912581807121</v>
+        <v>0.7502701802282559</v>
       </c>
       <c r="G16">
-        <v>1.103893666084986</v>
+        <v>0.6020804068423331</v>
       </c>
       <c r="H16">
-        <v>0.572792520994085</v>
+        <v>0.6257397585196429</v>
       </c>
       <c r="I16">
-        <v>0.8756871021084436</v>
+        <v>0.7030666831214774</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.01367838317208259</v>
+        <v>0.1128185213013695</v>
       </c>
       <c r="M16">
-        <v>3.702754167770109</v>
+        <v>1.372526240379742</v>
       </c>
       <c r="N16">
-        <v>6.006345847195973</v>
+        <v>2.432977109687215</v>
       </c>
       <c r="O16">
-        <v>3.493183152757808</v>
+        <v>2.434571844533821</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06942568069077026</v>
+        <v>0.1932329303192404</v>
       </c>
       <c r="D17">
-        <v>0.01886780579040703</v>
+        <v>0.01146330580409938</v>
       </c>
       <c r="E17">
-        <v>0.01804658642839385</v>
+        <v>0.1027924223602001</v>
       </c>
       <c r="F17">
-        <v>1.138245075224802</v>
+        <v>0.7401423487661276</v>
       </c>
       <c r="G17">
-        <v>1.057012767923567</v>
+        <v>0.5920998765530925</v>
       </c>
       <c r="H17">
-        <v>0.5530011373888897</v>
+        <v>0.6226963582382012</v>
       </c>
       <c r="I17">
-        <v>0.8414872556115682</v>
+        <v>0.6969800549021627</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.01482710872486992</v>
+        <v>0.1138432864550958</v>
       </c>
       <c r="M17">
-        <v>3.553076130353418</v>
+        <v>1.324362003563905</v>
       </c>
       <c r="N17">
-        <v>5.784669400109294</v>
+        <v>2.360053834080134</v>
       </c>
       <c r="O17">
-        <v>3.352202852773928</v>
+        <v>2.406908521690582</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06907879805770989</v>
+        <v>0.1936068666301338</v>
       </c>
       <c r="D18">
-        <v>0.01847874992655818</v>
+        <v>0.01133042128007844</v>
       </c>
       <c r="E18">
-        <v>0.01846239210187939</v>
+        <v>0.1032406481989501</v>
       </c>
       <c r="F18">
-        <v>1.110467930676819</v>
+        <v>0.7343631724881163</v>
       </c>
       <c r="G18">
-        <v>1.030260024298855</v>
+        <v>0.5863987491463973</v>
       </c>
       <c r="H18">
-        <v>0.5417316700283976</v>
+        <v>0.6209796623674038</v>
       </c>
       <c r="I18">
-        <v>0.8220022025820484</v>
+        <v>0.6935243573041845</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.01551177199694842</v>
+        <v>0.1144419987159577</v>
       </c>
       <c r="M18">
-        <v>3.466968458497107</v>
+        <v>1.29663338501274</v>
       </c>
       <c r="N18">
-        <v>5.65727489934352</v>
+        <v>2.318115028926229</v>
       </c>
       <c r="O18">
-        <v>3.271801385273534</v>
+        <v>2.391150299822783</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06896556067291471</v>
+        <v>0.1937352996383055</v>
       </c>
       <c r="D19">
-        <v>0.01834697906495464</v>
+        <v>0.011285375865004</v>
       </c>
       <c r="E19">
-        <v>0.01860625339467337</v>
+        <v>0.1033936753547025</v>
       </c>
       <c r="F19">
-        <v>1.101098801354951</v>
+        <v>0.7324143519299326</v>
       </c>
       <c r="G19">
-        <v>1.02123716206826</v>
+        <v>0.5844752049559645</v>
       </c>
       <c r="H19">
-        <v>0.5379350325871854</v>
+        <v>0.6204042204210083</v>
       </c>
       <c r="I19">
-        <v>0.8154358132367108</v>
+        <v>0.6923620688857213</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.01574761376311318</v>
+        <v>0.1146463067533756</v>
       </c>
       <c r="M19">
-        <v>3.437810615524157</v>
+        <v>1.287240601212332</v>
       </c>
       <c r="N19">
-        <v>5.614159064981209</v>
+        <v>2.303916225885018</v>
       </c>
       <c r="O19">
-        <v>3.244692944346241</v>
+        <v>2.385841090721215</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06949190247367198</v>
+        <v>0.1931645900253471</v>
       </c>
       <c r="D20">
-        <v>0.01893979119083511</v>
+        <v>0.01148787450371813</v>
       </c>
       <c r="E20">
-        <v>0.01797110690194792</v>
+        <v>0.102710067315118</v>
       </c>
       <c r="F20">
-        <v>1.143403260110233</v>
+        <v>0.7412157027543174</v>
       </c>
       <c r="G20">
-        <v>1.061981091087134</v>
+        <v>0.5931582401386066</v>
       </c>
       <c r="H20">
-        <v>0.5550960271866074</v>
+        <v>0.6230168362151005</v>
       </c>
       <c r="I20">
-        <v>0.845108420213009</v>
+        <v>0.6976233103799103</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.01470232588078924</v>
+        <v>0.1137332360435184</v>
       </c>
       <c r="M20">
-        <v>3.569011263595044</v>
+        <v>1.329491861662149</v>
       </c>
       <c r="N20">
-        <v>5.808255878425427</v>
+        <v>2.367816185155334</v>
       </c>
       <c r="O20">
-        <v>3.36713846276507</v>
+        <v>2.409837490509915</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07156646224741792</v>
+        <v>0.1913741567041498</v>
       </c>
       <c r="D21">
-        <v>0.02092882452432576</v>
+        <v>0.01216451487046655</v>
       </c>
       <c r="E21">
-        <v>0.0160606210938381</v>
+        <v>0.1005014843297811</v>
       </c>
       <c r="F21">
-        <v>1.288203423440834</v>
+        <v>0.7713380758827242</v>
       </c>
       <c r="G21">
-        <v>1.201501791255509</v>
+        <v>0.6228035771044347</v>
       </c>
       <c r="H21">
-        <v>0.6141605703958533</v>
+        <v>0.6321986473540733</v>
       </c>
       <c r="I21">
-        <v>0.9471003312380333</v>
+        <v>0.7158405298974913</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.01148298522710522</v>
+        <v>0.1107766384192068</v>
       </c>
       <c r="M21">
-        <v>4.009656057379061</v>
+        <v>1.471135489457865</v>
       </c>
       <c r="N21">
-        <v>6.461744411993607</v>
+        <v>2.582557358607119</v>
       </c>
       <c r="O21">
-        <v>3.787035527781768</v>
+        <v>2.492291633640264</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07316660375266082</v>
+        <v>0.1902988845434592</v>
       </c>
       <c r="D22">
-        <v>0.02222708348474711</v>
+        <v>0.01260391289012475</v>
       </c>
       <c r="E22">
-        <v>0.01499022004763439</v>
+        <v>0.09912406127660667</v>
       </c>
       <c r="F22">
-        <v>1.38504210230397</v>
+        <v>0.7914364655733976</v>
       </c>
       <c r="G22">
-        <v>1.294867865414716</v>
+        <v>0.6425314785346075</v>
       </c>
       <c r="H22">
-        <v>0.653913663005369</v>
+        <v>0.6385006473824149</v>
       </c>
       <c r="I22">
-        <v>1.015648675357554</v>
+        <v>0.7281502390022894</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.009612511543960256</v>
+        <v>0.1089275406857793</v>
       </c>
       <c r="M22">
-        <v>4.29758669347369</v>
+        <v>1.56345883281314</v>
       </c>
       <c r="N22">
-        <v>6.889985880941481</v>
+        <v>2.722913600717959</v>
       </c>
       <c r="O22">
-        <v>4.06848525970571</v>
+        <v>2.547547474230214</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07228915238830069</v>
+        <v>0.1908640851212553</v>
       </c>
       <c r="D23">
-        <v>0.02153430887439711</v>
+        <v>0.01236965948846347</v>
       </c>
       <c r="E23">
-        <v>0.01554443498081959</v>
+        <v>0.09985316207494233</v>
       </c>
       <c r="F23">
-        <v>1.333141236811699</v>
+        <v>0.7806718454922787</v>
       </c>
       <c r="G23">
-        <v>1.2448220906617</v>
+        <v>0.6319699327706587</v>
       </c>
       <c r="H23">
-        <v>0.6325844700579637</v>
+        <v>0.6351095819111663</v>
       </c>
       <c r="I23">
-        <v>0.9788781267319422</v>
+        <v>0.7215433057054668</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.01058842401336291</v>
+        <v>0.1099068037397135</v>
       </c>
       <c r="M23">
-        <v>4.14391290116339</v>
+        <v>1.514207822998131</v>
       </c>
       <c r="N23">
-        <v>6.661310605286189</v>
+        <v>2.648003397965795</v>
       </c>
       <c r="O23">
-        <v>3.917581486131553</v>
+        <v>2.517931046456795</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06946188634911721</v>
+        <v>0.1931954530535052</v>
       </c>
       <c r="D24">
-        <v>0.01890724789474163</v>
+        <v>0.01147676814721876</v>
       </c>
       <c r="E24">
-        <v>0.01800517382327183</v>
+        <v>0.102747276433738</v>
       </c>
       <c r="F24">
-        <v>1.141070617227271</v>
+        <v>0.740730304088558</v>
       </c>
       <c r="G24">
-        <v>1.05973429330389</v>
+        <v>0.5926796393157758</v>
       </c>
       <c r="H24">
-        <v>0.5541485898876886</v>
+        <v>0.6228718453416633</v>
       </c>
       <c r="I24">
-        <v>0.8434707432563044</v>
+        <v>0.6973323588250437</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.01475866490462829</v>
+        <v>0.1137829600564388</v>
       </c>
       <c r="M24">
-        <v>3.561807164564328</v>
+        <v>1.327172772079138</v>
       </c>
       <c r="N24">
-        <v>5.797592277099682</v>
+        <v>2.364306870239375</v>
       </c>
       <c r="O24">
-        <v>3.360384058709144</v>
+        <v>2.408512849624117</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06735898946731567</v>
+        <v>0.1961164606236636</v>
       </c>
       <c r="D25">
-        <v>0.01606412339283381</v>
+        <v>0.01050181408954742</v>
       </c>
       <c r="E25">
-        <v>0.02135109595670226</v>
+        <v>0.1061509038519226</v>
       </c>
       <c r="F25">
-        <v>0.941974352576807</v>
+        <v>0.6994078096375489</v>
       </c>
       <c r="G25">
-        <v>0.8680446176703924</v>
+        <v>0.5518040055602143</v>
       </c>
       <c r="H25">
-        <v>0.4738352547970948</v>
+        <v>0.6109629882139984</v>
       </c>
       <c r="I25">
-        <v>0.704399075000282</v>
+        <v>0.6729428611371731</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.02016224062698413</v>
+        <v>0.118319114502091</v>
       </c>
       <c r="M25">
-        <v>2.933228649393612</v>
+        <v>1.124448612931147</v>
       </c>
       <c r="N25">
-        <v>4.869967680144498</v>
+        <v>2.058493430331339</v>
       </c>
       <c r="O25">
-        <v>2.785164257791621</v>
+        <v>2.296333206437566</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1986156168920132</v>
+        <v>0.1616642655407219</v>
       </c>
       <c r="D2">
-        <v>0.009773962508827339</v>
+        <v>0.02970708391188737</v>
       </c>
       <c r="E2">
-        <v>0.1088980828063866</v>
+        <v>1.594460465120562</v>
       </c>
       <c r="F2">
-        <v>0.6704810424270136</v>
+        <v>2.584235742140578</v>
       </c>
       <c r="G2">
-        <v>0.5229827605088246</v>
+        <v>0.0007056320110262076</v>
       </c>
       <c r="H2">
-        <v>0.603300824350768</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6564558713883173</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1219626595168339</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9744115844606114</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.833614962414231</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.218712525494084</v>
+        <v>9.006164563466029</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2005261834809531</v>
+        <v>0.1386272236739217</v>
       </c>
       <c r="D3">
-        <v>0.00927455425081547</v>
+        <v>0.02511701949629241</v>
       </c>
       <c r="E3">
-        <v>0.1109095939905602</v>
+        <v>1.353986092680415</v>
       </c>
       <c r="F3">
-        <v>0.6518047603111938</v>
+        <v>2.219743332004612</v>
       </c>
       <c r="G3">
-        <v>0.5042366804421761</v>
+        <v>0.0007153513487539204</v>
       </c>
       <c r="H3">
-        <v>0.5987962019289483</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6461936379585751</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1246203754443238</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8722858148983335</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.681460195919669</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.16918886876698</v>
+        <v>7.731549174125007</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2018060871376619</v>
+        <v>0.1248020242021397</v>
       </c>
       <c r="D4">
-        <v>0.008964929135597544</v>
+        <v>0.02242287203793936</v>
       </c>
       <c r="E4">
-        <v>0.1122182846828412</v>
+        <v>1.211606285751657</v>
       </c>
       <c r="F4">
-        <v>0.6407929812252888</v>
+        <v>2.002049939305678</v>
       </c>
       <c r="G4">
-        <v>0.4931116870684775</v>
+        <v>0.0007214268425836821</v>
       </c>
       <c r="H4">
-        <v>0.5963692529084739</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6403401554757977</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1263448540712373</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8093752377217953</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.588183730154157</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.140293841562737</v>
+        <v>6.970712635479231</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2023544914193707</v>
+        <v>0.1192357591110351</v>
       </c>
       <c r="D5">
-        <v>0.008838011748757424</v>
+        <v>0.02135083120818493</v>
       </c>
       <c r="E5">
-        <v>0.1127700585966318</v>
+        <v>1.15467901402252</v>
       </c>
       <c r="F5">
-        <v>0.6364199651992521</v>
+        <v>1.914638902823356</v>
       </c>
       <c r="G5">
-        <v>0.4886747388048889</v>
+        <v>0.0007239332906721866</v>
       </c>
       <c r="H5">
-        <v>0.5954654495447045</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6380671691702418</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1270708319890672</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7836897749842819</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.550214425728313</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.128898615365614</v>
+        <v>6.665300722229176</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2024471734692099</v>
+        <v>0.1183152230020283</v>
       </c>
       <c r="D6">
-        <v>0.008816892604706084</v>
+        <v>0.02117423796287454</v>
       </c>
       <c r="E6">
-        <v>0.1128627947389775</v>
+        <v>1.145286168558954</v>
       </c>
       <c r="F6">
-        <v>0.635700732016673</v>
+        <v>1.900196598209078</v>
       </c>
       <c r="G6">
-        <v>0.487943811793258</v>
+        <v>0.0007243514301074359</v>
       </c>
       <c r="H6">
-        <v>0.5953205187908708</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6376965219742061</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1271927820663761</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7794218484602169</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.543912301261429</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.127029362730951</v>
+        <v>6.614844552026625</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.20181337449484</v>
+        <v>0.1247266976466079</v>
       </c>
       <c r="D7">
-        <v>0.008963220479348166</v>
+        <v>0.0224083160177706</v>
       </c>
       <c r="E7">
-        <v>0.1122256513592328</v>
+        <v>1.210834399438369</v>
       </c>
       <c r="F7">
-        <v>0.6407335423413798</v>
+        <v>2.000866106462155</v>
       </c>
       <c r="G7">
-        <v>0.4930514581670025</v>
+        <v>0.0007214605170753513</v>
       </c>
       <c r="H7">
-        <v>0.5963567189695169</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6403090465186239</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1263545508414041</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8090290290405022</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.587671488210901</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.14013862490313</v>
+        <v>6.966576015246801</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.199252197510873</v>
+        <v>0.1536465899730075</v>
       </c>
       <c r="D8">
-        <v>0.009602391225293161</v>
+        <v>0.02809516158027492</v>
       </c>
       <c r="E8">
-        <v>0.1095763498428033</v>
+        <v>1.510299793044837</v>
       </c>
       <c r="F8">
-        <v>0.6639468019719317</v>
+        <v>2.457140665880402</v>
       </c>
       <c r="G8">
-        <v>0.5164389942983405</v>
+        <v>0.0007089631371617366</v>
       </c>
       <c r="H8">
-        <v>0.6016772733190408</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6528244408247446</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1228597825555138</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9392427051856913</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.781124150404196</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.201322396670832</v>
+        <v>8.561615141875677</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1950783245289998</v>
+        <v>0.2135628589115299</v>
       </c>
       <c r="D9">
-        <v>0.01083179459005379</v>
+        <v>0.04052597297091154</v>
       </c>
       <c r="E9">
-        <v>0.1049668442733194</v>
+        <v>2.152047299930018</v>
       </c>
       <c r="F9">
-        <v>0.7130935386871045</v>
+        <v>3.412755547217131</v>
       </c>
       <c r="G9">
-        <v>0.5653736785633896</v>
+        <v>0.0006851240480442117</v>
       </c>
       <c r="H9">
-        <v>0.6148023790852477</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6809291478748491</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1167438203586824</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.192861315690038</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>2.161470496490892</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.333344773332698</v>
+        <v>11.90691495048611</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1925306485703331</v>
+        <v>0.2606497903193059</v>
       </c>
       <c r="D10">
-        <v>0.01172005900377471</v>
+        <v>0.05095437926039637</v>
       </c>
       <c r="E10">
-        <v>0.1019395022864904</v>
+        <v>2.679009966978015</v>
       </c>
       <c r="F10">
-        <v>0.7514320853191379</v>
+        <v>4.172877851327939</v>
       </c>
       <c r="G10">
-        <v>0.6032246018390879</v>
+        <v>0.0006677005181589798</v>
       </c>
       <c r="H10">
-        <v>0.6260916109420975</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7037673354509479</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1127028494060531</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.378018550803233</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>2.441298695674277</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.437749169629228</v>
+        <v>14.57262409772096</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.191484647808899</v>
+        <v>0.2830529930174777</v>
       </c>
       <c r="D11">
-        <v>0.01212083321892976</v>
+        <v>0.05613763538080718</v>
       </c>
       <c r="E11">
-        <v>0.1006407548837007</v>
+        <v>2.937608412518998</v>
       </c>
       <c r="F11">
-        <v>0.7693622139460246</v>
+        <v>4.537336501337876</v>
       </c>
       <c r="G11">
-        <v>0.6208620600553729</v>
+        <v>0.0006597017081035344</v>
       </c>
       <c r="H11">
-        <v>0.6315861304911436</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7146365727812878</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1109633789319728</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.461971393641804</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>2.568641326600527</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.486869105245944</v>
+        <v>15.8523493020632</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1911048252000853</v>
+        <v>0.2917114397853311</v>
       </c>
       <c r="D12">
-        <v>0.01227211368609815</v>
+        <v>0.05818144211191623</v>
       </c>
       <c r="E12">
-        <v>0.100160269166409</v>
+        <v>3.039024236026009</v>
       </c>
       <c r="F12">
-        <v>0.7762225780744529</v>
+        <v>4.678687010994764</v>
       </c>
       <c r="G12">
-        <v>0.627601514093783</v>
+        <v>0.0006566522800496568</v>
       </c>
       <c r="H12">
-        <v>0.6337184496340171</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7188217604641238</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1103189497271835</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.49372002156278</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>2.616865377633587</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.505704278029555</v>
+        <v>16.34896204793529</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1911859024253388</v>
+        <v>0.2898382969725475</v>
       </c>
       <c r="D13">
-        <v>0.01223955440562463</v>
+        <v>0.05773732896557959</v>
       </c>
       <c r="E13">
-        <v>0.1002632460754231</v>
+        <v>3.017012496312674</v>
       </c>
       <c r="F13">
-        <v>0.7747419323290359</v>
+        <v>4.648084086796075</v>
       </c>
       <c r="G13">
-        <v>0.6261473552242478</v>
+        <v>0.0006573101249312002</v>
       </c>
       <c r="H13">
-        <v>0.6332569181310532</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7179173223705106</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1104571033652508</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.486884320512971</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2.606479442826696</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.501637344761377</v>
+        <v>16.24142962317217</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1914530732060911</v>
+        <v>0.2837616057529715</v>
       </c>
       <c r="D14">
-        <v>0.01213328890761289</v>
+        <v>0.05630403645311333</v>
       </c>
       <c r="E14">
-        <v>0.1006009978603686</v>
+        <v>2.945876757517482</v>
       </c>
       <c r="F14">
-        <v>0.7699252039425346</v>
+        <v>4.54889429309452</v>
       </c>
       <c r="G14">
-        <v>0.6214153041620705</v>
+        <v>0.0006594513059846684</v>
       </c>
       <c r="H14">
-        <v>0.6317605220129963</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7149795017181617</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1109100749783813</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.464584239870462</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>2.572608731462992</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.488413981996473</v>
+        <v>15.89294966281477</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1916188435137371</v>
+        <v>0.2800633479051555</v>
       </c>
       <c r="D15">
-        <v>0.0120681349126599</v>
+        <v>0.05543726995900755</v>
       </c>
       <c r="E15">
-        <v>0.1008093564030981</v>
+        <v>2.902785404030936</v>
       </c>
       <c r="F15">
-        <v>0.7669840203361389</v>
+        <v>4.488594414523334</v>
       </c>
       <c r="G15">
-        <v>0.6185246780029274</v>
+        <v>0.0006607598386668174</v>
       </c>
       <c r="H15">
-        <v>0.6308506655683175</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7131890256589628</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1111893935439294</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.450919180472368</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2.551862086941469</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.480344853244333</v>
+        <v>15.68113938190857</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1926012828528059</v>
+        <v>0.2592081678897955</v>
       </c>
       <c r="D16">
-        <v>0.01169380023691957</v>
+        <v>0.05062589802938788</v>
       </c>
       <c r="E16">
-        <v>0.1020259602322593</v>
+        <v>2.662551304775235</v>
       </c>
       <c r="F16">
-        <v>0.7502701802282559</v>
+        <v>4.149487771741576</v>
       </c>
       <c r="G16">
-        <v>0.6020804068423331</v>
+        <v>0.0006682209953526401</v>
       </c>
       <c r="H16">
-        <v>0.6257397585196429</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7030666831214774</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1128185213013695</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.372526240379742</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>2.432977109687215</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.434571844533821</v>
+        <v>14.49053034799169</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1932329303192404</v>
+        <v>0.2466876018931572</v>
       </c>
       <c r="D17">
-        <v>0.01146330580409938</v>
+        <v>0.04779804100943608</v>
       </c>
       <c r="E17">
-        <v>0.1027924223602001</v>
+        <v>2.520498353027705</v>
       </c>
       <c r="F17">
-        <v>0.7401423487661276</v>
+        <v>3.946658509122784</v>
       </c>
       <c r="G17">
-        <v>0.5920998765530925</v>
+        <v>0.0006727731539128084</v>
       </c>
       <c r="H17">
-        <v>0.6226963582382012</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6969800549021627</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1138432864550958</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.324362003563905</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>2.360053834080134</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.406908521690582</v>
+        <v>13.77882514874392</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1936068666301338</v>
+        <v>0.2395762660518699</v>
       </c>
       <c r="D18">
-        <v>0.01133042128007844</v>
+        <v>0.04621157644542251</v>
       </c>
       <c r="E18">
-        <v>0.1032406481989501</v>
+        <v>2.440513456730159</v>
       </c>
       <c r="F18">
-        <v>0.7343631724881163</v>
+        <v>3.831707600234324</v>
       </c>
       <c r="G18">
-        <v>0.5863987491463973</v>
+        <v>0.000675385304666911</v>
       </c>
       <c r="H18">
-        <v>0.6209796623674038</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6935243573041845</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1144419987159577</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.29663338501274</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>2.318115028926229</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.391150299822783</v>
+        <v>13.37561585716662</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1937352996383055</v>
+        <v>0.2371830704592099</v>
       </c>
       <c r="D19">
-        <v>0.011285375865004</v>
+        <v>0.04568083651061272</v>
       </c>
       <c r="E19">
-        <v>0.1033936753547025</v>
+        <v>2.413707132467195</v>
       </c>
       <c r="F19">
-        <v>0.7324143519299326</v>
+        <v>3.793063586992673</v>
       </c>
       <c r="G19">
-        <v>0.5844752049559645</v>
+        <v>0.0006762689477814607</v>
       </c>
       <c r="H19">
-        <v>0.6204042204210083</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6923620688857213</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1146463067533756</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.287240601212332</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>2.303916225885018</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.385841090721215</v>
+        <v>13.24008820376787</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1931645900253471</v>
+        <v>0.2480108866010937</v>
       </c>
       <c r="D20">
-        <v>0.01148787450371813</v>
+        <v>0.0480948128069727</v>
       </c>
       <c r="E20">
-        <v>0.102710067315118</v>
+        <v>2.535437158998022</v>
       </c>
       <c r="F20">
-        <v>0.7412157027543174</v>
+        <v>3.968068688079285</v>
       </c>
       <c r="G20">
-        <v>0.5931582401386066</v>
+        <v>0.0006722892681165145</v>
       </c>
       <c r="H20">
-        <v>0.6230168362151005</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6976233103799103</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1137332360435184</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.329491861662149</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2.367816185155334</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.409837490509915</v>
+        <v>13.85393606172352</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1913741567041498</v>
+        <v>0.2855414275942962</v>
       </c>
       <c r="D21">
-        <v>0.01216451487046655</v>
+        <v>0.05672266280645744</v>
       </c>
       <c r="E21">
-        <v>0.1005014843297811</v>
+        <v>2.966669022329398</v>
       </c>
       <c r="F21">
-        <v>0.7713380758827242</v>
+        <v>4.577932161166302</v>
       </c>
       <c r="G21">
-        <v>0.6228035771044347</v>
+        <v>0.0006588230363782328</v>
       </c>
       <c r="H21">
-        <v>0.6321986473540733</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7158405298974913</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1107766384192068</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.471135489457865</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>2.582557358607119</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.492291633640264</v>
+        <v>15.99495905502511</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1902988845434592</v>
+        <v>0.3111104170652936</v>
       </c>
       <c r="D22">
-        <v>0.01260391289012475</v>
+        <v>0.06284604745621181</v>
       </c>
       <c r="E22">
-        <v>0.09912406127660667</v>
+        <v>3.269388245659599</v>
       </c>
       <c r="F22">
-        <v>0.7914364655733976</v>
+        <v>4.996397152421054</v>
       </c>
       <c r="G22">
-        <v>0.6425314785346075</v>
+        <v>0.0006498962312214631</v>
       </c>
       <c r="H22">
-        <v>0.6385006473824149</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7281502390022894</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1089275406857793</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.56345883281314</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>2.722913600717959</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.547547474230214</v>
+        <v>17.46579069682002</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1908640851212553</v>
+        <v>0.2973553820374946</v>
       </c>
       <c r="D23">
-        <v>0.01236965948846347</v>
+        <v>0.05952622007095698</v>
       </c>
       <c r="E23">
-        <v>0.09985316207494233</v>
+        <v>3.105590736284128</v>
       </c>
       <c r="F23">
-        <v>0.7806718454922787</v>
+        <v>4.770975434374208</v>
       </c>
       <c r="G23">
-        <v>0.6319699327706587</v>
+        <v>0.0006546761533552429</v>
       </c>
       <c r="H23">
-        <v>0.6351095819111663</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7215433057054668</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1099068037397135</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.514207822998131</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2.648003397965795</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.517931046456795</v>
+        <v>16.67329150582918</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1931954530535052</v>
+        <v>0.2474123613198032</v>
       </c>
       <c r="D24">
-        <v>0.01147676814721876</v>
+        <v>0.04796052111654348</v>
       </c>
       <c r="E24">
-        <v>0.102747276433738</v>
+        <v>2.528678137221519</v>
       </c>
       <c r="F24">
-        <v>0.740730304088558</v>
+        <v>3.958384027894084</v>
       </c>
       <c r="G24">
-        <v>0.5926796393157758</v>
+        <v>0.0006725080476605383</v>
       </c>
       <c r="H24">
-        <v>0.6228718453416633</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6973323588250437</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1137829600564388</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.327172772079138</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>2.364306870239375</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.408512849624117</v>
+        <v>13.81996002576705</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1961164606236636</v>
+        <v>0.1969074346646664</v>
       </c>
       <c r="D25">
-        <v>0.01050181408954742</v>
+        <v>0.03697971028739744</v>
       </c>
       <c r="E25">
-        <v>0.1061509038519226</v>
+        <v>1.970599357784891</v>
       </c>
       <c r="F25">
-        <v>0.6994078096375489</v>
+        <v>3.145790019094392</v>
       </c>
       <c r="G25">
-        <v>0.5518040055602143</v>
+        <v>0.000691530733714097</v>
       </c>
       <c r="H25">
-        <v>0.6109629882139984</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6729428611371731</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.118319114502091</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1.124448612931147</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>2.058493430331339</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.296333206437566</v>
+        <v>10.97170081795036</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,25 +430,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1616642655407219</v>
+        <v>0.2062132122301676</v>
       </c>
       <c r="D2">
-        <v>0.02970708391188737</v>
+        <v>0.03452013301317436</v>
       </c>
       <c r="E2">
-        <v>1.594460465120562</v>
+        <v>1.495232667404423</v>
       </c>
       <c r="F2">
-        <v>2.584235742140578</v>
+        <v>2.465111766229057</v>
       </c>
       <c r="G2">
-        <v>0.0007056320110262076</v>
+        <v>0.0007587804190388319</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02803522330153196</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.07122987443985451</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,10 +466,16 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.006164563466029</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>8.625723999843501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,25 +483,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1386272236739217</v>
+        <v>0.1825782504875662</v>
       </c>
       <c r="D3">
-        <v>0.02511701949629241</v>
+        <v>0.03073011378493007</v>
       </c>
       <c r="E3">
-        <v>1.353986092680415</v>
+        <v>1.301123653223385</v>
       </c>
       <c r="F3">
-        <v>2.219743332004612</v>
+        <v>2.158698407357988</v>
       </c>
       <c r="G3">
-        <v>0.0007153513487539204</v>
+        <v>0.0007644417140412196</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02137244059301224</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.05693383576570188</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,10 +519,16 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.731549174125007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>7.559733382084062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1248020242021397</v>
+        <v>0.1678781834747554</v>
       </c>
       <c r="D4">
-        <v>0.02242287203793936</v>
+        <v>0.02836975144844445</v>
       </c>
       <c r="E4">
-        <v>1.211606285751657</v>
+        <v>1.182777697230961</v>
       </c>
       <c r="F4">
-        <v>2.002049939305678</v>
+        <v>1.971577367073891</v>
       </c>
       <c r="G4">
-        <v>0.0007214268425836821</v>
+        <v>0.000768021576340372</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01762511221425189</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.04874716355061981</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,10 +572,16 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>6.970712635479231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>6.908178629627344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,25 +589,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1192357591110351</v>
+        <v>0.1611424204649978</v>
       </c>
       <c r="D5">
-        <v>0.02135083120818493</v>
+        <v>0.027322513805494</v>
       </c>
       <c r="E5">
-        <v>1.15467901402252</v>
+        <v>1.134645169277292</v>
       </c>
       <c r="F5">
-        <v>1.914638902823356</v>
+        <v>1.893663126126341</v>
       </c>
       <c r="G5">
-        <v>0.0007239332906721866</v>
+        <v>0.0007695229078780106</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01616769533383411</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.04553924124969333</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,10 +625,16 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.665300722229176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>6.636050624870506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,25 +642,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1183152230020283</v>
+        <v>0.1591737534329098</v>
       </c>
       <c r="D6">
-        <v>0.02117423796287454</v>
+        <v>0.02705438348821687</v>
       </c>
       <c r="E6">
-        <v>1.145286168558954</v>
+        <v>1.126572835850496</v>
       </c>
       <c r="F6">
-        <v>1.900196598209078</v>
+        <v>1.87846196071628</v>
       </c>
       <c r="G6">
-        <v>0.0007243514301074359</v>
+        <v>0.0007697929358507325</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01592042019512108</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.04501749222994089</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,10 +678,16 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.614844552026625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>6.582127798215652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,25 +695,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1247266976466079</v>
+        <v>0.165458509939171</v>
       </c>
       <c r="D7">
-        <v>0.0224083160177706</v>
+        <v>0.02809832874866913</v>
       </c>
       <c r="E7">
-        <v>1.210834399438369</v>
+        <v>1.181879590412478</v>
       </c>
       <c r="F7">
-        <v>2.000866106462155</v>
+        <v>1.964284057775515</v>
       </c>
       <c r="G7">
-        <v>0.0007214605170753513</v>
+        <v>0.000768093502567734</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01757715677234839</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.04869291834943024</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,10 +731,16 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6.966576015246801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>6.880450964701936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,25 +748,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1536465899730075</v>
+        <v>0.194965336559946</v>
       </c>
       <c r="D8">
-        <v>0.02809516158027492</v>
+        <v>0.0328743248267287</v>
       </c>
       <c r="E8">
-        <v>1.510299793044837</v>
+        <v>1.427746137677929</v>
       </c>
       <c r="F8">
-        <v>2.457140665880402</v>
+        <v>2.350814355404452</v>
       </c>
       <c r="G8">
-        <v>0.0007089631371617366</v>
+        <v>0.0007607784515223119</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.02561700676978385</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0661030887141445</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,10 +784,16 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.561615141875677</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>8.225074577546081</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,25 +801,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2135628589115299</v>
+        <v>0.2557785134384574</v>
       </c>
       <c r="D9">
-        <v>0.04052597297091154</v>
+        <v>0.04246010601113426</v>
       </c>
       <c r="E9">
-        <v>2.152047299930018</v>
+        <v>1.919160950455648</v>
       </c>
       <c r="F9">
-        <v>3.412755547217131</v>
+        <v>3.131183301424244</v>
       </c>
       <c r="G9">
-        <v>0.0006851240480442117</v>
+        <v>0.0007471296242900018</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.04459914136076826</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1058863026861863</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,10 +837,16 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.90691495048611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>10.93917120733789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,25 +854,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2606497903193059</v>
+        <v>0.2980539440814312</v>
       </c>
       <c r="D10">
-        <v>0.05095437926039637</v>
+        <v>0.04793985769025255</v>
       </c>
       <c r="E10">
-        <v>2.679009966978015</v>
+        <v>2.180003320580923</v>
       </c>
       <c r="F10">
-        <v>4.172877851327939</v>
+        <v>3.679110950414156</v>
       </c>
       <c r="G10">
-        <v>0.0006677005181589798</v>
+        <v>0.0007378740379154656</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.05969667129688094</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.138558052099004</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,10 +890,16 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.57262409772096</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.82826607980957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,25 +907,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2830529930174777</v>
+        <v>0.3076151637307305</v>
       </c>
       <c r="D11">
-        <v>0.05613763538080718</v>
+        <v>0.03941282183964745</v>
       </c>
       <c r="E11">
-        <v>2.937608412518998</v>
+        <v>1.458506077811492</v>
       </c>
       <c r="F11">
-        <v>4.537336501337876</v>
+        <v>3.632020587140062</v>
       </c>
       <c r="G11">
-        <v>0.0006597017081035344</v>
+        <v>0.000736487558335665</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.07346859366028369</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1447385136987958</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,10 +943,16 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.8523493020632</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.55067582091397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,25 +960,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2917114397853311</v>
+        <v>0.3112181964743286</v>
       </c>
       <c r="D12">
-        <v>0.05818144211191623</v>
+        <v>0.03237318057765393</v>
       </c>
       <c r="E12">
-        <v>3.039024236026009</v>
+        <v>0.9321154897466499</v>
       </c>
       <c r="F12">
-        <v>4.678687010994764</v>
+        <v>3.486940279146296</v>
       </c>
       <c r="G12">
-        <v>0.0006566522800496568</v>
+        <v>0.000736951370893036</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1071589415353174</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1434903718917848</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,10 +996,16 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.34896204793529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.96096212953569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,25 +1013,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2898382969725475</v>
+        <v>0.3066640607967344</v>
       </c>
       <c r="D13">
-        <v>0.05773732896557959</v>
+        <v>0.02570599905104487</v>
       </c>
       <c r="E13">
-        <v>3.017012496312674</v>
+        <v>0.5263433127709547</v>
       </c>
       <c r="F13">
-        <v>4.648084086796075</v>
+        <v>3.249504323903579</v>
       </c>
       <c r="G13">
-        <v>0.0006573101249312002</v>
+        <v>0.0007389244745406378</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1573664906652539</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1364432867728249</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,10 +1049,16 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.24142962317217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.0644344930916</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,25 +1066,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2837616057529715</v>
+        <v>0.2991676459865857</v>
       </c>
       <c r="D14">
-        <v>0.05630403645311333</v>
+        <v>0.02131805361349493</v>
       </c>
       <c r="E14">
-        <v>2.945876757517482</v>
+        <v>0.3164528817313297</v>
       </c>
       <c r="F14">
-        <v>4.54889429309452</v>
+        <v>3.042074817997502</v>
       </c>
       <c r="G14">
-        <v>0.0006594513059846684</v>
+        <v>0.0007409679880122742</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2028147415036585</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1291867130974191</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,10 +1102,16 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.89294966281477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.30041316872598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,25 +1119,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2800633479051555</v>
+        <v>0.2945543788243015</v>
       </c>
       <c r="D15">
-        <v>0.05543726995900755</v>
+        <v>0.02017281835578544</v>
       </c>
       <c r="E15">
-        <v>2.902785404030936</v>
+        <v>0.2739382330171658</v>
       </c>
       <c r="F15">
-        <v>4.488594414523334</v>
+        <v>2.970077445361255</v>
       </c>
       <c r="G15">
-        <v>0.0006607598386668174</v>
+        <v>0.0007418333977551317</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2139811819924518</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1261702881499103</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,10 +1155,16 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.68113938190857</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.04170610277822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,25 +1172,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2592081678897955</v>
+        <v>0.2761279780223589</v>
       </c>
       <c r="D16">
-        <v>0.05062589802938788</v>
+        <v>0.01935092930526139</v>
       </c>
       <c r="E16">
-        <v>2.662551304775235</v>
+        <v>0.2635724612734762</v>
       </c>
       <c r="F16">
-        <v>4.149487771741576</v>
+        <v>2.786650979598932</v>
       </c>
       <c r="G16">
-        <v>0.0006682209953526401</v>
+        <v>0.0007453331103943323</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.196464873784322</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1139313015565238</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,10 +1208,16 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.49053034799169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>9.427754723502915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,25 +1225,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2466876018931572</v>
+        <v>0.2658149304771626</v>
       </c>
       <c r="D17">
-        <v>0.04779804100943608</v>
+        <v>0.02090291503434472</v>
       </c>
       <c r="E17">
-        <v>2.520498353027705</v>
+        <v>0.3522839429266824</v>
       </c>
       <c r="F17">
-        <v>3.946658509122784</v>
+        <v>2.754578388604102</v>
       </c>
       <c r="G17">
-        <v>0.0006727731539128084</v>
+        <v>0.0007469685434605837</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1569452484738036</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.108314138216846</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,10 +1261,16 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.77882514874392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>9.356076777291037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,25 +1278,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2395762660518699</v>
+        <v>0.2635573844842867</v>
       </c>
       <c r="D18">
-        <v>0.04621157644542251</v>
+        <v>0.02526202001759259</v>
       </c>
       <c r="E18">
-        <v>2.440513456730159</v>
+        <v>0.6015939595596933</v>
       </c>
       <c r="F18">
-        <v>3.831707600234324</v>
+        <v>2.854513301702525</v>
       </c>
       <c r="G18">
-        <v>0.000675385304666911</v>
+        <v>0.00074702237257462</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.105485832718621</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1077179054796789</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,10 +1314,16 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.37561585716662</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>9.765487463008355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,25 +1331,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2371830704592099</v>
+        <v>0.2637408024227881</v>
       </c>
       <c r="D19">
-        <v>0.04568083651061272</v>
+        <v>0.03195389919016023</v>
       </c>
       <c r="E19">
-        <v>2.413707132467195</v>
+        <v>1.063419647291042</v>
       </c>
       <c r="F19">
-        <v>3.793063586992673</v>
+        <v>3.045632383066703</v>
       </c>
       <c r="G19">
-        <v>0.0006762689477814607</v>
+        <v>0.0007457094319803367</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.06523954185914249</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1117226668372275</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,10 +1367,16 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.24008820376787</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10.50496887608301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,25 +1384,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2480108866010937</v>
+        <v>0.2793407580425367</v>
       </c>
       <c r="D20">
-        <v>0.0480948128069727</v>
+        <v>0.04562799013000074</v>
       </c>
       <c r="E20">
-        <v>2.535437158998022</v>
+        <v>2.105479798230888</v>
       </c>
       <c r="F20">
-        <v>3.968068688079285</v>
+        <v>3.512468536267107</v>
       </c>
       <c r="G20">
-        <v>0.0006722892681165145</v>
+        <v>0.0007404437960557399</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.05532613631724548</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1293625464831027</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,10 +1420,16 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.85393606172352</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.24524227118297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,25 +1437,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2855414275942962</v>
+        <v>0.3142969304566066</v>
       </c>
       <c r="D21">
-        <v>0.05672266280645744</v>
+        <v>0.05196693224527849</v>
       </c>
       <c r="E21">
-        <v>2.966669022329398</v>
+        <v>2.477224327028608</v>
       </c>
       <c r="F21">
-        <v>4.577932161166302</v>
+        <v>3.993254688132936</v>
       </c>
       <c r="G21">
-        <v>0.0006588230363782328</v>
+        <v>0.0007329192563010345</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.07008815346526021</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.158039388381062</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,10 +1473,16 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.99495905502511</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.92351275219653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,25 +1490,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3111104170652936</v>
+        <v>0.3400297655444717</v>
       </c>
       <c r="D22">
-        <v>0.06284604745621181</v>
+        <v>0.05579569802971207</v>
       </c>
       <c r="E22">
-        <v>3.269388245659599</v>
+        <v>2.668247709860722</v>
       </c>
       <c r="F22">
-        <v>4.996397152421054</v>
+        <v>4.303050692851912</v>
       </c>
       <c r="G22">
-        <v>0.0006498962312214631</v>
+        <v>0.0007281613522351904</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.07980333804283823</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1776531822115759</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,10 +1526,16 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.46579069682002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15.00137203242127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,25 +1543,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2973553820374946</v>
+        <v>0.3292055944723273</v>
       </c>
       <c r="D23">
-        <v>0.05952622007095698</v>
+        <v>0.05407481942569348</v>
       </c>
       <c r="E23">
-        <v>3.105590736284128</v>
+        <v>2.566455741422971</v>
       </c>
       <c r="F23">
-        <v>4.770975434374208</v>
+        <v>4.145268541673744</v>
       </c>
       <c r="G23">
-        <v>0.0006546761533552429</v>
+        <v>0.0007306388170778441</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.07461524531951014</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1671655414525537</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,10 +1579,16 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.67329150582918</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14.45538754922916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,25 +1596,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2474123613198032</v>
+        <v>0.2837080296176708</v>
       </c>
       <c r="D24">
-        <v>0.04796052111654348</v>
+        <v>0.04702718752439949</v>
       </c>
       <c r="E24">
-        <v>2.528678137221519</v>
+        <v>2.18577175694486</v>
       </c>
       <c r="F24">
-        <v>3.958384027894084</v>
+        <v>3.54277419665965</v>
       </c>
       <c r="G24">
-        <v>0.0006725080476605383</v>
+        <v>0.0007402221874129224</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.05627264951743793</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1298794379051182</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,10 +1632,16 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.81996002576705</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.36438140078747</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,25 +1649,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1969074346646664</v>
+        <v>0.2350880966656774</v>
       </c>
       <c r="D25">
-        <v>0.03697971028739744</v>
+        <v>0.03941135941203555</v>
       </c>
       <c r="E25">
-        <v>1.970599357784891</v>
+        <v>1.784415503561462</v>
       </c>
       <c r="F25">
-        <v>3.145790019094392</v>
+        <v>2.906734149520304</v>
       </c>
       <c r="G25">
-        <v>0.000691530733714097</v>
+        <v>0.0007508329451554903</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.03898882851764895</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.09429756404644607</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.97170081795036</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>10.15473619962268</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
@@ -430,49 +430,49 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2062132122301676</v>
+        <v>0.1761506082615512</v>
       </c>
       <c r="D2">
-        <v>0.03452013301317436</v>
+        <v>0.1268346154530633</v>
       </c>
       <c r="E2">
-        <v>1.495232667404423</v>
+        <v>0.07048169967763052</v>
       </c>
       <c r="F2">
-        <v>2.465111766229057</v>
+        <v>0.5740058685532077</v>
       </c>
       <c r="G2">
-        <v>0.0007587804190388319</v>
+        <v>0.3268287240050256</v>
       </c>
       <c r="H2">
-        <v>0.02803522330153196</v>
+        <v>0.004589641020493307</v>
       </c>
       <c r="I2">
-        <v>0.07122987443985451</v>
+        <v>0.001775811443172515</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3145215964311205</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4139495109859084</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.07220895044590492</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.613547537373279</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.06300519963916074</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.7608290942101377</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>8.625723999843501</v>
+        <v>1.298249188831477</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -483,49 +483,49 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1825782504875662</v>
+        <v>0.1608046192830699</v>
       </c>
       <c r="D3">
-        <v>0.03073011378493007</v>
+        <v>0.1148222900416727</v>
       </c>
       <c r="E3">
-        <v>1.301123653223385</v>
+        <v>0.06671341553401255</v>
       </c>
       <c r="F3">
-        <v>2.158698407357988</v>
+        <v>0.5682583229242653</v>
       </c>
       <c r="G3">
-        <v>0.0007644417140412196</v>
+        <v>0.3274428659719746</v>
       </c>
       <c r="H3">
-        <v>0.02137244059301224</v>
+        <v>0.006447813733980956</v>
       </c>
       <c r="I3">
-        <v>0.05693383576570188</v>
+        <v>0.002903187682584019</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3198437371854865</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4102083265985996</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.07024751726602574</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>3.152050734265856</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.06179190156283987</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.664324140244787</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7.559733382084062</v>
+        <v>1.310387619180347</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -536,49 +536,49 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1678781834747554</v>
+        <v>0.1511980678870799</v>
       </c>
       <c r="D4">
-        <v>0.02836975144844445</v>
+        <v>0.1074718033042714</v>
       </c>
       <c r="E4">
-        <v>1.182777697230961</v>
+        <v>0.06438486282169009</v>
       </c>
       <c r="F4">
-        <v>1.971577367073891</v>
+        <v>0.5653418377812258</v>
       </c>
       <c r="G4">
-        <v>0.000768021576340372</v>
+        <v>0.3283317404084514</v>
       </c>
       <c r="H4">
-        <v>0.01762511221425189</v>
+        <v>0.007794182820695245</v>
       </c>
       <c r="I4">
-        <v>0.04874716355061981</v>
+        <v>0.003835536555272689</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3234495770701002</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4082196837830914</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.06900516151344327</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.868114377566627</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.06107628842183388</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.6049358357631363</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6.908178629627344</v>
+        <v>1.319625642344107</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -589,49 +589,49 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1611424204649978</v>
+        <v>0.1468401606756942</v>
       </c>
       <c r="D5">
-        <v>0.027322513805494</v>
+        <v>0.1045056928106618</v>
       </c>
       <c r="E5">
-        <v>1.134645169277292</v>
+        <v>0.06340221589366202</v>
       </c>
       <c r="F5">
-        <v>1.893663126126341</v>
+        <v>0.5639037068775608</v>
       </c>
       <c r="G5">
-        <v>0.0007695229078780106</v>
+        <v>0.3285031318127949</v>
       </c>
       <c r="H5">
-        <v>0.01616769533383411</v>
+        <v>0.008396498016538884</v>
       </c>
       <c r="I5">
-        <v>0.04553924124969333</v>
+        <v>0.004350900158740512</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3248372703869435</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4070695918808269</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.06845207631725714</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.75230022196294</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.06084045041066766</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.5806177612763435</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6.636050624870506</v>
+        <v>1.322812222125066</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -642,49 +642,49 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1591737534329098</v>
+        <v>0.1456289210484556</v>
       </c>
       <c r="D6">
-        <v>0.02705438348821687</v>
+        <v>0.1040423122253529</v>
       </c>
       <c r="E6">
-        <v>1.126572835850496</v>
+        <v>0.0632023191103368</v>
       </c>
       <c r="F6">
-        <v>1.87846196071628</v>
+        <v>0.5631867467759619</v>
       </c>
       <c r="G6">
-        <v>0.0007697929358507325</v>
+        <v>0.328154841238586</v>
       </c>
       <c r="H6">
-        <v>0.01592042019512108</v>
+        <v>0.008504420425967038</v>
       </c>
       <c r="I6">
-        <v>0.04501749222994089</v>
+        <v>0.004541847107093488</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.324871665052008</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4063765562991151</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.06831436537052582</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.733120298381266</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.06086161485107944</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.5764790288710984</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6.582127798215652</v>
+        <v>1.32213162913672</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -695,49 +695,49 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.165458509939171</v>
+        <v>0.149810477870389</v>
       </c>
       <c r="D7">
-        <v>0.02809832874866913</v>
+        <v>0.1075105714868698</v>
       </c>
       <c r="E7">
-        <v>1.181879590412478</v>
+        <v>0.06427205532095925</v>
       </c>
       <c r="F7">
-        <v>1.964284057775515</v>
+        <v>0.5639933178905068</v>
       </c>
       <c r="G7">
-        <v>0.000768093502567734</v>
+        <v>0.3272857622753094</v>
       </c>
       <c r="H7">
-        <v>0.01757715677234839</v>
+        <v>0.007814815017396642</v>
       </c>
       <c r="I7">
-        <v>0.04869291834943024</v>
+        <v>0.004104007055195424</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3229206799579458</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4068207578103511</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.06887443176065133</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.866718708550707</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.06123656920539844</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.6043378728594462</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6.880450964701936</v>
+        <v>1.31629850396159</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -748,49 +748,49 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.194965336559946</v>
+        <v>0.1691254538595217</v>
       </c>
       <c r="D8">
-        <v>0.0328743248267287</v>
+        <v>0.1227919764188528</v>
       </c>
       <c r="E8">
-        <v>1.427746137677929</v>
+        <v>0.06905398023801723</v>
       </c>
       <c r="F8">
-        <v>2.350814355404452</v>
+        <v>0.5701437669384575</v>
       </c>
       <c r="G8">
-        <v>0.0007607784515223119</v>
+        <v>0.3255515269102958</v>
       </c>
       <c r="H8">
-        <v>0.02561700676978385</v>
+        <v>0.005199399363070623</v>
       </c>
       <c r="I8">
-        <v>0.0661030887141445</v>
+        <v>0.002424497418529903</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3155684835886206</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.410768226464775</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.071379148065569</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3.45475143224229</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.06279764478908589</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.7272172329782691</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8.225074577546081</v>
+        <v>1.29762793493876</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -801,49 +801,49 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2557785134384574</v>
+        <v>0.2079334784701814</v>
       </c>
       <c r="D9">
-        <v>0.04246010601113426</v>
+        <v>0.1528448537274016</v>
       </c>
       <c r="E9">
-        <v>1.919160950455648</v>
+        <v>0.07850046408047895</v>
       </c>
       <c r="F9">
-        <v>3.131183301424244</v>
+        <v>0.5896777965055833</v>
       </c>
       <c r="G9">
-        <v>0.0007471296242900018</v>
+        <v>0.3283181163500615</v>
       </c>
       <c r="H9">
-        <v>0.04459914136076826</v>
+        <v>0.00178186685483106</v>
       </c>
       <c r="I9">
-        <v>0.1058863026861863</v>
+        <v>0.000756306259975581</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3049040052289627</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4235498999141498</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.07621382892920359</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.603713962452673</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.06581401878959525</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.9677639046643307</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10.93917120733789</v>
+        <v>1.281888831432312</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -854,49 +854,49 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2980539440814312</v>
+        <v>0.2321990906246185</v>
       </c>
       <c r="D10">
-        <v>0.04793985769025255</v>
+        <v>0.1730217677401811</v>
       </c>
       <c r="E10">
-        <v>2.180003320580923</v>
+        <v>0.08313397091927044</v>
       </c>
       <c r="F10">
-        <v>3.679110950414156</v>
+        <v>0.5991795745904156</v>
       </c>
       <c r="G10">
-        <v>0.0007378740379154656</v>
+        <v>0.3279027961958647</v>
       </c>
       <c r="H10">
-        <v>0.05969667129688094</v>
+        <v>0.0006973931224911745</v>
       </c>
       <c r="I10">
-        <v>0.138558052099004</v>
+        <v>0.001036749422104855</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2961430778034284</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4287107017000125</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.07789701596721699</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.452339627661104</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.06602476444119176</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.137116204878339</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.82826607980957</v>
+        <v>1.263157175239343</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -907,49 +907,49 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3076151637307305</v>
+        <v>0.2182204002046433</v>
       </c>
       <c r="D11">
-        <v>0.03941282183964745</v>
+        <v>0.1640780254206504</v>
       </c>
       <c r="E11">
-        <v>1.458506077811492</v>
+        <v>0.06789406370550743</v>
       </c>
       <c r="F11">
-        <v>3.632020587140062</v>
+        <v>0.5376748299076226</v>
       </c>
       <c r="G11">
-        <v>0.000736487558335665</v>
+        <v>0.2858775290752149</v>
       </c>
       <c r="H11">
-        <v>0.07346859366028369</v>
+        <v>0.01920770018810103</v>
       </c>
       <c r="I11">
-        <v>0.1447385136987958</v>
+        <v>0.001755313444761875</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2707119222500722</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3848758497964084</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.0689764502355783</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.889170694514291</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.05148718418234743</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.153012159181202</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.55067582091397</v>
+        <v>1.121004627365693</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -960,49 +960,49 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3112181964743286</v>
+        <v>0.2039142216606677</v>
       </c>
       <c r="D12">
-        <v>0.03237318057765393</v>
+        <v>0.1523150329714582</v>
       </c>
       <c r="E12">
-        <v>0.9321154897466499</v>
+        <v>0.05679056737659138</v>
       </c>
       <c r="F12">
-        <v>3.486940279146296</v>
+        <v>0.4878588639256378</v>
       </c>
       <c r="G12">
-        <v>0.000736951370893036</v>
+        <v>0.2538096484174233</v>
       </c>
       <c r="H12">
-        <v>0.1071589415353174</v>
+        <v>0.05791744338620219</v>
       </c>
       <c r="I12">
-        <v>0.1434903718917848</v>
+        <v>0.001805180006847706</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2526115799803037</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3505125621173732</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06755880422554483</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.080341743885185</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.04551496369883523</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.130232622081735</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.96096212953569</v>
+        <v>1.015183145201206</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1013,49 +1013,49 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3066640607967344</v>
+        <v>0.1865280647793668</v>
       </c>
       <c r="D13">
-        <v>0.02570599905104487</v>
+        <v>0.1378951843327201</v>
       </c>
       <c r="E13">
-        <v>0.5263433127709547</v>
+        <v>0.04808625455976578</v>
       </c>
       <c r="F13">
-        <v>3.249504323903579</v>
+        <v>0.4419339673961602</v>
       </c>
       <c r="G13">
-        <v>0.0007389244745406378</v>
+        <v>0.2257172152220406</v>
       </c>
       <c r="H13">
-        <v>0.1573664906652539</v>
+        <v>0.1137901538799184</v>
       </c>
       <c r="I13">
-        <v>0.1364432867728249</v>
+        <v>0.001665325852196808</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2381238760857727</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.31920374817987</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07149383536185283</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.091871533343635</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.04590007149990161</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.076107414757331</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.0644344930916</v>
+        <v>0.9252569538715818</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1066,49 +1066,49 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2991676459865857</v>
+        <v>0.1728085133044743</v>
       </c>
       <c r="D14">
-        <v>0.02131805361349493</v>
+        <v>0.1267440461984393</v>
       </c>
       <c r="E14">
-        <v>0.3164528817313297</v>
+        <v>0.04344826923742939</v>
       </c>
       <c r="F14">
-        <v>3.042074817997502</v>
+        <v>0.4117874159061188</v>
       </c>
       <c r="G14">
-        <v>0.0007409679880122742</v>
+        <v>0.2080067674739752</v>
       </c>
       <c r="H14">
-        <v>0.2028147415036585</v>
+        <v>0.1632668293269859</v>
       </c>
       <c r="I14">
-        <v>0.1291867130974191</v>
+        <v>0.001581272078453821</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2296594714956086</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2987391834556199</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07743220451549249</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.018448579872711</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04982614443371247</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.024205843690147</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.30041316872598</v>
+        <v>0.8699179273866946</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1119,49 +1119,49 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2945543788243015</v>
+        <v>0.1683647680703189</v>
       </c>
       <c r="D15">
-        <v>0.02017281835578544</v>
+        <v>0.123490791322169</v>
       </c>
       <c r="E15">
-        <v>0.2739382330171658</v>
+        <v>0.04248955216196126</v>
       </c>
       <c r="F15">
-        <v>2.970077445361255</v>
+        <v>0.4046762325862758</v>
       </c>
       <c r="G15">
-        <v>0.0007418333977551317</v>
+        <v>0.2040589089873492</v>
       </c>
       <c r="H15">
-        <v>0.2139811819924518</v>
+        <v>0.1758458964176839</v>
       </c>
       <c r="I15">
-        <v>0.1261702881499103</v>
+        <v>0.001644416423088657</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2281362017992947</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2938493333767269</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07920863803285272</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.961928560542674</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05119878093383257</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.004992565659741</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.04170610277822</v>
+        <v>0.8583201498476001</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1172,49 +1172,49 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2761279780223589</v>
+        <v>0.1612649415566096</v>
       </c>
       <c r="D16">
-        <v>0.01935092930526139</v>
+        <v>0.1181360945759451</v>
       </c>
       <c r="E16">
-        <v>0.2635724612734762</v>
+        <v>0.04242423934991768</v>
       </c>
       <c r="F16">
-        <v>2.786650979598932</v>
+        <v>0.4091213947725123</v>
       </c>
       <c r="G16">
-        <v>0.0007453331103943323</v>
+        <v>0.2090338376446113</v>
       </c>
       <c r="H16">
-        <v>0.196464873784322</v>
+        <v>0.1635390670514596</v>
       </c>
       <c r="I16">
-        <v>0.1139313015565238</v>
+        <v>0.001585536870646997</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2342308461436673</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2972544037538754</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07744408842466299</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.591695036591261</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05082513628054386</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.9443028080774454</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9.427754723502915</v>
+        <v>0.881422463168704</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1225,49 +1225,49 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2658149304771626</v>
+        <v>0.1628964144731668</v>
       </c>
       <c r="D17">
-        <v>0.02090291503434472</v>
+        <v>0.1198807975456901</v>
       </c>
       <c r="E17">
-        <v>0.3522839429266824</v>
+        <v>0.04456638074266106</v>
       </c>
       <c r="F17">
-        <v>2.754578388604102</v>
+        <v>0.4283528633327975</v>
       </c>
       <c r="G17">
-        <v>0.0007469685434605837</v>
+        <v>0.222151268445792</v>
       </c>
       <c r="H17">
-        <v>0.1569452484738036</v>
+        <v>0.1260484949339826</v>
       </c>
       <c r="I17">
-        <v>0.108314138216846</v>
+        <v>0.00163709201839346</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2433930225943968</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3105514419684248</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07241618747966783</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.347592264086359</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04795869531341879</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.9251953784406055</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9.356076777291037</v>
+        <v>0.9282950890175243</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1278,49 +1278,49 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2635573844842867</v>
+        <v>0.1734939650594214</v>
       </c>
       <c r="D18">
-        <v>0.02526202001759259</v>
+        <v>0.1280289883335683</v>
       </c>
       <c r="E18">
-        <v>0.6015939595596933</v>
+        <v>0.05019528045611477</v>
       </c>
       <c r="F18">
-        <v>2.854513301702525</v>
+        <v>0.4645078434993195</v>
       </c>
       <c r="G18">
-        <v>0.00074702237257462</v>
+        <v>0.2453097888660309</v>
       </c>
       <c r="H18">
-        <v>0.105485832718621</v>
+        <v>0.07331868544073927</v>
       </c>
       <c r="I18">
-        <v>0.1077179054796789</v>
+        <v>0.00142685374895013</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2569464866863669</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.335642577080403</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.06699475227432927</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.184151968750655</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.04584201719286707</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.9396828451827659</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9.765487463008355</v>
+        <v>1.005712777185465</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1331,49 +1331,49 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2637408024227881</v>
+        <v>0.1889775802412004</v>
       </c>
       <c r="D19">
-        <v>0.03195389919016023</v>
+        <v>0.1411940109357488</v>
       </c>
       <c r="E19">
-        <v>1.063419647291042</v>
+        <v>0.06010015065865915</v>
       </c>
       <c r="F19">
-        <v>3.045632383066703</v>
+        <v>0.5118223337949672</v>
       </c>
       <c r="G19">
-        <v>0.0007457094319803367</v>
+        <v>0.2750170420311235</v>
       </c>
       <c r="H19">
-        <v>0.06523954185914249</v>
+        <v>0.02789891517087284</v>
       </c>
       <c r="I19">
-        <v>0.1117226668372275</v>
+        <v>0.001538931133956645</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2729733161821244</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3679474813423305</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.0661536178552764</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.098129919985013</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.04909034619770125</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.9796823034171069</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10.50496887608301</v>
+        <v>1.102247150925322</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1384,49 +1384,49 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2793407580425367</v>
+        <v>0.2215953659756877</v>
       </c>
       <c r="D20">
-        <v>0.04562799013000074</v>
+        <v>0.1678728589497354</v>
       </c>
       <c r="E20">
-        <v>2.105479798230888</v>
+        <v>0.08152449857925603</v>
       </c>
       <c r="F20">
-        <v>3.512468536267107</v>
+        <v>0.5920571436370281</v>
       </c>
       <c r="G20">
-        <v>0.0007404437960557399</v>
+        <v>0.3244010942802973</v>
       </c>
       <c r="H20">
-        <v>0.05532613631724548</v>
+        <v>0.0008964205021464444</v>
       </c>
       <c r="I20">
-        <v>0.1293625464831027</v>
+        <v>0.001636535863314137</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2965648251003969</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4227696817655193</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.07703634721485564</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.230275353647755</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.06635751190561123</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.091503652018872</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.24524227118297</v>
+        <v>1.256487444497949</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1437,49 +1437,49 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3142969304566066</v>
+        <v>0.2449198906903263</v>
       </c>
       <c r="D21">
-        <v>0.05196693224527849</v>
+        <v>0.186656135055344</v>
       </c>
       <c r="E21">
-        <v>2.477224327028608</v>
+        <v>0.08854144830773336</v>
       </c>
       <c r="F21">
-        <v>3.993254688132936</v>
+        <v>0.6133075601782423</v>
       </c>
       <c r="G21">
-        <v>0.0007329192563010345</v>
+        <v>0.3334220028127248</v>
       </c>
       <c r="H21">
-        <v>0.07008815346526021</v>
+        <v>0.0001334076435102194</v>
       </c>
       <c r="I21">
-        <v>0.158039388381062</v>
+        <v>0.002174872566725661</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2947264205190194</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4364499098020787</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08089032411031205</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.872503055797949</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.06999787768465993</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.23228418455453</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.92351275219653</v>
+        <v>1.272135244048556</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1490,49 +1490,49 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3400297655444717</v>
+        <v>0.2604055841619726</v>
       </c>
       <c r="D22">
-        <v>0.05579569802971207</v>
+        <v>0.1977952607170437</v>
       </c>
       <c r="E22">
-        <v>2.668247709860722</v>
+        <v>0.09212954461244749</v>
       </c>
       <c r="F22">
-        <v>4.303050692851912</v>
+        <v>0.6257356256691082</v>
       </c>
       <c r="G22">
-        <v>0.0007281613522351904</v>
+        <v>0.338807102493341</v>
       </c>
       <c r="H22">
-        <v>0.07980333804283823</v>
+        <v>2.381564300213412E-06</v>
       </c>
       <c r="I22">
-        <v>0.1776531822115759</v>
+        <v>0.002526410974622806</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2933122905886023</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4448483376195114</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08270336515839283</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.295074807185756</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.0710265483044239</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.32117667102662</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.00137203242127</v>
+        <v>1.280826744831273</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1543,49 +1543,49 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3292055944723273</v>
+        <v>0.2537506050748135</v>
       </c>
       <c r="D23">
-        <v>0.05407481942569348</v>
+        <v>0.1917509287646766</v>
       </c>
       <c r="E23">
-        <v>2.566455741422971</v>
+        <v>0.09033116511101369</v>
       </c>
       <c r="F23">
-        <v>4.145268541673744</v>
+        <v>0.6205688060550258</v>
       </c>
       <c r="G23">
-        <v>0.0007306388170778441</v>
+        <v>0.3370784573499463</v>
       </c>
       <c r="H23">
-        <v>0.07461524531951014</v>
+        <v>4.621261629611517E-05</v>
       </c>
       <c r="I23">
-        <v>0.1671655414525537</v>
+        <v>0.002019338533457038</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2946495710290549</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4419382563144225</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08187686351391577</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.069338232833047</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.07027460689691978</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.274067619320249</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.45538754922916</v>
+        <v>1.27983727633007</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1596,49 +1596,49 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2837080296176708</v>
+        <v>0.2257401707988578</v>
       </c>
       <c r="D24">
-        <v>0.04702718752439949</v>
+        <v>0.1691025132940069</v>
       </c>
       <c r="E24">
-        <v>2.18577175694486</v>
+        <v>0.08333128981045945</v>
       </c>
       <c r="F24">
-        <v>3.54277419665965</v>
+        <v>0.6001487333390969</v>
       </c>
       <c r="G24">
-        <v>0.0007402221874129224</v>
+        <v>0.3299985917720392</v>
       </c>
       <c r="H24">
-        <v>0.05627264951743793</v>
+        <v>0.0007411465132418638</v>
       </c>
       <c r="I24">
-        <v>0.1298794379051182</v>
+        <v>0.001153972840892692</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2995425955602258</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4292019484787417</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.07847853089035617</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.215038459153789</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.06781337715053581</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.095183967702546</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.36438140078747</v>
+        <v>1.274586811843321</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1649,49 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2350880966656774</v>
+        <v>0.1951620775004841</v>
       </c>
       <c r="D25">
-        <v>0.03941135941203555</v>
+        <v>0.1448299916538645</v>
       </c>
       <c r="E25">
-        <v>1.784415503561462</v>
+        <v>0.07577624987548681</v>
       </c>
       <c r="F25">
-        <v>2.906734149520304</v>
+        <v>0.581434223933087</v>
       </c>
       <c r="G25">
-        <v>0.0007508329451554903</v>
+        <v>0.3252033758880728</v>
       </c>
       <c r="H25">
-        <v>0.03898882851764895</v>
+        <v>0.002518667863604107</v>
       </c>
       <c r="I25">
-        <v>0.09429756404644607</v>
+        <v>0.00140784012456141</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3065097599745172</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4173169410316611</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.07471955361483928</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>4.293482597829097</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.06526944826543257</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.9022578780399968</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10.15473619962268</v>
+        <v>1.278456621642889</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1761506082615512</v>
+        <v>0.1331298900811788</v>
       </c>
       <c r="D2">
-        <v>0.1268346154530633</v>
+        <v>0.1291793917631168</v>
       </c>
       <c r="E2">
-        <v>0.07048169967763052</v>
+        <v>0.06774232003930791</v>
       </c>
       <c r="F2">
-        <v>0.5740058685532077</v>
+        <v>0.5338541514194191</v>
       </c>
       <c r="G2">
-        <v>0.3268287240050256</v>
+        <v>0.2811561741125672</v>
       </c>
       <c r="H2">
-        <v>0.004589641020493307</v>
+        <v>0.003879874255397486</v>
       </c>
       <c r="I2">
-        <v>0.001775811443172515</v>
+        <v>0.001224436333682632</v>
       </c>
       <c r="J2">
-        <v>0.3145215964311205</v>
+        <v>0.3198685155636838</v>
       </c>
       <c r="K2">
-        <v>0.4139495109859084</v>
+        <v>0.3673864351438816</v>
       </c>
       <c r="L2">
-        <v>0.07220895044590492</v>
+        <v>0.1797027452550708</v>
       </c>
       <c r="M2">
-        <v>3.613547537373279</v>
+        <v>0.1024266554919784</v>
       </c>
       <c r="N2">
-        <v>0.06300519963916074</v>
+        <v>0.06782690170667571</v>
       </c>
       <c r="O2">
-        <v>0.7608290942101377</v>
+        <v>3.624150913819506</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0739940788903688</v>
       </c>
       <c r="Q2">
-        <v>1.298249188831477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.7548286988861719</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.191413350635301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1608046192830699</v>
+        <v>0.1223051608005932</v>
       </c>
       <c r="D3">
-        <v>0.1148222900416727</v>
+        <v>0.1169403604785586</v>
       </c>
       <c r="E3">
-        <v>0.06671341553401255</v>
+        <v>0.06439214203639843</v>
       </c>
       <c r="F3">
-        <v>0.5682583229242653</v>
+        <v>0.5315137792123181</v>
       </c>
       <c r="G3">
-        <v>0.3274428659719746</v>
+        <v>0.2854462472884904</v>
       </c>
       <c r="H3">
-        <v>0.006447813733980956</v>
+        <v>0.005460590805200394</v>
       </c>
       <c r="I3">
-        <v>0.002903187682584019</v>
+        <v>0.001948139161811469</v>
       </c>
       <c r="J3">
-        <v>0.3198437371854865</v>
+        <v>0.3235033365817728</v>
       </c>
       <c r="K3">
-        <v>0.4102083265985996</v>
+        <v>0.3668183268133873</v>
       </c>
       <c r="L3">
-        <v>0.07024751726602574</v>
+        <v>0.1837387343493155</v>
       </c>
       <c r="M3">
-        <v>3.152050734265856</v>
+        <v>0.09926478379369641</v>
       </c>
       <c r="N3">
-        <v>0.06179190156283987</v>
+        <v>0.06624958761878474</v>
       </c>
       <c r="O3">
-        <v>0.664324140244787</v>
+        <v>3.162205026475306</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.07265934819758613</v>
       </c>
       <c r="Q3">
-        <v>1.310387619180347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.659416035825295</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.210654197140755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1511980678870799</v>
+        <v>0.1154441746936499</v>
       </c>
       <c r="D4">
-        <v>0.1074718033042714</v>
+        <v>0.1094561758670451</v>
       </c>
       <c r="E4">
-        <v>0.06438486282169009</v>
+        <v>0.06231695087310207</v>
       </c>
       <c r="F4">
-        <v>0.5653418377812258</v>
+        <v>0.5305775264130119</v>
       </c>
       <c r="G4">
-        <v>0.3283317404084514</v>
+        <v>0.2886023636479464</v>
       </c>
       <c r="H4">
-        <v>0.007794182820695245</v>
+        <v>0.006607084792596751</v>
       </c>
       <c r="I4">
-        <v>0.003835536555272689</v>
+        <v>0.002587116894122499</v>
       </c>
       <c r="J4">
-        <v>0.3234495770701002</v>
+        <v>0.3258951618340618</v>
       </c>
       <c r="K4">
-        <v>0.4082196837830914</v>
+        <v>0.3666624483032663</v>
       </c>
       <c r="L4">
-        <v>0.06900516151344327</v>
+        <v>0.1862578362223601</v>
       </c>
       <c r="M4">
-        <v>2.868114377566627</v>
+        <v>0.09793727006177377</v>
       </c>
       <c r="N4">
-        <v>0.06107628842183388</v>
+        <v>0.06524259866213988</v>
       </c>
       <c r="O4">
-        <v>0.6049358357631363</v>
+        <v>2.877937065609586</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.07190019866773412</v>
       </c>
       <c r="Q4">
-        <v>1.319625642344107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6006633386800857</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.223939430643441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1468401606756942</v>
+        <v>0.1122477389718242</v>
       </c>
       <c r="D5">
-        <v>0.1045056928106618</v>
+        <v>0.1064370037572431</v>
       </c>
       <c r="E5">
-        <v>0.06340221589366202</v>
+        <v>0.06143804122018359</v>
       </c>
       <c r="F5">
-        <v>0.5639037068775608</v>
+        <v>0.5299419993424479</v>
       </c>
       <c r="G5">
-        <v>0.3285031318127949</v>
+        <v>0.28972865310309</v>
       </c>
       <c r="H5">
-        <v>0.008396498016538884</v>
+        <v>0.007120343871600182</v>
       </c>
       <c r="I5">
-        <v>0.004350900158740512</v>
+        <v>0.002983304966906353</v>
       </c>
       <c r="J5">
-        <v>0.3248372703869435</v>
+        <v>0.326747814571867</v>
       </c>
       <c r="K5">
-        <v>0.4070695918808269</v>
+        <v>0.3662666083609309</v>
       </c>
       <c r="L5">
-        <v>0.06845207631725714</v>
+        <v>0.1871073103610321</v>
       </c>
       <c r="M5">
-        <v>2.75230022196294</v>
+        <v>0.09745090333744066</v>
       </c>
       <c r="N5">
-        <v>0.06084045041066766</v>
+        <v>0.06478931052862613</v>
       </c>
       <c r="O5">
-        <v>0.5806177612763435</v>
+        <v>2.761975257407641</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.07165941423851763</v>
       </c>
       <c r="Q5">
-        <v>1.322812222125066</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5765973761246954</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.22877283595291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1456289210484556</v>
+        <v>0.1112912192861657</v>
       </c>
       <c r="D6">
-        <v>0.1040423122253529</v>
+        <v>0.1059648655227647</v>
       </c>
       <c r="E6">
-        <v>0.0632023191103368</v>
+        <v>0.06125690235637471</v>
       </c>
       <c r="F6">
-        <v>0.5631867467759619</v>
+        <v>0.5293848641608534</v>
       </c>
       <c r="G6">
-        <v>0.328154841238586</v>
+        <v>0.289574431216252</v>
       </c>
       <c r="H6">
-        <v>0.008504420425967038</v>
+        <v>0.00721244675891064</v>
       </c>
       <c r="I6">
-        <v>0.004541847107093488</v>
+        <v>0.003169190899544816</v>
       </c>
       <c r="J6">
-        <v>0.324871665052008</v>
+        <v>0.3266946828440496</v>
       </c>
       <c r="K6">
-        <v>0.4063765562991151</v>
+        <v>0.365741029537304</v>
       </c>
       <c r="L6">
-        <v>0.06831436537052582</v>
+        <v>0.1870209611171916</v>
       </c>
       <c r="M6">
-        <v>2.733120298381266</v>
+        <v>0.09725837630084833</v>
       </c>
       <c r="N6">
-        <v>0.06086161485107944</v>
+        <v>0.06467306791568994</v>
       </c>
       <c r="O6">
-        <v>0.5764790288710984</v>
+        <v>2.742769283470693</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.07168650917208907</v>
       </c>
       <c r="Q6">
-        <v>1.32213162913672</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5725016904517801</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.22845212500475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.149810477870389</v>
+        <v>0.114396794045966</v>
       </c>
       <c r="D7">
-        <v>0.1075105714868698</v>
+        <v>0.1096533389367025</v>
       </c>
       <c r="E7">
-        <v>0.06427205532095925</v>
+        <v>0.06222892409531688</v>
       </c>
       <c r="F7">
-        <v>0.5639933178905068</v>
+        <v>0.5286270319160806</v>
       </c>
       <c r="G7">
-        <v>0.3272857622753094</v>
+        <v>0.2894627951070916</v>
       </c>
       <c r="H7">
-        <v>0.007814815017396642</v>
+        <v>0.006629924176662333</v>
       </c>
       <c r="I7">
-        <v>0.004104007055195424</v>
+        <v>0.002897250723452593</v>
       </c>
       <c r="J7">
-        <v>0.3229206799579458</v>
+        <v>0.3225293642171465</v>
       </c>
       <c r="K7">
-        <v>0.4068207578103511</v>
+        <v>0.3649279370591039</v>
       </c>
       <c r="L7">
-        <v>0.06887443176065133</v>
+        <v>0.1854393824918112</v>
       </c>
       <c r="M7">
-        <v>2.866718708550707</v>
+        <v>0.09745580719450331</v>
       </c>
       <c r="N7">
-        <v>0.06123656920539844</v>
+        <v>0.06510856516082697</v>
       </c>
       <c r="O7">
-        <v>0.6043378728594462</v>
+        <v>2.87642216208593</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.07206423764574055</v>
       </c>
       <c r="Q7">
-        <v>1.31629850396159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6001514036558078</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.219019691724426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1691254538595217</v>
+        <v>0.1284200786851954</v>
       </c>
       <c r="D8">
-        <v>0.1227919764188528</v>
+        <v>0.1255914373949452</v>
       </c>
       <c r="E8">
-        <v>0.06905398023801723</v>
+        <v>0.06653066039992162</v>
       </c>
       <c r="F8">
-        <v>0.5701437669384575</v>
+        <v>0.5290302179644613</v>
       </c>
       <c r="G8">
-        <v>0.3255515269102958</v>
+        <v>0.2872947352903878</v>
       </c>
       <c r="H8">
-        <v>0.005199399363070623</v>
+        <v>0.004410975057074051</v>
       </c>
       <c r="I8">
-        <v>0.002424497418529903</v>
+        <v>0.00180152076603779</v>
       </c>
       <c r="J8">
-        <v>0.3155684835886206</v>
+        <v>0.3112565355624781</v>
       </c>
       <c r="K8">
-        <v>0.410768226464775</v>
+        <v>0.3639682780763316</v>
       </c>
       <c r="L8">
-        <v>0.071379148065569</v>
+        <v>0.1796819828563585</v>
       </c>
       <c r="M8">
-        <v>3.45475143224229</v>
+        <v>0.100212453151185</v>
       </c>
       <c r="N8">
-        <v>0.06279764478908589</v>
+        <v>0.06709165024799901</v>
       </c>
       <c r="O8">
-        <v>0.7272172329782691</v>
+        <v>3.464824139498091</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.07372007877956577</v>
       </c>
       <c r="Q8">
-        <v>1.29762793493876</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.721866217386065</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.187558987482447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2079334784701814</v>
+        <v>0.1557302285401505</v>
       </c>
       <c r="D9">
-        <v>0.1528448537274016</v>
+        <v>0.1563926308921282</v>
       </c>
       <c r="E9">
-        <v>0.07850046408047895</v>
+        <v>0.07492865799622273</v>
       </c>
       <c r="F9">
-        <v>0.5896777965055833</v>
+        <v>0.5387189055892136</v>
       </c>
       <c r="G9">
-        <v>0.3283181163500615</v>
+        <v>0.2825034318896158</v>
       </c>
       <c r="H9">
-        <v>0.00178186685483106</v>
+        <v>0.001505151346184341</v>
       </c>
       <c r="I9">
-        <v>0.000756306259975581</v>
+        <v>0.0008135451335364863</v>
       </c>
       <c r="J9">
-        <v>0.3049040052289627</v>
+        <v>0.3013261358869457</v>
       </c>
       <c r="K9">
-        <v>0.4235498999141498</v>
+        <v>0.3676282226950605</v>
       </c>
       <c r="L9">
-        <v>0.07621382892920359</v>
+        <v>0.1705029162755167</v>
       </c>
       <c r="M9">
-        <v>4.603713962452673</v>
+        <v>0.1117238333123645</v>
       </c>
       <c r="N9">
-        <v>0.06581401878959525</v>
+        <v>0.0709376895734426</v>
       </c>
       <c r="O9">
-        <v>0.9677639046643307</v>
+        <v>4.614374809069261</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.07718723965412266</v>
       </c>
       <c r="Q9">
-        <v>1.281888831432312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.9595307323481705</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.15039530114062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2321990906246185</v>
+        <v>0.1733240020081865</v>
       </c>
       <c r="D10">
-        <v>0.1730217677401811</v>
+        <v>0.1780375077484706</v>
       </c>
       <c r="E10">
-        <v>0.08313397091927044</v>
+        <v>0.07901697870412505</v>
       </c>
       <c r="F10">
-        <v>0.5991795745904156</v>
+        <v>0.5375931504675577</v>
       </c>
       <c r="G10">
-        <v>0.3279027961958647</v>
+        <v>0.2882762765622431</v>
       </c>
       <c r="H10">
-        <v>0.0006973931224911745</v>
+        <v>0.0006224673215293741</v>
       </c>
       <c r="I10">
-        <v>0.001036749422104855</v>
+        <v>0.001340264718892037</v>
       </c>
       <c r="J10">
-        <v>0.2961430778034284</v>
+        <v>0.2782820249650868</v>
       </c>
       <c r="K10">
-        <v>0.4287107017000125</v>
+        <v>0.3640603925697654</v>
       </c>
       <c r="L10">
-        <v>0.07789701596721699</v>
+        <v>0.1613686012368412</v>
       </c>
       <c r="M10">
-        <v>5.452339627661104</v>
+        <v>0.1203010592099609</v>
       </c>
       <c r="N10">
-        <v>0.06602476444119176</v>
+        <v>0.07212985065752164</v>
       </c>
       <c r="O10">
-        <v>1.137116204878339</v>
+        <v>5.462187937846124</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.07737764524095425</v>
       </c>
       <c r="Q10">
-        <v>1.263157175239343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.12714375470263</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.106824880825002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2182204002046433</v>
+        <v>0.1657603316963758</v>
       </c>
       <c r="D11">
-        <v>0.1640780254206504</v>
+        <v>0.1707634056070617</v>
       </c>
       <c r="E11">
-        <v>0.06789406370550743</v>
+        <v>0.06469647092600361</v>
       </c>
       <c r="F11">
-        <v>0.5376748299076226</v>
+        <v>0.4747383561144645</v>
       </c>
       <c r="G11">
-        <v>0.2858775290752149</v>
+        <v>0.272613902588283</v>
       </c>
       <c r="H11">
-        <v>0.01920770018810103</v>
+        <v>0.01916403622632501</v>
       </c>
       <c r="I11">
-        <v>0.001755313444761875</v>
+        <v>0.002174387884568141</v>
       </c>
       <c r="J11">
-        <v>0.2707119222500722</v>
+        <v>0.2355958020702147</v>
       </c>
       <c r="K11">
-        <v>0.3848758497964084</v>
+        <v>0.3221379258409804</v>
       </c>
       <c r="L11">
-        <v>0.0689764502355783</v>
+        <v>0.1435371080313992</v>
       </c>
       <c r="M11">
-        <v>5.889170694514291</v>
+        <v>0.1079451319096556</v>
       </c>
       <c r="N11">
-        <v>0.05148718418234743</v>
+        <v>0.06558994572450713</v>
       </c>
       <c r="O11">
-        <v>1.153012159181202</v>
+        <v>5.896894380379763</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.05904980837152252</v>
       </c>
       <c r="Q11">
-        <v>1.121004627365693</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.144279763301341</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.9630168127703911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2039142216606677</v>
+        <v>0.1571441024020146</v>
       </c>
       <c r="D12">
-        <v>0.1523150329714582</v>
+        <v>0.1594211110431871</v>
       </c>
       <c r="E12">
-        <v>0.05679056737659138</v>
+        <v>0.05428479754856497</v>
       </c>
       <c r="F12">
-        <v>0.4878588639256378</v>
+        <v>0.4286049622801684</v>
       </c>
       <c r="G12">
-        <v>0.2538096484174233</v>
+        <v>0.2527036155924591</v>
       </c>
       <c r="H12">
-        <v>0.05791744338620219</v>
+        <v>0.05787874593491438</v>
       </c>
       <c r="I12">
-        <v>0.001805180006847706</v>
+        <v>0.002220725962115644</v>
       </c>
       <c r="J12">
-        <v>0.2526115799803037</v>
+        <v>0.21789995930488</v>
       </c>
       <c r="K12">
-        <v>0.3505125621173732</v>
+        <v>0.292699785861501</v>
       </c>
       <c r="L12">
-        <v>0.06755880422554483</v>
+        <v>0.1325913398058933</v>
       </c>
       <c r="M12">
-        <v>6.080341743885185</v>
+        <v>0.09729108541642262</v>
       </c>
       <c r="N12">
-        <v>0.04551496369883523</v>
+        <v>0.06614578575245034</v>
       </c>
       <c r="O12">
-        <v>1.130232622081735</v>
+        <v>6.086854765084638</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.0501805600339349</v>
       </c>
       <c r="Q12">
-        <v>1.015183145201206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.122642641863422</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.8679116057108729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1865280647793668</v>
+        <v>0.1452146990125129</v>
       </c>
       <c r="D13">
-        <v>0.1378951843327201</v>
+        <v>0.144178521572556</v>
       </c>
       <c r="E13">
-        <v>0.04808625455976578</v>
+        <v>0.04615362769112252</v>
       </c>
       <c r="F13">
-        <v>0.4419339673961602</v>
+        <v>0.3912175345665219</v>
       </c>
       <c r="G13">
-        <v>0.2257172152220406</v>
+        <v>0.2233181870997996</v>
       </c>
       <c r="H13">
-        <v>0.1137901538799184</v>
+        <v>0.1137331942033484</v>
       </c>
       <c r="I13">
-        <v>0.001665325852196808</v>
+        <v>0.002072560400575796</v>
       </c>
       <c r="J13">
-        <v>0.2381238760857727</v>
+        <v>0.213542797698377</v>
       </c>
       <c r="K13">
-        <v>0.31920374817987</v>
+        <v>0.2695152395987286</v>
       </c>
       <c r="L13">
-        <v>0.07149383536185283</v>
+        <v>0.1251276038438327</v>
       </c>
       <c r="M13">
-        <v>6.091871533343635</v>
+        <v>0.08710971408208223</v>
       </c>
       <c r="N13">
-        <v>0.04590007149990161</v>
+        <v>0.07176078752975457</v>
       </c>
       <c r="O13">
-        <v>1.076107414757331</v>
+        <v>6.098173654484924</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.04829688441979485</v>
       </c>
       <c r="Q13">
-        <v>0.9252569538715818</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.069451037615252</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8004862520842693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1728085133044743</v>
+        <v>0.1352467591042483</v>
       </c>
       <c r="D14">
-        <v>0.1267440461984393</v>
+        <v>0.1319819498989432</v>
       </c>
       <c r="E14">
-        <v>0.04344826923742939</v>
+        <v>0.0418813960901625</v>
       </c>
       <c r="F14">
-        <v>0.4117874159061188</v>
+        <v>0.368661684486014</v>
       </c>
       <c r="G14">
-        <v>0.2080067674739752</v>
+        <v>0.2000770953839464</v>
       </c>
       <c r="H14">
-        <v>0.1632668293269859</v>
+        <v>0.1631827505392778</v>
       </c>
       <c r="I14">
-        <v>0.001581272078453821</v>
+        <v>0.001989473020163501</v>
       </c>
       <c r="J14">
-        <v>0.2296594714956086</v>
+        <v>0.2146148710536178</v>
       </c>
       <c r="K14">
-        <v>0.2987391834556199</v>
+        <v>0.2557670134164702</v>
       </c>
       <c r="L14">
-        <v>0.07743220451549249</v>
+        <v>0.1211681935917923</v>
       </c>
       <c r="M14">
-        <v>6.018448579872711</v>
+        <v>0.08025297043240087</v>
       </c>
       <c r="N14">
-        <v>0.04982614443371247</v>
+        <v>0.07864730975652634</v>
       </c>
       <c r="O14">
-        <v>1.024205843690147</v>
+        <v>6.025031894491178</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.05099778483959128</v>
       </c>
       <c r="Q14">
-        <v>0.8699179273866946</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1.018111697174199</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7645716703871415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1683647680703189</v>
+        <v>0.1317932258835981</v>
       </c>
       <c r="D15">
-        <v>0.123490791322169</v>
+        <v>0.1282781479527131</v>
       </c>
       <c r="E15">
-        <v>0.04248955216196126</v>
+        <v>0.04101384560589949</v>
       </c>
       <c r="F15">
-        <v>0.4046762325862758</v>
+        <v>0.3641554762983965</v>
       </c>
       <c r="G15">
-        <v>0.2040589089873492</v>
+        <v>0.1930439549951828</v>
       </c>
       <c r="H15">
-        <v>0.1758458964176839</v>
+        <v>0.1757468540527327</v>
       </c>
       <c r="I15">
-        <v>0.001644416423088657</v>
+        <v>0.002069823483758171</v>
       </c>
       <c r="J15">
-        <v>0.2281362017992947</v>
+        <v>0.216626296383728</v>
       </c>
       <c r="K15">
-        <v>0.2938493333767269</v>
+        <v>0.2530430259545255</v>
       </c>
       <c r="L15">
-        <v>0.07920863803285272</v>
+        <v>0.1205926659271537</v>
       </c>
       <c r="M15">
-        <v>5.961928560542674</v>
+        <v>0.0785116394351526</v>
       </c>
       <c r="N15">
-        <v>0.05119878093383257</v>
+        <v>0.08059675759529483</v>
       </c>
       <c r="O15">
-        <v>1.004992565659741</v>
+        <v>5.968774152846549</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.05218391859441951</v>
       </c>
       <c r="Q15">
-        <v>0.8583201498476001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.9990073441444736</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7594662544910449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1612649415566096</v>
+        <v>0.1251746108379308</v>
       </c>
       <c r="D16">
-        <v>0.1181360945759451</v>
+        <v>0.1212610158756178</v>
       </c>
       <c r="E16">
-        <v>0.04242423934991768</v>
+        <v>0.04098772868967737</v>
       </c>
       <c r="F16">
-        <v>0.4091213947725123</v>
+        <v>0.3751549804314642</v>
       </c>
       <c r="G16">
-        <v>0.2090338376446113</v>
+        <v>0.1837250106284785</v>
       </c>
       <c r="H16">
-        <v>0.1635390670514596</v>
+        <v>0.1633493960083712</v>
       </c>
       <c r="I16">
-        <v>0.001585536870646997</v>
+        <v>0.001971642210494728</v>
       </c>
       <c r="J16">
-        <v>0.2342308461436673</v>
+        <v>0.235535364523475</v>
       </c>
       <c r="K16">
-        <v>0.2972544037538754</v>
+        <v>0.2608864995200442</v>
       </c>
       <c r="L16">
-        <v>0.07744408842466299</v>
+        <v>0.1251242208931735</v>
       </c>
       <c r="M16">
-        <v>5.591695036591261</v>
+        <v>0.07854557230528769</v>
       </c>
       <c r="N16">
-        <v>0.05082513628054386</v>
+        <v>0.07846411751131654</v>
       </c>
       <c r="O16">
-        <v>0.9443028080774454</v>
+        <v>5.600168237767832</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.05257059419939658</v>
       </c>
       <c r="Q16">
-        <v>0.881422463168704</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.9381591910025833</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.7977562997396035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1628964144731668</v>
+        <v>0.125409683694869</v>
       </c>
       <c r="D17">
-        <v>0.1198807975456901</v>
+        <v>0.1224385361278593</v>
       </c>
       <c r="E17">
-        <v>0.04456638074266106</v>
+        <v>0.04295238982427119</v>
       </c>
       <c r="F17">
-        <v>0.4283528633327975</v>
+        <v>0.3951767823572148</v>
       </c>
       <c r="G17">
-        <v>0.222151268445792</v>
+        <v>0.1898898565244238</v>
       </c>
       <c r="H17">
-        <v>0.1260484949339826</v>
+        <v>0.1257990234106501</v>
       </c>
       <c r="I17">
-        <v>0.00163709201839346</v>
+        <v>0.001986342761857607</v>
       </c>
       <c r="J17">
-        <v>0.2433930225943968</v>
+        <v>0.2503933489905918</v>
       </c>
       <c r="K17">
-        <v>0.3105514419684248</v>
+        <v>0.2739478962916095</v>
       </c>
       <c r="L17">
-        <v>0.07241618747966783</v>
+        <v>0.1309411319618548</v>
       </c>
       <c r="M17">
-        <v>5.347592264086359</v>
+        <v>0.08188285758805769</v>
       </c>
       <c r="N17">
-        <v>0.04795869531341879</v>
+        <v>0.07275565736513556</v>
       </c>
       <c r="O17">
-        <v>0.9251953784406055</v>
+        <v>5.356934981796542</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.05087061183580222</v>
       </c>
       <c r="Q17">
-        <v>0.9282950890175243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.9187526592689395</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.8457347930025634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1734939650594214</v>
+        <v>0.1322817000579732</v>
       </c>
       <c r="D18">
-        <v>0.1280289883335683</v>
+        <v>0.1305540203255759</v>
       </c>
       <c r="E18">
-        <v>0.05019528045611477</v>
+        <v>0.04814241857941948</v>
       </c>
       <c r="F18">
-        <v>0.4645078434993195</v>
+        <v>0.4282365743123933</v>
       </c>
       <c r="G18">
-        <v>0.2453097888660309</v>
+        <v>0.2073464926106681</v>
       </c>
       <c r="H18">
-        <v>0.07331868544073927</v>
+        <v>0.07305000648486981</v>
       </c>
       <c r="I18">
-        <v>0.00142685374895013</v>
+        <v>0.001712055421922543</v>
       </c>
       <c r="J18">
-        <v>0.2569464866863669</v>
+        <v>0.2652760371993637</v>
       </c>
       <c r="K18">
-        <v>0.335642577080403</v>
+        <v>0.2952782341252878</v>
       </c>
       <c r="L18">
-        <v>0.06699475227432927</v>
+        <v>0.1394574982372951</v>
       </c>
       <c r="M18">
-        <v>5.184151968750655</v>
+        <v>0.08910693277430326</v>
       </c>
       <c r="N18">
-        <v>0.04584201719286707</v>
+        <v>0.06618986587292497</v>
       </c>
       <c r="O18">
-        <v>0.9396828451827659</v>
+        <v>5.194115280556673</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.05053364608692079</v>
       </c>
       <c r="Q18">
-        <v>1.005712777185465</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.9326171551930784</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.9145960400205269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1889775802412004</v>
+        <v>0.1424463444030408</v>
       </c>
       <c r="D19">
-        <v>0.1411940109357488</v>
+        <v>0.1440063995729588</v>
       </c>
       <c r="E19">
-        <v>0.06010015065865915</v>
+        <v>0.05737474036770429</v>
       </c>
       <c r="F19">
-        <v>0.5118223337949672</v>
+        <v>0.4698044639263301</v>
       </c>
       <c r="G19">
-        <v>0.2750170420311235</v>
+        <v>0.2314536704806542</v>
       </c>
       <c r="H19">
-        <v>0.02789891517087284</v>
+        <v>0.02765590038550414</v>
       </c>
       <c r="I19">
-        <v>0.001538931133956645</v>
+        <v>0.001860563427396045</v>
       </c>
       <c r="J19">
-        <v>0.2729733161821244</v>
+        <v>0.2798732421057508</v>
       </c>
       <c r="K19">
-        <v>0.3679474813423305</v>
+        <v>0.3214351574432612</v>
       </c>
       <c r="L19">
-        <v>0.0661536178552764</v>
+        <v>0.1493856388885675</v>
       </c>
       <c r="M19">
-        <v>5.098129919985013</v>
+        <v>0.09881078468374227</v>
       </c>
       <c r="N19">
-        <v>0.04909034619770125</v>
+        <v>0.06373045781685605</v>
       </c>
       <c r="O19">
-        <v>0.9796823034171069</v>
+        <v>5.108568675052197</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.05624002269751927</v>
       </c>
       <c r="Q19">
-        <v>1.102247150925322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9717070991876113</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.9960446787097226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2215953659756877</v>
+        <v>0.1647005424101593</v>
       </c>
       <c r="D20">
-        <v>0.1678728589497354</v>
+        <v>0.1719089149655275</v>
       </c>
       <c r="E20">
-        <v>0.08152449857925603</v>
+        <v>0.07749997470548742</v>
       </c>
       <c r="F20">
-        <v>0.5920571436370281</v>
+        <v>0.5360869524471639</v>
       </c>
       <c r="G20">
-        <v>0.3244010942802973</v>
+        <v>0.2767876186594904</v>
       </c>
       <c r="H20">
-        <v>0.0008964205021464444</v>
+        <v>0.0007754931635846063</v>
       </c>
       <c r="I20">
-        <v>0.001636535863314137</v>
+        <v>0.002053982941244037</v>
       </c>
       <c r="J20">
-        <v>0.2965648251003969</v>
+        <v>0.2915384945409158</v>
       </c>
       <c r="K20">
-        <v>0.4227696817655193</v>
+        <v>0.3626302571503501</v>
       </c>
       <c r="L20">
-        <v>0.07703634721485564</v>
+        <v>0.1628742598579116</v>
       </c>
       <c r="M20">
-        <v>5.230275353647755</v>
+        <v>0.116986722826848</v>
       </c>
       <c r="N20">
-        <v>0.06635751190561123</v>
+        <v>0.07151993910428267</v>
       </c>
       <c r="O20">
-        <v>1.091503652018872</v>
+        <v>5.240821616342089</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.07781283379762272</v>
       </c>
       <c r="Q20">
-        <v>1.256487444497949</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.0817508179329</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.11440893546829</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2449198906903263</v>
+        <v>0.1842115948080476</v>
       </c>
       <c r="D21">
-        <v>0.186656135055344</v>
+        <v>0.1951311144701862</v>
       </c>
       <c r="E21">
-        <v>0.08854144830773336</v>
+        <v>0.08431261564978598</v>
       </c>
       <c r="F21">
-        <v>0.6133075601782423</v>
+        <v>0.5345915590164978</v>
       </c>
       <c r="G21">
-        <v>0.3334220028127248</v>
+        <v>0.3272019731782549</v>
       </c>
       <c r="H21">
-        <v>0.0001334076435102194</v>
+        <v>0.0001213414181713279</v>
       </c>
       <c r="I21">
-        <v>0.002174872566725661</v>
+        <v>0.002632442291455206</v>
       </c>
       <c r="J21">
-        <v>0.2947264205190194</v>
+        <v>0.2391804533842645</v>
       </c>
       <c r="K21">
-        <v>0.4364499098020787</v>
+        <v>0.359199647241045</v>
       </c>
       <c r="L21">
-        <v>0.08089032411031205</v>
+        <v>0.1558440614174934</v>
       </c>
       <c r="M21">
-        <v>5.872503055797949</v>
+        <v>0.1238524394940761</v>
       </c>
       <c r="N21">
-        <v>0.06999787768465993</v>
+        <v>0.07421609744215196</v>
       </c>
       <c r="O21">
-        <v>1.23228418455453</v>
+        <v>5.879975490457639</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.08194206732228437</v>
       </c>
       <c r="Q21">
-        <v>1.272135244048556</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.222371372634569</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.072487030251182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2604055841619726</v>
+        <v>0.1977005069895341</v>
       </c>
       <c r="D22">
-        <v>0.1977952607170437</v>
+        <v>0.2095134321515815</v>
       </c>
       <c r="E22">
-        <v>0.09212954461244749</v>
+        <v>0.08787864819428037</v>
       </c>
       <c r="F22">
-        <v>0.6257356256691082</v>
+        <v>0.5312882884426386</v>
       </c>
       <c r="G22">
-        <v>0.338807102493341</v>
+        <v>0.3669514450524503</v>
       </c>
       <c r="H22">
-        <v>2.381564300213412E-06</v>
+        <v>4.378296948770455E-06</v>
       </c>
       <c r="I22">
-        <v>0.002526410974622806</v>
+        <v>0.002863496060059312</v>
       </c>
       <c r="J22">
-        <v>0.2933122905886023</v>
+        <v>0.2125924023238337</v>
       </c>
       <c r="K22">
-        <v>0.4448483376195114</v>
+        <v>0.3558772471050418</v>
       </c>
       <c r="L22">
-        <v>0.08270336515839283</v>
+        <v>0.1509993091608237</v>
       </c>
       <c r="M22">
-        <v>6.295074807185756</v>
+        <v>0.1282232865892361</v>
       </c>
       <c r="N22">
-        <v>0.0710265483044239</v>
+        <v>0.07539667862901744</v>
       </c>
       <c r="O22">
-        <v>1.32117667102662</v>
+        <v>6.300177570616484</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.08304724170140787</v>
       </c>
       <c r="Q22">
-        <v>1.280826744831273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.3113242864044</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.04141579639159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2537506050748135</v>
+        <v>0.1914218180323246</v>
       </c>
       <c r="D23">
-        <v>0.1917509287646766</v>
+        <v>0.2012680485423886</v>
       </c>
       <c r="E23">
-        <v>0.09033116511101369</v>
+        <v>0.08602350842092932</v>
       </c>
       <c r="F23">
-        <v>0.6205688060550258</v>
+        <v>0.5361297651465762</v>
       </c>
       <c r="G23">
-        <v>0.3370784573499463</v>
+        <v>0.340762095191451</v>
       </c>
       <c r="H23">
-        <v>4.621261629611517E-05</v>
+        <v>4.527564010459173E-05</v>
       </c>
       <c r="I23">
-        <v>0.002019338533457038</v>
+        <v>0.002369058138913971</v>
       </c>
       <c r="J23">
-        <v>0.2946495710290549</v>
+        <v>0.2297683295972917</v>
       </c>
       <c r="K23">
-        <v>0.4419382563144225</v>
+        <v>0.3601548907026384</v>
       </c>
       <c r="L23">
-        <v>0.08187686351391577</v>
+        <v>0.1544104275302907</v>
       </c>
       <c r="M23">
-        <v>6.069338232833047</v>
+        <v>0.12691520467137</v>
       </c>
       <c r="N23">
-        <v>0.07027460689691978</v>
+        <v>0.07492007218229269</v>
       </c>
       <c r="O23">
-        <v>1.274067619320249</v>
+        <v>6.076030754117085</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.08225168116515391</v>
       </c>
       <c r="Q23">
-        <v>1.27983727633007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.26396573492886</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.065702800724281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2257401707988578</v>
+        <v>0.1678076364179049</v>
       </c>
       <c r="D24">
-        <v>0.1691025132940069</v>
+        <v>0.1731473031101558</v>
       </c>
       <c r="E24">
-        <v>0.08333128981045945</v>
+        <v>0.07920735190964834</v>
       </c>
       <c r="F24">
-        <v>0.6001487333390969</v>
+        <v>0.5433876397078379</v>
       </c>
       <c r="G24">
-        <v>0.3299985917720392</v>
+        <v>0.2813117548605817</v>
       </c>
       <c r="H24">
-        <v>0.0007411465132418638</v>
+        <v>0.0006237063550019739</v>
       </c>
       <c r="I24">
-        <v>0.001153972840892692</v>
+        <v>0.001473678741541029</v>
       </c>
       <c r="J24">
-        <v>0.2995425955602258</v>
+        <v>0.2945135482958321</v>
       </c>
       <c r="K24">
-        <v>0.4292019484787417</v>
+        <v>0.3680769558591273</v>
       </c>
       <c r="L24">
-        <v>0.07847853089035617</v>
+        <v>0.1649526280365485</v>
       </c>
       <c r="M24">
-        <v>5.215038459153789</v>
+        <v>0.1189934959723296</v>
       </c>
       <c r="N24">
-        <v>0.06781337715053581</v>
+        <v>0.07269704870563842</v>
       </c>
       <c r="O24">
-        <v>1.095183967702546</v>
+        <v>5.225638708750523</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.07956836170681569</v>
       </c>
       <c r="Q24">
-        <v>1.274586811843321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.085320704535114</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.130255105683403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1951620775004841</v>
+        <v>0.1462726855086629</v>
       </c>
       <c r="D25">
-        <v>0.1448299916538645</v>
+        <v>0.1479397766520236</v>
       </c>
       <c r="E25">
-        <v>0.07577624987548681</v>
+        <v>0.07247222331315761</v>
       </c>
       <c r="F25">
-        <v>0.581434223933087</v>
+        <v>0.5343958541105778</v>
       </c>
       <c r="G25">
-        <v>0.3252033758880728</v>
+        <v>0.2789971753706553</v>
       </c>
       <c r="H25">
-        <v>0.002518667863604107</v>
+        <v>0.002127618391640107</v>
       </c>
       <c r="I25">
-        <v>0.00140784012456141</v>
+        <v>0.001405269972480028</v>
       </c>
       <c r="J25">
-        <v>0.3065097599745172</v>
+        <v>0.3067907548973778</v>
       </c>
       <c r="K25">
-        <v>0.4173169410316611</v>
+        <v>0.3649056728932187</v>
       </c>
       <c r="L25">
-        <v>0.07471955361483928</v>
+        <v>0.1723317852644932</v>
       </c>
       <c r="M25">
-        <v>4.293482597829097</v>
+        <v>0.1075234304726145</v>
       </c>
       <c r="N25">
-        <v>0.06526944826543257</v>
+        <v>0.06976640406835166</v>
       </c>
       <c r="O25">
-        <v>0.9022578780399968</v>
+        <v>4.304230052659989</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.07655390364920933</v>
       </c>
       <c r="Q25">
-        <v>1.278456621642889</v>
+        <v>0.8947408738549072</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.156250172155012</v>
       </c>
     </row>
   </sheetData>
